--- a/output/ClusterAnalysisPerformance.xlsx
+++ b/output/ClusterAnalysisPerformance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\match_pedon_site\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D5CA04-D9AE-42E5-85C8-674E943ED494}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B5E5A-C3E0-4BA3-AF08-F9F90633BDED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>klevel</t>
   </si>
@@ -116,13 +116,19 @@
   <si>
     <t>All 5 datasets</t>
   </si>
+  <si>
+    <t>USFS Subsection BONAP dataset</t>
+  </si>
+  <si>
+    <t>mean 17-24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -239,13 +245,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -263,7 +269,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44202EFB-DF2D-460C-A98E-9C14A00CE468}">
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,35 +1949,35 @@
         <v>3</v>
       </c>
       <c r="M27" s="9">
-        <f>RANK(M24,($M24:$T24))</f>
+        <f t="shared" ref="M27:T28" si="5">RANK(M24,($M24:$T24))</f>
         <v>1</v>
       </c>
       <c r="N27" s="9">
-        <f>RANK(N24,($M24:$T24))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O27" s="9">
-        <f>RANK(O24,($M24:$T24))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P27" s="9">
-        <f>RANK(P24,($M24:$T24))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q27" s="9">
-        <f>RANK(Q24,($M24:$T24))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="R27" s="9">
-        <f>RANK(R24,($M24:$T24))</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="S27" s="9">
-        <f>RANK(S24,($M24:$T24))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T27" s="9">
-        <f>RANK(T24,($M24:$T24))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -2015,35 +2021,35 @@
         <v>3</v>
       </c>
       <c r="M28" s="9">
-        <f>RANK(M25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N28" s="9">
-        <f>RANK(N25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O28" s="9">
-        <f>RANK(O25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P28" s="9">
-        <f>RANK(P25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q28" s="9">
-        <f>RANK(Q25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="R28" s="9">
-        <f>RANK(R25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="S28" s="9">
-        <f>RANK(S25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="T28" s="9">
-        <f>RANK(T25,($M25:$T25))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3184,31 +3190,31 @@
         <v>9.187810285714286E-2</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" ref="D53:J53" si="5">AVERAGE(D33:D39)</f>
+        <f t="shared" ref="D53:J53" si="6">AVERAGE(D33:D39)</f>
         <v>9.187810285714286E-2</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8656739999999998E-2</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9013734285714278E-2</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6636441428571427E-2</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10818865285714287</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8127292857142844E-2</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4033041428571428E-2</v>
       </c>
       <c r="L53" s="2" t="s">
@@ -3219,31 +3225,31 @@
         <v>9.4916527142857143E-2</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" ref="N53:T53" si="6">AVERAGE(N33:N39)</f>
+        <f t="shared" ref="N53:T53" si="7">AVERAGE(N33:N39)</f>
         <v>9.4916527142857143E-2</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4951578214285713E-2</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11159226142857144</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9004838571428574E-2</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9631458571428563E-2</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7096028571428569E-2</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8242362857142853E-2</v>
       </c>
     </row>
@@ -3256,31 +3262,31 @@
         <v>7.1941531249999996E-2</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" ref="D54:J54" si="7">AVERAGE(D40:D47)</f>
+        <f t="shared" ref="D54:J54" si="8">AVERAGE(D40:D47)</f>
         <v>7.1941531249999996E-2</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.8788457500000006E-2</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.3084628749999995E-2</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4537884999999999E-2</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.9033871250000003E-2</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.1694941249999996E-2</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.0722125000000006E-2</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -3291,31 +3297,31 @@
         <v>0.15043241124999998</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" ref="N54:T54" si="8">AVERAGE(N40:N47)</f>
+        <f t="shared" ref="N54:T54" si="9">AVERAGE(N40:N47)</f>
         <v>0.15090295874999998</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5387151000000001E-3</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14709606375000001</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14931326750000001</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12364091625</v>
       </c>
       <c r="S54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4823945E-2</v>
       </c>
       <c r="T54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.139947815</v>
       </c>
     </row>
@@ -3324,70 +3330,70 @@
         <v>3</v>
       </c>
       <c r="C56" s="9">
-        <f>RANK(C53,($C53:$J53))</f>
+        <f t="shared" ref="C56:J57" si="10">RANK(C53,($C53:$J53))</f>
         <v>3</v>
       </c>
       <c r="D56" s="9">
-        <f>RANK(D53,($C53:$J53))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E56" s="9">
-        <f>RANK(E53,($C53:$J53))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F56" s="9">
-        <f>RANK(F53,($C53:$J53))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G56" s="9">
-        <f>RANK(G53,($C53:$J53))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H56" s="9">
-        <f>RANK(H53,($C53:$J53))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I56" s="9">
-        <f>RANK(I53,($C53:$J53))</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J56" s="9">
-        <f>RANK(J53,($C53:$J53))</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>3</v>
       </c>
       <c r="M56" s="9">
-        <f>RANK(M53,($M53:$T53))</f>
+        <f t="shared" ref="M56:T57" si="11">RANK(M53,($M53:$T53))</f>
         <v>3</v>
       </c>
       <c r="N56" s="9">
-        <f>RANK(N53,($M53:$T53))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O56" s="9">
-        <f>RANK(O53,($M53:$T53))</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="P56" s="9">
-        <f>RANK(P53,($M53:$T53))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q56" s="9">
-        <f>RANK(Q53,($M53:$T53))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="R56" s="9">
-        <f>RANK(R53,($M53:$T53))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="S56" s="9">
-        <f>RANK(S53,($M53:$T53))</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="T56" s="9">
-        <f>RANK(T53,($M53:$T53))</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -3396,70 +3402,70 @@
         <v>3</v>
       </c>
       <c r="C57" s="9">
-        <f>RANK(C54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D57" s="9">
-        <f>RANK(D54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E57" s="9">
-        <f>RANK(E54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="F57" s="9">
-        <f>RANK(F54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G57" s="9">
-        <f>RANK(G54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H57" s="9">
-        <f>RANK(H54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I57" s="9">
-        <f>RANK(I54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="J57" s="9">
-        <f>RANK(J54,($C54:$J54))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="9">
-        <f>RANK(M54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="N57" s="9">
-        <f>RANK(N54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O57" s="9">
-        <f>RANK(O54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="P57" s="9">
-        <f>RANK(P54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="Q57" s="9">
-        <f>RANK(Q54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R57" s="9">
-        <f>RANK(R54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="S57" s="9">
-        <f>RANK(S54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="T57" s="9">
-        <f>RANK(T54,($M54:$T54))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -3965,35 +3971,35 @@
         <v>1</v>
       </c>
       <c r="N76" s="14">
-        <f>AVERAGE(C82,C53,M53,M24,C24)</f>
+        <f t="shared" ref="N76:U77" si="12">AVERAGE(C82,C53,M53,M24,C24)</f>
         <v>0.23165781914285716</v>
       </c>
       <c r="O76" s="14">
-        <f>AVERAGE(D82,D53,N53,N24,D24)</f>
+        <f t="shared" si="12"/>
         <v>0.23089412199999998</v>
       </c>
       <c r="P76" s="14">
-        <f>AVERAGE(E82,E53,O53,O24,E24)</f>
+        <f t="shared" si="12"/>
         <v>0.19587889684285714</v>
       </c>
       <c r="Q76" s="14">
-        <f>AVERAGE(F82,F53,P53,P24,F24)</f>
+        <f t="shared" si="12"/>
         <v>0.22260635314285712</v>
       </c>
       <c r="R76" s="14">
-        <f>AVERAGE(G82,G53,Q53,Q24,G24)</f>
+        <f t="shared" si="12"/>
         <v>0.21201107857142856</v>
       </c>
       <c r="S76" s="14">
-        <f>AVERAGE(H82,H53,R53,R24,H24)</f>
+        <f t="shared" si="12"/>
         <v>0.19027665942857142</v>
       </c>
       <c r="T76" s="14">
-        <f>AVERAGE(I82,I53,S53,S24,I24)</f>
+        <f t="shared" si="12"/>
         <v>0.17692567342857143</v>
       </c>
       <c r="U76" s="14">
-        <f>AVERAGE(J82,J53,T53,T24,J24)</f>
+        <f t="shared" si="12"/>
         <v>0.19759749942857141</v>
       </c>
     </row>
@@ -4029,35 +4035,35 @@
         <v>2</v>
       </c>
       <c r="N77" s="14">
-        <f>AVERAGE(C83,C54,M54,M25,C25)</f>
+        <f t="shared" si="12"/>
         <v>0.20683170175000001</v>
       </c>
       <c r="O77" s="14">
-        <f>AVERAGE(D83,D54,N54,N25,D25)</f>
+        <f t="shared" si="12"/>
         <v>0.20638305125</v>
       </c>
       <c r="P77" s="14">
-        <f>AVERAGE(E83,E54,O54,O25,E25)</f>
+        <f t="shared" si="12"/>
         <v>0.11530282442000002</v>
       </c>
       <c r="Q77" s="14">
-        <f>AVERAGE(F83,F54,P54,P25,F25)</f>
+        <f t="shared" si="12"/>
         <v>0.20127402974999997</v>
       </c>
       <c r="R77" s="14">
-        <f>AVERAGE(G83,G54,Q54,Q25,G25)</f>
+        <f t="shared" si="12"/>
         <v>0.18952693849999999</v>
       </c>
       <c r="S77" s="14">
-        <f>AVERAGE(H83,H54,R54,R25,H25)</f>
+        <f t="shared" si="12"/>
         <v>0.15049418350000002</v>
       </c>
       <c r="T77" s="14">
-        <f>AVERAGE(I83,I54,S54,S25,I25)</f>
+        <f t="shared" si="12"/>
         <v>0.14025051625000001</v>
       </c>
       <c r="U77" s="14">
-        <f>AVERAGE(J83,J54,T54,T25,J25)</f>
+        <f t="shared" si="12"/>
         <v>0.178211392</v>
       </c>
     </row>
@@ -4122,35 +4128,35 @@
         <v>3</v>
       </c>
       <c r="N79" s="9">
-        <f>RANK(N76,($N76:$U76))</f>
+        <f t="shared" ref="N79:U80" si="13">RANK(N76,($N76:$U76))</f>
         <v>1</v>
       </c>
       <c r="O79" s="9">
-        <f>RANK(O76,($N76:$U76))</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="P79" s="9">
-        <f>RANK(P76,($N76:$U76))</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q79" s="9">
-        <f>RANK(Q76,($N76:$U76))</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R79" s="9">
-        <f>RANK(R76,($N76:$U76))</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S79" s="9">
-        <f>RANK(S76,($N76:$U76))</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T79" s="9">
-        <f>RANK(T76,($N76:$U76))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="U79" s="9">
-        <f>RANK(U76,($N76:$U76))</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
@@ -4186,35 +4192,35 @@
         <v>3</v>
       </c>
       <c r="N80" s="9">
-        <f>RANK(N77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O80" s="9">
-        <f>RANK(O77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="P80" s="9">
-        <f>RANK(P77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Q80" s="9">
-        <f>RANK(Q77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R80" s="9">
-        <f>RANK(R77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S80" s="9">
-        <f>RANK(S77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="T80" s="9">
-        <f>RANK(T77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="U80" s="9">
-        <f>RANK(U77,($N77:$U77))</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
@@ -4237,31 +4243,31 @@
         <v>0.25698302285714286</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" ref="D82:J82" si="9">AVERAGE(D62:D68)</f>
+        <f t="shared" ref="D82:J82" si="14">AVERAGE(D62:D68)</f>
         <v>0.25698302285714286</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.17718346599999998</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.26642025571428574</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.2379317414285714</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.25274068571428571</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.13143270285714287</v>
       </c>
       <c r="J82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.23821479285714289</v>
       </c>
     </row>
@@ -4274,31 +4280,31 @@
         <v>0.15118100375000001</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" ref="D83:J83" si="10">AVERAGE(D69:D76)</f>
+        <f t="shared" ref="D83:J83" si="15">AVERAGE(D69:D76)</f>
         <v>0.15118100375000001</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.0456200000000007E-4</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.15361735625</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.13448220249999998</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.10215650499999999</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.1013372075</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.1465071325</v>
       </c>
     </row>
@@ -4307,35 +4313,35 @@
         <v>3</v>
       </c>
       <c r="C85" s="9">
-        <f>RANK(C82,($C82:$J82))</f>
+        <f t="shared" ref="C85:J86" si="16">RANK(C82,($C82:$J82))</f>
         <v>2</v>
       </c>
       <c r="D85" s="9">
-        <f>RANK(D82,($C82:$J82))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E85" s="9">
-        <f>RANK(E82,($C82:$J82))</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="F85" s="9">
-        <f>RANK(F82,($C82:$J82))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="G85" s="9">
-        <f>RANK(G82,($C82:$J82))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="H85" s="9">
-        <f>RANK(H82,($C82:$J82))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="I85" s="9">
-        <f>RANK(I82,($C82:$J82))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="J85" s="9">
-        <f>RANK(J82,($C82:$J82))</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
@@ -4344,41 +4350,974 @@
         <v>3</v>
       </c>
       <c r="C86" s="9">
-        <f>RANK(C83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="D86" s="9">
-        <f>RANK(D83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E86" s="9">
-        <f>RANK(E83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="F86" s="9">
-        <f>RANK(F83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="G86" s="9">
-        <f>RANK(G83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="H86" s="9">
-        <f>RANK(H83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="I86" s="9">
-        <f>RANK(I83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="J86" s="9">
-        <f>RANK(J83,($C83:$J83))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.282032</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.282032</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.2878558</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.29536659999999998</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0.30201670000000003</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0.30238700000000002</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0.17573560199999999</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0.29048429999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.25393830000000001</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.25393830000000001</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.26195889999999999</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.2401817</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0.26660610000000001</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0.24926409999999999</v>
+      </c>
+      <c r="I92" s="4">
+        <v>6.6698909999999998E-3</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0.27802690000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
+        <v>4</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.25312180000000001</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.25305689999999997</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.25759330000000003</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.2254266</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0.23640530000000001</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0.2381182</v>
+      </c>
+      <c r="I93" s="4">
+        <v>-1.2969458E-2</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0.22374849999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
+        <v>5</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.23239399999999999</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.22597100000000001</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.23681759999999999</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.2380321</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0.216947</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.21806139999999999</v>
+      </c>
+      <c r="I94" s="4">
+        <v>-3.1514190999999997E-2</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0.20963580000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.23849029999999999</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.23584069999999999</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.21736849999999999</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.25490629999999997</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0.23262869999999999</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0.229931</v>
+      </c>
+      <c r="I95" s="4">
+        <v>-7.3522920000000005E-2</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0.23089409999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>7</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.25015779999999999</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.24940200000000001</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.2107359</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.23720859999999999</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0.24773200000000001</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0.23519909999999999</v>
+      </c>
+      <c r="I96" s="4">
+        <v>-8.0423701E-2</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0.21888850000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="2">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.24280689999999999</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.24068100000000001</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0.21691869999999999</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.20822660000000001</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0.2456277</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.25540059999999998</v>
+      </c>
+      <c r="I97" s="4">
+        <v>-8.8707907000000003E-2</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0.2230104</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
+        <v>9</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.25978050000000003</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.2575228</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0.24014170000000001</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.21674969999999999</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.2385824</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0.2216764</v>
+      </c>
+      <c r="I98" s="4">
+        <v>-0.142604484</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0.22951840000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="2">
+        <v>10</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.26300669999999998</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.260851</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0.23009209999999999</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0.22739980000000001</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0.24888979999999999</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0.2133496</v>
+      </c>
+      <c r="I99" s="4">
+        <v>-0.14366968199999999</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0.22563250000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="2">
+        <v>11</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.25935380000000002</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.25231959999999998</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0.2102485</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0.23212969999999999</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0.2381086</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0.22412750000000001</v>
+      </c>
+      <c r="I100" s="4">
+        <v>-0.156536589</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0.21570249999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="2">
+        <v>12</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.24403630000000001</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.237649</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.2255607</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0.2277613</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0.24052080000000001</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0.24082909999999999</v>
+      </c>
+      <c r="I101" s="4">
+        <v>-0.16273099999999999</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0.2264468</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="2">
+        <v>13</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0.23867289999999999</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.23212079999999999</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.2219671</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0.22078229999999999</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0.2415117</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0.1864748</v>
+      </c>
+      <c r="I102" s="4">
+        <v>-0.19005804700000001</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0.218888</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="2">
+        <v>14</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.23294989999999999</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.2260269</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0.2233937</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0.20740130000000001</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0.24603369999999999</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0.20202829999999999</v>
+      </c>
+      <c r="I103" s="4">
+        <v>-0.191709413</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0.21635879999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="2">
+        <v>15</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.22703960000000001</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.2269939</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0.2192857</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0.21424119999999999</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0.2448207</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0.25093500000000002</v>
+      </c>
+      <c r="I104" s="4">
+        <v>-0.19013954</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0.20541870000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="2">
+        <v>16</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.220945</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.22403890000000001</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0.22516240000000001</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0.21458849999999999</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0.243531</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0.2406645</v>
+      </c>
+      <c r="I105" s="4">
+        <v>-0.19193113000000001</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0.2042012</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="2">
+        <v>17</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.22197239999999999</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.225665</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0.22436809999999999</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0.2168138</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0.22930449999999999</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0.21837119999999999</v>
+      </c>
+      <c r="I106" s="4">
+        <v>-0.19302629700000001</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0.20449709999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="2">
+        <v>18</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0.2238619</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.23114979999999999</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.22332050000000001</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0.21696309999999999</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0.22845170000000001</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0.19531609999999999</v>
+      </c>
+      <c r="I107" s="4">
+        <v>-0.19728345</v>
+      </c>
+      <c r="J107" s="4">
+        <v>0.2075167</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="2">
+        <v>19</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.2303357</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.22827510000000001</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0.2189354</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0.22059039999999999</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0.20660800000000001</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0.20879719999999999</v>
+      </c>
+      <c r="I108" s="4">
+        <v>-0.20773366300000001</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0.20595050000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="2">
+        <v>20</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.2276185</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.23750679999999999</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0.21132799999999999</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0.2183484</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0.20769599999999999</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.1831054</v>
+      </c>
+      <c r="I109" s="4">
+        <v>-0.20740045500000001</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0.20764369999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="2">
+        <v>21</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0.2373326</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.2350797</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0.21835779999999999</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0.22001680000000001</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0.21653749999999999</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0.19553889999999999</v>
+      </c>
+      <c r="I110" s="4">
+        <v>-0.21626730399999999</v>
+      </c>
+      <c r="J110" s="4">
+        <v>0.20568220000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="2">
+        <v>22</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.2390968</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.23693690000000001</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.21922700000000001</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0.22332469999999999</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0.20359099999999999</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0.1920038</v>
+      </c>
+      <c r="I111" s="4">
+        <v>-0.209812794</v>
+      </c>
+      <c r="J111" s="4">
+        <v>0.21178820000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>23</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0.2256476</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.2363749</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0.2136149</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0.22448670000000001</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0.20003199999999999</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0.2010372</v>
+      </c>
+      <c r="I112" s="4">
+        <v>-0.21431972899999999</v>
+      </c>
+      <c r="J112" s="4">
+        <v>0.2118623</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>24</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.23062460000000001</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.2404732</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.21249080000000001</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0.2270663</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0.19672680000000001</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0.1947468</v>
+      </c>
+      <c r="I113" s="4">
+        <v>-0.21395455499999999</v>
+      </c>
+      <c r="J113" s="4">
+        <v>0.19668060000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4">
+        <f>AVERAGE(C95:C101)</f>
+        <v>0.2510903285714286</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" ref="D115:J115" si="17">AVERAGE(D95:D101)</f>
+        <v>0.24775229999999998</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="17"/>
+        <v>0.22158087142857141</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="17"/>
+        <v>0.22919742857142858</v>
+      </c>
+      <c r="G115" s="4">
+        <f t="shared" si="17"/>
+        <v>0.24172714285714283</v>
+      </c>
+      <c r="H115" s="4">
+        <f t="shared" si="17"/>
+        <v>0.23150190000000001</v>
+      </c>
+      <c r="I115" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.12117089757142856</v>
+      </c>
+      <c r="J115" s="4">
+        <f t="shared" si="17"/>
+        <v>0.22429902857142855</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="5">
+        <f>AVERAGE(C102:C109)</f>
+        <v>0.22792448749999999</v>
+      </c>
+      <c r="D116" s="5">
+        <f t="shared" ref="D116:J117" si="18">AVERAGE(D102:D109)</f>
+        <v>0.22897215000000001</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" si="18"/>
+        <v>0.22097011249999998</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" si="18"/>
+        <v>0.21621612500000001</v>
+      </c>
+      <c r="G116" s="5">
+        <f t="shared" si="18"/>
+        <v>0.2309946625</v>
+      </c>
+      <c r="H116" s="5">
+        <f t="shared" si="18"/>
+        <v>0.21071156250000003</v>
+      </c>
+      <c r="I116" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.19616024937499998</v>
+      </c>
+      <c r="J116" s="5">
+        <f t="shared" si="18"/>
+        <v>0.2088093375</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="5">
+        <f>AVERAGE(C106:C113)</f>
+        <v>0.22956126250000003</v>
+      </c>
+      <c r="D117" s="5">
+        <f t="shared" ref="D117:J117" si="19">AVERAGE(D106:D113)</f>
+        <v>0.23393267500000001</v>
+      </c>
+      <c r="E117" s="5">
+        <f t="shared" si="19"/>
+        <v>0.21770531250000003</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="19"/>
+        <v>0.22095127499999997</v>
+      </c>
+      <c r="G117" s="5">
+        <f t="shared" si="19"/>
+        <v>0.21111843750000001</v>
+      </c>
+      <c r="H117" s="5">
+        <f t="shared" si="19"/>
+        <v>0.19861457500000002</v>
+      </c>
+      <c r="I117" s="5">
+        <f t="shared" si="19"/>
+        <v>-0.20747478087500001</v>
+      </c>
+      <c r="J117" s="5">
+        <f t="shared" si="19"/>
+        <v>0.20645266249999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="9">
+        <f>RANK(C115,($C115:$J115))</f>
+        <v>1</v>
+      </c>
+      <c r="D119" s="9">
+        <f>RANK(D115,($C115:$J115))</f>
+        <v>2</v>
+      </c>
+      <c r="E119" s="9">
+        <f>RANK(E115,($C115:$J115))</f>
+        <v>7</v>
+      </c>
+      <c r="F119" s="9">
+        <f>RANK(F115,($C115:$J115))</f>
+        <v>5</v>
+      </c>
+      <c r="G119" s="9">
+        <f>RANK(G115,($C115:$J115))</f>
+        <v>3</v>
+      </c>
+      <c r="H119" s="9">
+        <f>RANK(H115,($C115:$J115))</f>
+        <v>4</v>
+      </c>
+      <c r="I119" s="9">
+        <f>RANK(I115,($C115:$J115))</f>
+        <v>8</v>
+      </c>
+      <c r="J119" s="9">
+        <f>RANK(J115,($C115:$J115))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="9">
+        <f>RANK(C116,($C116:$J116))</f>
+        <v>3</v>
+      </c>
+      <c r="D120" s="9">
+        <f>RANK(D116,($C116:$J116))</f>
+        <v>2</v>
+      </c>
+      <c r="E120" s="9">
+        <f>RANK(E116,($C116:$J116))</f>
+        <v>4</v>
+      </c>
+      <c r="F120" s="9">
+        <f>RANK(F116,($C116:$J116))</f>
+        <v>5</v>
+      </c>
+      <c r="G120" s="9">
+        <f>RANK(G116,($C116:$J116))</f>
+        <v>1</v>
+      </c>
+      <c r="H120" s="9">
+        <f>RANK(H116,($C116:$J116))</f>
+        <v>6</v>
+      </c>
+      <c r="I120" s="9">
+        <f>RANK(I116,($C116:$J116))</f>
+        <v>8</v>
+      </c>
+      <c r="J120" s="9">
+        <f>RANK(J116,($C116:$J116))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="9">
+        <f>RANK(C117,($C117:$J117))</f>
+        <v>2</v>
+      </c>
+      <c r="D121" s="9">
+        <f>RANK(D117,($C117:$J117))</f>
+        <v>1</v>
+      </c>
+      <c r="E121" s="9">
+        <f>RANK(E117,($C117:$J117))</f>
+        <v>4</v>
+      </c>
+      <c r="F121" s="9">
+        <f>RANK(F117,($C117:$J117))</f>
+        <v>3</v>
+      </c>
+      <c r="G121" s="9">
+        <f>RANK(G117,($C117:$J117))</f>
+        <v>5</v>
+      </c>
+      <c r="H121" s="9">
+        <f>RANK(H117,($C117:$J117))</f>
+        <v>7</v>
+      </c>
+      <c r="I121" s="9">
+        <f>RANK(I117,($C117:$J117))</f>
+        <v>8</v>
+      </c>
+      <c r="J121" s="9">
+        <f>RANK(J117,($C117:$J117))</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4390,7 +5329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4402,6 +5341,366 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T22">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T22 C4:J22">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:T51">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:T51">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -4413,7 +5712,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J22">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80 C82:J83">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:T51 M53:T54">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J25">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T25">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:T54">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J83">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -4425,7 +5844,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T22">
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J51">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -4437,79 +5868,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T22 C4:J22">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -4521,43 +5904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T51">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T51">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -4569,7 +5916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -4581,7 +5928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -4593,7 +5940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4605,7 +5952,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -4617,7 +5976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -4629,19 +5988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -4653,31 +6000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C33:J54">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -4689,392 +6012,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C85:J86">
     <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80 C82:J83">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T51 M53:T54">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J25">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T25">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T54">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J83">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J54">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:J86">
-    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5086,7 +6025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:J57">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5098,7 +6037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:T57">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5110,7 +6049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:J28">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5122,7 +6061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:T28">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5134,7 +6073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5146,7 +6085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5158,7 +6097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79:U80">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5166,6 +6105,318 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:J113">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:J113">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:J113">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:J113">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:J116">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:J116">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:J121">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:J116">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:J117">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:J117">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/output/ClusterAnalysisPerformance.xlsx
+++ b/output/ClusterAnalysisPerformance.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\match_pedon_site\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B5E5A-C3E0-4BA3-AF08-F9F90633BDED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB040AA3-5785-4450-BDEA-3633AAE12430}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="performance" sheetId="1" r:id="rId1"/>
+    <sheet name="clustercomp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="76">
   <si>
     <t>klevel</t>
   </si>
@@ -121,6 +122,144 @@
   </si>
   <si>
     <t>mean 17-24</t>
+  </si>
+  <si>
+    <t>agnes.bray</t>
+  </si>
+  <si>
+    <t>agnes.jaccard</t>
+  </si>
+  <si>
+    <t>diana.jaccard</t>
+  </si>
+  <si>
+    <t>ward.bray</t>
+  </si>
+  <si>
+    <t>diana.bray</t>
+  </si>
+  <si>
+    <t>single.bray</t>
+  </si>
+  <si>
+    <t>complete.bray</t>
+  </si>
+  <si>
+    <t>agnes.simpson</t>
+  </si>
+  <si>
+    <t>ward.simpson</t>
+  </si>
+  <si>
+    <t>diana.simpson</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>province+ section</t>
+  </si>
+  <si>
+    <t>Cophenetic distances from province and section groupings</t>
+  </si>
+  <si>
+    <t>ward.jaccard</t>
+  </si>
+  <si>
+    <t>diana jaccard</t>
+  </si>
+  <si>
+    <t>diana bray</t>
+  </si>
+  <si>
+    <t>Fraxinus pennsylvanica/Phalaris arundinacea-Impatiens capensis</t>
+  </si>
+  <si>
+    <t>Wet Woodland</t>
+  </si>
+  <si>
+    <t>Acer saccharinum/Boehmeria cylindrica</t>
+  </si>
+  <si>
+    <t>Wet Deciduous Forest</t>
+  </si>
+  <si>
+    <t>Ulmus americana/Persicaria virginiana-Pilea pumila</t>
+  </si>
+  <si>
+    <t>Cornus racemosa/Carex stricta-Onoclea sensibilis</t>
+  </si>
+  <si>
+    <t>Wet Deciduous Shrubland</t>
+  </si>
+  <si>
+    <t>Wet Sparse</t>
+  </si>
+  <si>
+    <t>Juniperus virginiana/Carex lasiocarpa-Schoenoplectus pungens</t>
+  </si>
+  <si>
+    <t>Wet Shrubby Grassland</t>
+  </si>
+  <si>
+    <t>Cornus alba/Typha angustifolia-Eutrochium maculatum</t>
+  </si>
+  <si>
+    <t>Acer rubrum/Ilex verticillata</t>
+  </si>
+  <si>
+    <t>Salix nigra/Phalaris arundinacea-Boehmeria cylindrica</t>
+  </si>
+  <si>
+    <t>Fraxinus pennsylvanica/Impatiens capensis</t>
+  </si>
+  <si>
+    <t>Acer saccharinum/Cephalanthus occidentalis/Boehmeria cylindrica</t>
+  </si>
+  <si>
+    <t>Ulmus americana/Persicaria virginiana-Toxicodendron radicans</t>
+  </si>
+  <si>
+    <t>Typha angustifolia-Thelypteris palustris</t>
+  </si>
+  <si>
+    <t>Wet Grassland</t>
+  </si>
+  <si>
+    <t>Sambucus nigra/Symphyotrichum puniceum-Eutrochium maculatum</t>
+  </si>
+  <si>
+    <t>Acer saccharinum/Boehmeria cylindrica-Scutellaria lateriflora</t>
+  </si>
+  <si>
+    <t>Acer saccharinum/Cephalanthus occidentalis</t>
+  </si>
+  <si>
+    <t>Thelypteris palustris-Asclepias incarnata-Toxicodendron vernix</t>
+  </si>
+  <si>
+    <t>Salix discolor/Typha angustifolia-Lysimachia terrestris</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>sil_width</t>
+  </si>
+  <si>
+    <t>agnes</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>structure</t>
   </si>
 </sst>
 </file>
@@ -152,7 +291,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,11 +375,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCFD4D8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCFD4D8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -270,6 +426,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,13 +755,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44202EFB-DF2D-460C-A98E-9C14A00CE468}">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="20" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="20" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1774,11 +1946,11 @@
         <v>0.32923905714285712</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:J24" si="0">AVERAGE(D4:D10)</f>
+        <f>AVERAGE(D4:D10)</f>
         <v>0.32542057142857139</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E24:J24" si="0">AVERAGE(E4:E10)</f>
         <v>0.30905231428571428</v>
       </c>
       <c r="F24" s="4">
@@ -2099,13 +2271,13 @@
         <v>5</v>
       </c>
       <c r="O32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>9</v>
@@ -2155,13 +2327,13 @@
         <v>8.0152780000000007E-2</v>
       </c>
       <c r="O33" s="4">
+        <v>8.492661E-2</v>
+      </c>
+      <c r="P33" s="4">
+        <v>5.8261069999999998E-2</v>
+      </c>
+      <c r="Q33" s="4">
         <v>7.6685680699999995E-2</v>
-      </c>
-      <c r="P33" s="4">
-        <v>8.492661E-2</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>5.8261069999999998E-2</v>
       </c>
       <c r="R33" s="4">
         <v>6.5718550000000001E-2</v>
@@ -2211,13 +2383,13 @@
         <v>7.1905979999999994E-2</v>
       </c>
       <c r="O34" s="5">
+        <v>8.7314719999999998E-2</v>
+      </c>
+      <c r="P34" s="5">
+        <v>4.728885E-2</v>
+      </c>
+      <c r="Q34" s="5">
         <v>6.3453513500000003E-2</v>
-      </c>
-      <c r="P34" s="5">
-        <v>8.7314719999999998E-2</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>4.728885E-2</v>
       </c>
       <c r="R34" s="5">
         <v>8.5091739999999999E-2</v>
@@ -2267,13 +2439,13 @@
         <v>6.7381620000000003E-2</v>
       </c>
       <c r="O35" s="4">
+        <v>9.6054719999999996E-2</v>
+      </c>
+      <c r="P35" s="4">
+        <v>7.0562689999999997E-2</v>
+      </c>
+      <c r="Q35" s="4">
         <v>2.0820033799999998E-2</v>
-      </c>
-      <c r="P35" s="4">
-        <v>9.6054719999999996E-2</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>7.0562689999999997E-2</v>
       </c>
       <c r="R35" s="4">
         <v>0.10769165</v>
@@ -2323,13 +2495,13 @@
         <v>7.9542890000000005E-2</v>
       </c>
       <c r="O36" s="5">
+        <v>0.11482525</v>
+      </c>
+      <c r="P36" s="5">
+        <v>9.6525E-2</v>
+      </c>
+      <c r="Q36" s="5">
         <v>2.9392284000000001E-2</v>
-      </c>
-      <c r="P36" s="5">
-        <v>0.11482525</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>9.6525E-2</v>
       </c>
       <c r="R36" s="5">
         <v>0.12958368000000001</v>
@@ -2379,13 +2551,13 @@
         <v>0.10377722</v>
       </c>
       <c r="O37" s="4">
+        <v>0.1276079</v>
+      </c>
+      <c r="P37" s="4">
+        <v>9.7203609999999996E-2</v>
+      </c>
+      <c r="Q37" s="4">
         <v>4.3522713900000003E-2</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0.1276079</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>9.7203609999999996E-2</v>
       </c>
       <c r="R37" s="4">
         <v>0.11684282999999999</v>
@@ -2435,13 +2607,13 @@
         <v>0.12271612</v>
       </c>
       <c r="O38" s="5">
+        <v>0.13226356</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.12304296000000001</v>
+      </c>
+      <c r="Q38" s="5">
         <v>3.9874407399999999E-2</v>
-      </c>
-      <c r="P38" s="5">
-        <v>0.13226356</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0.12304296000000001</v>
       </c>
       <c r="R38" s="5">
         <v>8.2205120000000007E-2</v>
@@ -2491,13 +2663,13 @@
         <v>0.13893907999999999</v>
       </c>
       <c r="O39" s="4">
+        <v>0.13815306999999999</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0.13014969000000001</v>
+      </c>
+      <c r="Q39" s="4">
         <v>4.0912414199999997E-2</v>
-      </c>
-      <c r="P39" s="4">
-        <v>0.13815306999999999</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>0.13014969000000001</v>
       </c>
       <c r="R39" s="4">
         <v>0.11028664000000001</v>
@@ -2547,13 +2719,13 @@
         <v>0.1302769</v>
       </c>
       <c r="O40" s="5">
+        <v>0.13348619</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.13703601000000001</v>
+      </c>
+      <c r="Q40" s="5">
         <v>3.9459518899999997E-2</v>
-      </c>
-      <c r="P40" s="5">
-        <v>0.13348619</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0.13703601000000001</v>
       </c>
       <c r="R40" s="5">
         <v>0.12470552999999999</v>
@@ -2603,13 +2775,13 @@
         <v>0.14546548000000001</v>
       </c>
       <c r="O41" s="4">
+        <v>0.14004204000000001</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0.14568054</v>
+      </c>
+      <c r="Q41" s="4">
         <v>1.5938418999999999E-2</v>
-      </c>
-      <c r="P41" s="4">
-        <v>0.14004204000000001</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>0.14568054</v>
       </c>
       <c r="R41" s="4">
         <v>0.13309001000000001</v>
@@ -2659,13 +2831,13 @@
         <v>0.14646192999999999</v>
       </c>
       <c r="O42" s="5">
+        <v>0.14332073000000001</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.14483401000000001</v>
+      </c>
+      <c r="Q42" s="5">
         <v>1.00483608E-2</v>
-      </c>
-      <c r="P42" s="5">
-        <v>0.14332073000000001</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0.14483401000000001</v>
       </c>
       <c r="R42" s="5">
         <v>0.11040423000000001</v>
@@ -2715,13 +2887,13 @@
         <v>0.14989398000000001</v>
       </c>
       <c r="O43" s="4">
+        <v>0.15118059</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0.15000632</v>
+      </c>
+      <c r="Q43" s="4">
         <v>6.2689060000000005E-4</v>
-      </c>
-      <c r="P43" s="4">
-        <v>0.15118059</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>0.15000632</v>
       </c>
       <c r="R43" s="4">
         <v>0.12501662999999999</v>
@@ -2771,13 +2943,13 @@
         <v>0.14966668</v>
       </c>
       <c r="O44" s="5">
+        <v>0.15066251</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.15355785999999999</v>
+      </c>
+      <c r="Q44" s="5">
         <v>-1.0820869300000001E-2</v>
-      </c>
-      <c r="P44" s="5">
-        <v>0.15066251</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0.15355785999999999</v>
       </c>
       <c r="R44" s="5">
         <v>0.12985060000000001</v>
@@ -2827,13 +2999,13 @@
         <v>0.1550165</v>
       </c>
       <c r="O45" s="4">
+        <v>0.15186833999999999</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.16019968000000001</v>
+      </c>
+      <c r="Q45" s="4">
         <v>1.4203967099999999E-2</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0.15186833999999999</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0.16019968000000001</v>
       </c>
       <c r="R45" s="4">
         <v>0.11302357</v>
@@ -2883,13 +3055,13 @@
         <v>0.16331156999999999</v>
       </c>
       <c r="O46" s="5">
+        <v>0.15604698</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.15539304000000001</v>
+      </c>
+      <c r="Q46" s="5">
         <v>-3.2236795999999999E-3</v>
-      </c>
-      <c r="P46" s="5">
-        <v>0.15604698</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>0.15539304000000001</v>
       </c>
       <c r="R46" s="5">
         <v>0.13038063</v>
@@ -2939,13 +3111,13 @@
         <v>0.16713063</v>
       </c>
       <c r="O47" s="4">
+        <v>0.15016113</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0.14779867999999999</v>
+      </c>
+      <c r="Q47" s="4">
         <v>2.0771132999999999E-3</v>
-      </c>
-      <c r="P47" s="4">
-        <v>0.15016113</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0.14779867999999999</v>
       </c>
       <c r="R47" s="4">
         <v>0.12265613</v>
@@ -2995,13 +3167,13 @@
         <v>0.16052453999999999</v>
       </c>
       <c r="O48" s="5">
+        <v>0.15397354999999999</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.14468424999999999</v>
+      </c>
+      <c r="Q48" s="5">
         <v>-2.2882590500000001E-2</v>
-      </c>
-      <c r="P48" s="5">
-        <v>0.15397354999999999</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0.14468424999999999</v>
       </c>
       <c r="R48" s="5">
         <v>0.12495071000000001</v>
@@ -3051,13 +3223,13 @@
         <v>0.14771449</v>
       </c>
       <c r="O49" s="4">
+        <v>0.15663328000000001</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0.13230916000000001</v>
+      </c>
+      <c r="Q49" s="4">
         <v>-3.2455868200000001E-2</v>
-      </c>
-      <c r="P49" s="4">
-        <v>0.15663328000000001</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>0.13230916000000001</v>
       </c>
       <c r="R49" s="4">
         <v>0.12331004</v>
@@ -3107,13 +3279,13 @@
         <v>0.14452778999999999</v>
       </c>
       <c r="O50" s="5">
+        <v>0.15491596999999999</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.13783065</v>
+      </c>
+      <c r="Q50" s="5">
         <v>-3.6365560800000002E-2</v>
-      </c>
-      <c r="P50" s="5">
-        <v>0.15491596999999999</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>0.13783065</v>
       </c>
       <c r="R50" s="5">
         <v>0.11145803999999999</v>
@@ -3163,13 +3335,13 @@
         <v>0.14501066000000001</v>
       </c>
       <c r="O51" s="4">
+        <v>0.14672732999999999</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0.12655443</v>
+      </c>
+      <c r="Q51" s="4">
         <v>-3.58992162E-2</v>
-      </c>
-      <c r="P51" s="4">
-        <v>0.14672732999999999</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>0.12655443</v>
       </c>
       <c r="R51" s="4">
         <v>9.7814799999999993E-2</v>
@@ -3229,16 +3401,16 @@
         <v>9.4916527142857143E-2</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(O33:O39)</f>
+        <v>0.11159226142857144</v>
+      </c>
+      <c r="P53" s="4">
+        <f>AVERAGE(P33:P39)</f>
+        <v>8.9004838571428574E-2</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>AVERAGE(Q33:Q39)</f>
         <v>4.4951578214285713E-2</v>
-      </c>
-      <c r="P53" s="4">
-        <f t="shared" si="7"/>
-        <v>0.11159226142857144</v>
-      </c>
-      <c r="Q53" s="4">
-        <f t="shared" si="7"/>
-        <v>8.9004838571428574E-2</v>
       </c>
       <c r="R53" s="4">
         <f t="shared" si="7"/>
@@ -3301,16 +3473,16 @@
         <v>0.15090295874999998</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(O40:O47)</f>
+        <v>0.14709606375000001</v>
+      </c>
+      <c r="P54" s="5">
+        <f>AVERAGE(P40:P47)</f>
+        <v>0.14931326750000001</v>
+      </c>
+      <c r="Q54" s="5">
+        <f>AVERAGE(Q40:Q47)</f>
         <v>8.5387151000000001E-3</v>
-      </c>
-      <c r="P54" s="5">
-        <f t="shared" si="9"/>
-        <v>0.14709606375000001</v>
-      </c>
-      <c r="Q54" s="5">
-        <f t="shared" si="9"/>
-        <v>0.14931326750000001</v>
       </c>
       <c r="R54" s="5">
         <f t="shared" si="9"/>
@@ -3373,16 +3545,16 @@
         <v>3</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="11"/>
+        <f>RANK(O53,($M53:$T53))</f>
+        <v>1</v>
+      </c>
+      <c r="P56" s="9">
+        <f>RANK(P53,($M53:$T53))</f>
+        <v>5</v>
+      </c>
+      <c r="Q56" s="9">
+        <f>RANK(Q53,($M53:$T53))</f>
         <v>8</v>
-      </c>
-      <c r="P56" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Q56" s="9">
-        <f t="shared" si="11"/>
-        <v>5</v>
       </c>
       <c r="R56" s="9">
         <f t="shared" si="11"/>
@@ -3445,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="11"/>
+        <f>RANK(O54,($M54:$T54))</f>
+        <v>4</v>
+      </c>
+      <c r="P57" s="9">
+        <f>RANK(P54,($M54:$T54))</f>
+        <v>3</v>
+      </c>
+      <c r="Q57" s="9">
+        <f>RANK(Q54,($M54:$T54))</f>
         <v>8</v>
-      </c>
-      <c r="P57" s="9">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="Q57" s="9">
-        <f t="shared" si="11"/>
-        <v>3</v>
       </c>
       <c r="R57" s="9">
         <f t="shared" si="11"/>
@@ -3979,15 +4151,15 @@
         <v>0.23089412199999998</v>
       </c>
       <c r="P76" s="14">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(E82,E53,Q53,O24,E24)</f>
         <v>0.19587889684285714</v>
       </c>
       <c r="Q76" s="14">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(F82,F53,O53,P24,F24)</f>
         <v>0.22260635314285712</v>
       </c>
       <c r="R76" s="14">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(G82,G53,P53,Q24,G24)</f>
         <v>0.21201107857142856</v>
       </c>
       <c r="S76" s="14">
@@ -4043,15 +4215,15 @@
         <v>0.20638305125</v>
       </c>
       <c r="P77" s="14">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(E83,E54,Q54,O25,E25)</f>
         <v>0.11530282442000002</v>
       </c>
       <c r="Q77" s="14">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(F83,F54,O54,P25,F25)</f>
         <v>0.20127402974999997</v>
       </c>
       <c r="R77" s="14">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(G83,G54,P54,Q25,G25)</f>
         <v>0.18952693849999999</v>
       </c>
       <c r="S77" s="14">
@@ -4224,7 +4396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -4234,7 +4406,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
@@ -4271,7 +4443,7 @@
         <v>0.23821479285714289</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4308,7 +4480,7 @@
         <v>0.1465071325</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>3</v>
       </c>
@@ -4345,7 +4517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>3</v>
       </c>
@@ -4382,12 +4554,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="L89" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4404,19 +4579,34 @@
         <v>7</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -4436,16 +4626,31 @@
         <v>0.30201670000000003</v>
       </c>
       <c r="H91" s="4">
+        <v>0.30168279999999997</v>
+      </c>
+      <c r="I91" s="4">
         <v>0.30238700000000002</v>
       </c>
-      <c r="I91" s="4">
+      <c r="J91" s="4">
         <v>0.17573560199999999</v>
       </c>
-      <c r="J91" s="4">
+      <c r="K91" s="4">
         <v>0.29048429999999997</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N91" s="14">
+        <v>0.18403120000000001</v>
+      </c>
+      <c r="O91" s="14">
+        <v>0.1478797</v>
+      </c>
+      <c r="P91" s="14">
+        <v>0.20247879999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>3</v>
       </c>
@@ -4465,16 +4670,31 @@
         <v>0.26660610000000001</v>
       </c>
       <c r="H92" s="4">
+        <v>0.2637024</v>
+      </c>
+      <c r="I92" s="4">
         <v>0.24926409999999999</v>
       </c>
-      <c r="I92" s="4">
+      <c r="J92" s="4">
         <v>6.6698909999999998E-3</v>
       </c>
-      <c r="J92" s="4">
+      <c r="K92" s="4">
         <v>0.27802690000000002</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N92" s="14">
+        <v>0.25853409999999999</v>
+      </c>
+      <c r="O92" s="14">
+        <v>0.12990209999999999</v>
+      </c>
+      <c r="P92" s="14">
+        <v>0.26078639999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>4</v>
       </c>
@@ -4494,16 +4714,31 @@
         <v>0.23640530000000001</v>
       </c>
       <c r="H93" s="4">
+        <v>0.22133420000000001</v>
+      </c>
+      <c r="I93" s="4">
         <v>0.2381182</v>
       </c>
-      <c r="I93" s="4">
+      <c r="J93" s="4">
         <v>-1.2969458E-2</v>
       </c>
-      <c r="J93" s="4">
+      <c r="K93" s="4">
         <v>0.22374849999999999</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N93" s="14">
+        <v>0.33100950000000001</v>
+      </c>
+      <c r="O93" s="14">
+        <v>0.14888699999999999</v>
+      </c>
+      <c r="P93" s="14">
+        <v>0.32859450000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>5</v>
       </c>
@@ -4523,16 +4758,31 @@
         <v>0.216947</v>
       </c>
       <c r="H94" s="4">
+        <v>0.21555949999999999</v>
+      </c>
+      <c r="I94" s="4">
         <v>0.21806139999999999</v>
       </c>
-      <c r="I94" s="4">
+      <c r="J94" s="4">
         <v>-3.1514190999999997E-2</v>
       </c>
-      <c r="J94" s="4">
+      <c r="K94" s="4">
         <v>0.20963580000000001</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N94" s="14">
+        <v>0.33348349999999999</v>
+      </c>
+      <c r="O94" s="14">
+        <v>0.1571698</v>
+      </c>
+      <c r="P94" s="14">
+        <v>0.33322990000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>6</v>
       </c>
@@ -4552,16 +4802,31 @@
         <v>0.23262869999999999</v>
       </c>
       <c r="H95" s="4">
+        <v>0.23182249999999999</v>
+      </c>
+      <c r="I95" s="4">
         <v>0.229931</v>
       </c>
-      <c r="I95" s="4">
+      <c r="J95" s="4">
         <v>-7.3522920000000005E-2</v>
       </c>
-      <c r="J95" s="4">
+      <c r="K95" s="4">
         <v>0.23089409999999999</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" s="14">
+        <v>0.34730729999999999</v>
+      </c>
+      <c r="O95" s="14">
+        <v>0.21638199999999999</v>
+      </c>
+      <c r="P95" s="14">
+        <v>0.3630623</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>7</v>
       </c>
@@ -4581,16 +4846,31 @@
         <v>0.24773200000000001</v>
       </c>
       <c r="H96" s="4">
+        <v>0.22754840000000001</v>
+      </c>
+      <c r="I96" s="4">
         <v>0.23519909999999999</v>
       </c>
-      <c r="I96" s="4">
+      <c r="J96" s="4">
         <v>-8.0423701E-2</v>
       </c>
-      <c r="J96" s="4">
+      <c r="K96" s="4">
         <v>0.21888850000000001</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N96" s="14">
+        <v>0.36988409999999999</v>
+      </c>
+      <c r="O96" s="14">
+        <v>0.18537729999999999</v>
+      </c>
+      <c r="P96" s="14">
+        <v>0.37296259999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>8</v>
       </c>
@@ -4610,16 +4890,31 @@
         <v>0.2456277</v>
       </c>
       <c r="H97" s="4">
+        <v>0.2441604</v>
+      </c>
+      <c r="I97" s="4">
         <v>0.25540059999999998</v>
       </c>
-      <c r="I97" s="4">
+      <c r="J97" s="4">
         <v>-8.8707907000000003E-2</v>
       </c>
-      <c r="J97" s="4">
+      <c r="K97" s="4">
         <v>0.2230104</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="14">
+        <v>0.37049569999999998</v>
+      </c>
+      <c r="O97" s="14">
+        <v>0.24991650000000001</v>
+      </c>
+      <c r="P97" s="14">
+        <v>0.39310499999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>9</v>
       </c>
@@ -4639,16 +4934,31 @@
         <v>0.2385824</v>
       </c>
       <c r="H98" s="4">
+        <v>0.23755019999999999</v>
+      </c>
+      <c r="I98" s="4">
         <v>0.2216764</v>
       </c>
-      <c r="I98" s="4">
+      <c r="J98" s="4">
         <v>-0.142604484</v>
       </c>
-      <c r="J98" s="4">
+      <c r="K98" s="4">
         <v>0.22951840000000001</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N98" s="14">
+        <v>0.40036339999999998</v>
+      </c>
+      <c r="O98" s="14">
+        <v>0.24887229999999999</v>
+      </c>
+      <c r="P98" s="14">
+        <v>0.41835349999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>10</v>
       </c>
@@ -4668,16 +4978,31 @@
         <v>0.24888979999999999</v>
       </c>
       <c r="H99" s="4">
+        <v>0.2231853</v>
+      </c>
+      <c r="I99" s="4">
         <v>0.2133496</v>
       </c>
-      <c r="I99" s="4">
+      <c r="J99" s="4">
         <v>-0.14366968199999999</v>
       </c>
-      <c r="J99" s="4">
+      <c r="K99" s="4">
         <v>0.22563250000000001</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M99" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N99" s="14">
+        <v>0.41729270000000002</v>
+      </c>
+      <c r="O99" s="14">
+        <v>0.27189570000000002</v>
+      </c>
+      <c r="P99" s="14">
+        <v>0.43984329999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>11</v>
       </c>
@@ -4697,16 +5022,31 @@
         <v>0.2381086</v>
       </c>
       <c r="H100" s="4">
+        <v>0.2216784</v>
+      </c>
+      <c r="I100" s="4">
         <v>0.22412750000000001</v>
       </c>
-      <c r="I100" s="4">
+      <c r="J100" s="4">
         <v>-0.156536589</v>
       </c>
-      <c r="J100" s="4">
+      <c r="K100" s="4">
         <v>0.21570249999999999</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N100" s="14">
+        <v>0.44091970000000003</v>
+      </c>
+      <c r="O100" s="14">
+        <v>0.29160079999999999</v>
+      </c>
+      <c r="P100" s="14">
+        <v>0.46605740000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>12</v>
       </c>
@@ -4726,16 +5066,31 @@
         <v>0.24052080000000001</v>
       </c>
       <c r="H101" s="4">
+        <v>0.23706630000000001</v>
+      </c>
+      <c r="I101" s="4">
         <v>0.24082909999999999</v>
       </c>
-      <c r="I101" s="4">
+      <c r="J101" s="4">
         <v>-0.16273099999999999</v>
       </c>
-      <c r="J101" s="4">
+      <c r="K101" s="4">
         <v>0.2264468</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" s="14">
+        <v>0.43080220000000002</v>
+      </c>
+      <c r="O101" s="14">
+        <v>0.33461249999999998</v>
+      </c>
+      <c r="P101" s="14">
+        <v>0.470472</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>13</v>
       </c>
@@ -4755,16 +5110,19 @@
         <v>0.2415117</v>
       </c>
       <c r="H102" s="4">
+        <v>0.23682310000000001</v>
+      </c>
+      <c r="I102" s="4">
         <v>0.1864748</v>
       </c>
-      <c r="I102" s="4">
+      <c r="J102" s="4">
         <v>-0.19005804700000001</v>
       </c>
-      <c r="J102" s="4">
+      <c r="K102" s="4">
         <v>0.218888</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>14</v>
       </c>
@@ -4784,16 +5142,19 @@
         <v>0.24603369999999999</v>
       </c>
       <c r="H103" s="4">
+        <v>0.24337539999999999</v>
+      </c>
+      <c r="I103" s="4">
         <v>0.20202829999999999</v>
       </c>
-      <c r="I103" s="4">
+      <c r="J103" s="4">
         <v>-0.191709413</v>
       </c>
-      <c r="J103" s="4">
+      <c r="K103" s="4">
         <v>0.21635879999999999</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>15</v>
       </c>
@@ -4813,16 +5174,19 @@
         <v>0.2448207</v>
       </c>
       <c r="H104" s="4">
+        <v>0.24295910000000001</v>
+      </c>
+      <c r="I104" s="4">
         <v>0.25093500000000002</v>
       </c>
-      <c r="I104" s="4">
+      <c r="J104" s="4">
         <v>-0.19013954</v>
       </c>
-      <c r="J104" s="4">
+      <c r="K104" s="4">
         <v>0.20541870000000001</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>16</v>
       </c>
@@ -4842,16 +5206,19 @@
         <v>0.243531</v>
       </c>
       <c r="H105" s="4">
+        <v>0.24242900000000001</v>
+      </c>
+      <c r="I105" s="4">
         <v>0.2406645</v>
       </c>
-      <c r="I105" s="4">
+      <c r="J105" s="4">
         <v>-0.19193113000000001</v>
       </c>
-      <c r="J105" s="4">
+      <c r="K105" s="4">
         <v>0.2042012</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>17</v>
       </c>
@@ -4871,16 +5238,19 @@
         <v>0.22930449999999999</v>
       </c>
       <c r="H106" s="4">
+        <v>0.23614470000000001</v>
+      </c>
+      <c r="I106" s="4">
         <v>0.21837119999999999</v>
       </c>
-      <c r="I106" s="4">
+      <c r="J106" s="4">
         <v>-0.19302629700000001</v>
       </c>
-      <c r="J106" s="4">
+      <c r="K106" s="4">
         <v>0.20449709999999999</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>18</v>
       </c>
@@ -4900,16 +5270,19 @@
         <v>0.22845170000000001</v>
       </c>
       <c r="H107" s="4">
+        <v>0.23505210000000001</v>
+      </c>
+      <c r="I107" s="4">
         <v>0.19531609999999999</v>
       </c>
-      <c r="I107" s="4">
+      <c r="J107" s="4">
         <v>-0.19728345</v>
       </c>
-      <c r="J107" s="4">
+      <c r="K107" s="4">
         <v>0.2075167</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>19</v>
       </c>
@@ -4929,16 +5302,19 @@
         <v>0.20660800000000001</v>
       </c>
       <c r="H108" s="4">
+        <v>0.236461</v>
+      </c>
+      <c r="I108" s="4">
         <v>0.20879719999999999</v>
       </c>
-      <c r="I108" s="4">
+      <c r="J108" s="4">
         <v>-0.20773366300000001</v>
       </c>
-      <c r="J108" s="4">
+      <c r="K108" s="4">
         <v>0.20595050000000001</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>20</v>
       </c>
@@ -4958,16 +5334,19 @@
         <v>0.20769599999999999</v>
       </c>
       <c r="H109" s="4">
+        <v>0.232402</v>
+      </c>
+      <c r="I109" s="4">
         <v>0.1831054</v>
       </c>
-      <c r="I109" s="4">
+      <c r="J109" s="4">
         <v>-0.20740045500000001</v>
       </c>
-      <c r="J109" s="4">
+      <c r="K109" s="4">
         <v>0.20764369999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>21</v>
       </c>
@@ -4987,16 +5366,19 @@
         <v>0.21653749999999999</v>
       </c>
       <c r="H110" s="4">
+        <v>0.2140232</v>
+      </c>
+      <c r="I110" s="4">
         <v>0.19553889999999999</v>
       </c>
-      <c r="I110" s="4">
+      <c r="J110" s="4">
         <v>-0.21626730399999999</v>
       </c>
-      <c r="J110" s="4">
+      <c r="K110" s="4">
         <v>0.20568220000000001</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>22</v>
       </c>
@@ -5016,16 +5398,19 @@
         <v>0.20359099999999999</v>
       </c>
       <c r="H111" s="4">
+        <v>0.21331839999999999</v>
+      </c>
+      <c r="I111" s="4">
         <v>0.1920038</v>
       </c>
-      <c r="I111" s="4">
+      <c r="J111" s="4">
         <v>-0.209812794</v>
       </c>
-      <c r="J111" s="4">
+      <c r="K111" s="4">
         <v>0.21178820000000001</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>23</v>
       </c>
@@ -5045,16 +5430,19 @@
         <v>0.20003199999999999</v>
       </c>
       <c r="H112" s="4">
+        <v>0.220217</v>
+      </c>
+      <c r="I112" s="4">
         <v>0.2010372</v>
       </c>
-      <c r="I112" s="4">
+      <c r="J112" s="4">
         <v>-0.21431972899999999</v>
       </c>
-      <c r="J112" s="4">
+      <c r="K112" s="4">
         <v>0.2118623</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>24</v>
       </c>
@@ -5074,16 +5462,19 @@
         <v>0.19672680000000001</v>
       </c>
       <c r="H113" s="4">
+        <v>0.21621960000000001</v>
+      </c>
+      <c r="I113" s="4">
         <v>0.1947468</v>
       </c>
-      <c r="I113" s="4">
+      <c r="J113" s="4">
         <v>-0.21395455499999999</v>
       </c>
-      <c r="J113" s="4">
+      <c r="K113" s="4">
         <v>0.19668060000000001</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -5092,82 +5483,91 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="4">
-        <f>AVERAGE(C95:C101)</f>
-        <v>0.2510903285714286</v>
+        <f>AVERAGE(C91:C97)</f>
+        <v>0.25042015714285715</v>
       </c>
       <c r="D115" s="4">
-        <f t="shared" ref="D115:J115" si="17">AVERAGE(D95:D101)</f>
-        <v>0.24775229999999998</v>
+        <f t="shared" ref="D115:K115" si="17">AVERAGE(D91:D97)</f>
+        <v>0.24870312857142857</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="17"/>
-        <v>0.22158087142857141</v>
+        <v>0.24132124285714288</v>
       </c>
       <c r="F115" s="4">
         <f t="shared" si="17"/>
-        <v>0.22919742857142858</v>
+        <v>0.24276407142857143</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="17"/>
-        <v>0.24172714285714283</v>
+        <v>0.24970907142857146</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="17"/>
-        <v>0.23150190000000001</v>
+        <f>AVERAGE(H91:H97)</f>
+        <v>0.24368717142857141</v>
       </c>
       <c r="I115" s="4">
         <f t="shared" si="17"/>
-        <v>-0.12117089757142856</v>
+        <v>0.24690877142857143</v>
       </c>
       <c r="J115" s="4">
         <f t="shared" si="17"/>
-        <v>0.22429902857142855</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+        <v>-1.4961812E-2</v>
+      </c>
+      <c r="K115" s="4">
+        <f t="shared" si="17"/>
+        <v>0.23924121428571429</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="5">
-        <f>AVERAGE(C102:C109)</f>
-        <v>0.22792448749999999</v>
+        <f>AVERAGE(C98:C105)</f>
+        <v>0.24322308749999999</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" ref="D116:J117" si="18">AVERAGE(D102:D109)</f>
-        <v>0.22897215000000001</v>
+        <f t="shared" ref="D116:K116" si="18">AVERAGE(D98:D105)</f>
+        <v>0.2396903625</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" si="18"/>
-        <v>0.22097011249999998</v>
+        <v>0.22448148749999999</v>
       </c>
       <c r="F116" s="5">
         <f t="shared" si="18"/>
-        <v>0.21621612500000001</v>
+        <v>0.220131725</v>
       </c>
       <c r="G116" s="5">
         <f t="shared" si="18"/>
-        <v>0.2309946625</v>
+        <v>0.24274983749999998</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="18"/>
-        <v>0.21071156250000003</v>
+        <f>AVERAGE(H98:H105)</f>
+        <v>0.23563334999999999</v>
       </c>
       <c r="I116" s="5">
         <f t="shared" si="18"/>
-        <v>-0.19616024937499998</v>
+        <v>0.22251065</v>
       </c>
       <c r="J116" s="5">
         <f t="shared" si="18"/>
-        <v>0.2088093375</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+        <v>-0.17117248562499998</v>
+      </c>
+      <c r="K116" s="5">
+        <f t="shared" si="18"/>
+        <v>0.21777086250000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>29</v>
       </c>
@@ -5176,7 +5576,7 @@
         <v>0.22956126250000003</v>
       </c>
       <c r="D117" s="5">
-        <f t="shared" ref="D117:J117" si="19">AVERAGE(D106:D113)</f>
+        <f t="shared" ref="D117:K117" si="19">AVERAGE(D106:D113)</f>
         <v>0.23393267500000001</v>
       </c>
       <c r="E117" s="5">
@@ -5192,132 +5592,151 @@
         <v>0.21111843750000001</v>
       </c>
       <c r="H117" s="5">
+        <f t="shared" ref="H117" si="20">AVERAGE(H106:H113)</f>
+        <v>0.22547974999999998</v>
+      </c>
+      <c r="I117" s="5">
         <f t="shared" si="19"/>
         <v>0.19861457500000002</v>
       </c>
-      <c r="I117" s="5">
+      <c r="J117" s="5">
         <f t="shared" si="19"/>
         <v>-0.20747478087500001</v>
       </c>
-      <c r="J117" s="5">
+      <c r="K117" s="5">
         <f t="shared" si="19"/>
         <v>0.20645266249999999</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="9">
-        <f>RANK(C115,($C115:$J115))</f>
+        <f t="shared" ref="C119:K119" si="21">RANK(C115,($C115:$K115))</f>
         <v>1</v>
       </c>
       <c r="D119" s="9">
-        <f>RANK(D115,($C115:$J115))</f>
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="E119" s="9">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="F119" s="9">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="G119" s="9">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="E119" s="9">
-        <f>RANK(E115,($C115:$J115))</f>
-        <v>7</v>
-      </c>
-      <c r="F119" s="9">
-        <f>RANK(F115,($C115:$J115))</f>
+      <c r="H119" s="9">
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="G119" s="9">
-        <f>RANK(G115,($C115:$J115))</f>
-        <v>3</v>
-      </c>
-      <c r="H119" s="9">
-        <f>RANK(H115,($C115:$J115))</f>
+      <c r="I119" s="9">
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="I119" s="9">
-        <f>RANK(I115,($C115:$J115))</f>
+      <c r="J119" s="9">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="K119" s="9">
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="J119" s="9">
-        <f>RANK(J115,($C115:$J115))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="9">
-        <f>RANK(C116,($C116:$J116))</f>
+        <f t="shared" ref="C120:K120" si="22">RANK(C116,($C116:$K116))</f>
+        <v>1</v>
+      </c>
+      <c r="D120" s="9">
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="D120" s="9">
-        <f>RANK(D116,($C116:$J116))</f>
+      <c r="E120" s="9">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="F120" s="9">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="G120" s="9">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="E120" s="9">
-        <f>RANK(E116,($C116:$J116))</f>
+      <c r="H120" s="9">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="F120" s="9">
-        <f>RANK(F116,($C116:$J116))</f>
-        <v>5</v>
-      </c>
-      <c r="G120" s="9">
-        <f>RANK(G116,($C116:$J116))</f>
-        <v>1</v>
-      </c>
-      <c r="H120" s="9">
-        <f>RANK(H116,($C116:$J116))</f>
+      <c r="I120" s="9">
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="I120" s="9">
-        <f>RANK(I116,($C116:$J116))</f>
+      <c r="J120" s="9">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="K120" s="9">
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="J120" s="9">
-        <f>RANK(J116,($C116:$J116))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="9">
-        <f>RANK(C117,($C117:$J117))</f>
+        <f t="shared" ref="C121:K121" si="23">RANK(C117,($C117:$K117))</f>
         <v>2</v>
       </c>
       <c r="D121" s="9">
-        <f>RANK(D117,($C117:$J117))</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="E121" s="9">
-        <f>RANK(E117,($C117:$J117))</f>
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="F121" s="9">
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="F121" s="9">
-        <f>RANK(F117,($C117:$J117))</f>
+      <c r="G121" s="9">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="H121" s="9">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="G121" s="9">
-        <f>RANK(G117,($C117:$J117))</f>
-        <v>5</v>
-      </c>
-      <c r="H121" s="9">
-        <f>RANK(H117,($C117:$J117))</f>
+      <c r="I121" s="9">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="J121" s="9">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="K121" s="9">
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="I121" s="9">
-        <f>RANK(I117,($C117:$J117))</f>
-        <v>8</v>
-      </c>
-      <c r="J121" s="9">
-        <f>RANK(J117,($C117:$J117))</f>
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M91:P101">
+    <sortCondition ref="P91:P101"/>
+  </sortState>
   <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5329,7 +5748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="134">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5341,7 +5760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5353,7 +5772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5365,7 +5784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:T22">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5377,7 +5796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:T22 C4:J22">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5388,8 +5807,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="121">
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5400,8 +5819,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="120">
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5412,8 +5831,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5424,8 +5843,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="118">
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5436,8 +5855,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="117">
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5448,8 +5867,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="109">
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5460,8 +5879,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:T54">
-    <cfRule type="colorScale" priority="112">
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5472,8 +5891,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T51">
-    <cfRule type="colorScale" priority="110">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5484,8 +5903,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T51">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5496,8 +5915,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="108">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5508,8 +5927,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="107">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5520,8 +5939,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="106">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5532,8 +5951,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="105">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5544,8 +5963,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5556,8 +5975,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="102">
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5568,8 +5987,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5580,8 +5999,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5592,8 +6011,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5604,8 +6023,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="99">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5616,8 +6035,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5628,8 +6047,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5640,8 +6059,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="95">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5652,8 +6071,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5664,8 +6083,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
-    <cfRule type="colorScale" priority="87">
+  <conditionalFormatting sqref="C62:J80 C82:J83">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5676,8 +6095,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
-    <cfRule type="colorScale" priority="88">
+  <conditionalFormatting sqref="C4:J25">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5688,8 +6107,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="M4:T25">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5700,8 +6119,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="84">
+  <conditionalFormatting sqref="C62:J83">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5712,8 +6131,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="83">
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5724,8 +6143,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5736,8 +6155,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="81">
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5748,8 +6167,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5760,8 +6179,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5772,8 +6191,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80 C82:J83">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5784,8 +6203,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T51 M53:T54">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5796,8 +6215,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J25">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5808,8 +6227,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T25">
-    <cfRule type="colorScale" priority="75">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5820,8 +6239,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:T54">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5832,8 +6251,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J83">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5844,8 +6263,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5856,8 +6275,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5868,8 +6287,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="C33:J54">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5880,8 +6299,68 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="C85:J86">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:J57">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:J28">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:T28">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76:U77">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76:U77">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5892,8 +6371,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="N79:U80">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N91:N101">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5904,8 +6395,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="67">
+  <conditionalFormatting sqref="O91:O101">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5916,8 +6407,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="P91:P101">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5928,8 +6419,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="C91:K113">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5940,8 +6431,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="C115:K116">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5952,8 +6443,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="C114:K116">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5964,8 +6455,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="C119:K121">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:K116">
+    <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5976,8 +6479,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="C117:K117">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5988,8 +6491,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="C91:K117">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6000,8 +6503,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J54">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="M53:T54">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6012,8 +6515,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85:J86">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="M33:T51">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:T51 M53:T54">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:T54">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56:T57">
+    <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6024,68 +6563,476 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:J57">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56:T57">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:J28">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:T28">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="43">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77953D02-229B-43C1-9222-5F0FDBA4AD43}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="18">
+        <v>5.7500879999999997E-2</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="18">
+        <v>9.4187530000000005E-2</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.2135206</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.13211545</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.17578205999999999</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.18440641999999999</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.11383269999999999</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <f>AVERAGE(D3:D10)</f>
+        <v>0.12141820499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.10452481</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.18480492600000001</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4.1866342000000001E-2</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="19">
+        <v>4.6130429999999998E-3</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.20704876</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.15619422199999999</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="19">
+        <v>9.2803775000000005E-2</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.327868567</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <f>AVERAGE(D14:D21)</f>
+        <v>0.13996555562500002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="19">
+        <v>7.8913300000000006E-2</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.15011503000000001</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.26005492000000002</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="18">
+        <v>3.4679269999999998E-2</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.14835888</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="18">
+        <v>-1.0804940000000001E-2</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.20680955000000001</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.15617343</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="19">
+        <v>9.1326190000000002E-2</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.31010186000000001</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <f>AVERAGE(D24:D33)</f>
+        <v>0.142572749</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D24:D33">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6096,20 +7043,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N79:U80">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:J113">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="D14:D21">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6120,295 +7055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:J113">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:J113">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:J113">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:J116">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:J116">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:J121">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:J116">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:J117">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:J117">
+  <conditionalFormatting sqref="D3:D10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/output/ClusterAnalysisPerformance.xlsx
+++ b/output/ClusterAnalysisPerformance.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\match_pedon_site\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0780C903-8427-4ECF-B7B8-0EDD52FA3754}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5383497F-F325-4D84-8A07-484C0544FE51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="clustercomp" sheetId="2" r:id="rId4"/>
+    <sheet name="clustercomp" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="129">
   <si>
     <t>klevel</t>
   </si>
@@ -377,6 +377,99 @@
   <si>
     <t>weighted bray</t>
   </si>
+  <si>
+    <t>BONAP FIPS</t>
+  </si>
+  <si>
+    <t>BONAP FIPS, group means</t>
+  </si>
+  <si>
+    <t>mean 64,256</t>
+  </si>
+  <si>
+    <t>BONAP FIPS, exclude &lt; 200 spp. and AK, HI</t>
+  </si>
+  <si>
+    <t>usnvc</t>
+  </si>
+  <si>
+    <t>Typha spp. Midwest Marsh</t>
+  </si>
+  <si>
+    <t>Acer saccharinum - Fraxinus pennsylvanica - Ulmus americana Floodplain Forest</t>
+  </si>
+  <si>
+    <t>Carex stricta - Carex spp. Wet Meadow</t>
+  </si>
+  <si>
+    <t>Larix laricina - Acer rubrum / (Rhamnus alnifolia, Vaccinium corymbosum) Swamp Forest</t>
+  </si>
+  <si>
+    <t>Acer rubrum - Fraxinus (pennsylvanica, americana) / Lindera benzoin / Symplocarpus foetidus Swamp Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Phalaris arundinacea Eastern Ruderal Marsh</t>
+  </si>
+  <si>
+    <t>Myrica gale - Dasiphora fruticosa / Carex lasiocarpa - Cladium mariscoides Fen</t>
+  </si>
+  <si>
+    <t>Acer (rubrum, saccharinum) - Fraxinus spp. - Ulmus americana Swamp Forest</t>
+  </si>
+  <si>
+    <r>
+      <t>Cladium mariscoides - (Carex lasiocarpa, Hypericum kalmianum, Oligoneuron riddellii, Eleocharis elliptica)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> Fen</t>
+    </r>
+  </si>
+  <si>
+    <t>Midwest Prairie Alkaline Fen</t>
+  </si>
+  <si>
+    <r>
+      <t>Carex lasiocarpa - Calamagrostis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> spp. - (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Eleocharis rostellata</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) Fen</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +504,34 @@
       <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -512,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -567,6 +688,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,26 +1010,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44202EFB-DF2D-460C-A98E-9C14A00CE468}">
-  <dimension ref="A1:CK121"/>
+  <dimension ref="A1:CK126"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BH4" sqref="BH4"/>
+    <sheetView topLeftCell="AD106" workbookViewId="0">
+      <selection activeCell="AT122" sqref="AT122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+    <col min="3" max="11" width="9.26953125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="20" width="9.28515625" customWidth="1"/>
+    <col min="13" max="20" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>17</v>
@@ -966,7 +1095,7 @@
       <c r="BU2"/>
       <c r="BV2"/>
     </row>
-    <row r="3" spans="1:78" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="23" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1164,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -1367,7 +1496,7 @@
         <v>1.2923523714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="3">
         <v>3</v>
@@ -1570,7 +1699,7 @@
         <v>1.3112606839285714</v>
       </c>
     </row>
-    <row r="6" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -1768,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="3">
         <v>5</v>
@@ -1971,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -2174,7 +2303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="3">
         <v>7</v>
@@ -2362,7 +2491,7 @@
         <v>0.30553839999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>8</v>
@@ -2550,7 +2679,7 @@
         <v>0.30792950000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="3">
         <v>9</v>
@@ -2738,7 +2867,7 @@
         <v>0.31914769999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -2926,7 +3055,7 @@
         <v>0.33533689999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="3">
         <v>11</v>
@@ -3114,7 +3243,7 @@
         <v>0.35486970000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="2">
         <v>12</v>
@@ -3302,7 +3431,7 @@
         <v>0.35652089999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="3">
         <v>13</v>
@@ -3490,7 +3619,7 @@
         <v>0.3329201</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="2">
         <v>14</v>
@@ -3678,7 +3807,7 @@
         <v>0.31310359999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="3">
         <v>15</v>
@@ -3866,7 +3995,7 @@
         <v>0.31430649999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="2">
         <v>16</v>
@@ -4054,7 +4183,7 @@
         <v>0.31296669999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="3">
         <v>17</v>
@@ -4242,7 +4371,7 @@
         <v>0.30772349999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="2">
         <v>18</v>
@@ -4430,7 +4559,7 @@
         <v>0.3031626</v>
       </c>
     </row>
-    <row r="21" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="3">
         <v>19</v>
@@ -4618,7 +4747,7 @@
         <v>0.29791469999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="2">
         <v>20</v>
@@ -4806,7 +4935,7 @@
         <v>0.29927759999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.35">
       <c r="W23" s="20"/>
       <c r="X23" s="12"/>
       <c r="AF23" s="20"/>
@@ -4819,7 +4948,7 @@
       <c r="AZ23" s="12"/>
       <c r="BA23" s="12"/>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -5060,7 +5189,7 @@
         <v>0.32202968571428581</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -5301,10 +5430,10 @@
         <v>0.32989651249999996</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.35">
       <c r="AF26" s="20"/>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -5543,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
         <v>3</v>
       </c>
@@ -5782,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.35">
       <c r="AV30" s="12"/>
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
@@ -5792,7 +5921,7 @@
       <c r="BB30" s="12"/>
       <c r="BC30" s="12"/>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:89" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" ht="23" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -6031,7 +6160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
         <v>2</v>
       </c>
@@ -6257,7 +6386,7 @@
         <v>6.5766839999999993E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>3</v>
       </c>
@@ -6483,7 +6612,7 @@
         <v>4.5974559999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B35" s="2">
         <v>4</v>
       </c>
@@ -6704,7 +6833,7 @@
         <v>6.7296679999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>5</v>
       </c>
@@ -6930,7 +7059,7 @@
         <v>6.7310099999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B37" s="2">
         <v>6</v>
       </c>
@@ -7156,7 +7285,7 @@
         <v>9.0035470000000006E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>7</v>
       </c>
@@ -7367,7 +7496,7 @@
         <v>0.10791869</v>
       </c>
     </row>
-    <row r="39" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B39" s="2">
         <v>8</v>
       </c>
@@ -7578,7 +7707,7 @@
         <v>0.12835928999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>9</v>
       </c>
@@ -7789,7 +7918,7 @@
         <v>0.12795377999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B41" s="2">
         <v>10</v>
       </c>
@@ -8000,7 +8129,7 @@
         <v>0.13381202</v>
       </c>
     </row>
-    <row r="42" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>11</v>
       </c>
@@ -8211,7 +8340,7 @@
         <v>0.13526740000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B43" s="2">
         <v>12</v>
       </c>
@@ -8422,7 +8551,7 @@
         <v>0.13976332</v>
       </c>
     </row>
-    <row r="44" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>13</v>
       </c>
@@ -8633,7 +8762,7 @@
         <v>0.14060302</v>
       </c>
     </row>
-    <row r="45" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B45" s="2">
         <v>14</v>
       </c>
@@ -8844,7 +8973,7 @@
         <v>0.13918742000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>15</v>
       </c>
@@ -9055,7 +9184,7 @@
         <v>0.12713888000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B47" s="2">
         <v>16</v>
       </c>
@@ -9266,7 +9395,7 @@
         <v>0.120784</v>
       </c>
     </row>
-    <row r="48" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>17</v>
       </c>
@@ -9477,7 +9606,7 @@
         <v>0.12740253000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B49" s="2">
         <v>18</v>
       </c>
@@ -9688,7 +9817,7 @@
         <v>0.13435848</v>
       </c>
     </row>
-    <row r="50" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>19</v>
       </c>
@@ -9899,7 +10028,7 @@
         <v>0.13164556999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B51" s="2">
         <v>20</v>
       </c>
@@ -10110,7 +10239,7 @@
         <v>0.13154141</v>
       </c>
     </row>
-    <row r="52" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:89" x14ac:dyDescent="0.35">
       <c r="AG52" s="20"/>
       <c r="AH52" s="20"/>
       <c r="AO52" s="20"/>
@@ -10123,7 +10252,7 @@
       <c r="AZ52" s="12"/>
       <c r="BA52" s="12"/>
     </row>
-    <row r="53" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
@@ -10395,7 +10524,7 @@
         <v>8.1808804285714271E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
@@ -10667,7 +10796,7 @@
         <v>0.13306372999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:89" x14ac:dyDescent="0.35">
       <c r="AG55" s="20"/>
       <c r="AH55" s="20"/>
       <c r="AI55" s="20"/>
@@ -10680,7 +10809,7 @@
       <c r="AP55" s="20"/>
       <c r="AQ55" s="20"/>
     </row>
-    <row r="56" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B56" s="9" t="s">
         <v>3</v>
       </c>
@@ -10952,7 +11081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:89" x14ac:dyDescent="0.35">
       <c r="B57" s="9" t="s">
         <v>3</v>
       </c>
@@ -11224,7 +11353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:89" x14ac:dyDescent="0.35">
       <c r="AG58" s="20"/>
       <c r="AH58" s="20"/>
       <c r="AI58" s="20"/>
@@ -11237,18 +11366,16 @@
       <c r="AP58" s="20"/>
       <c r="AQ58" s="20"/>
     </row>
-    <row r="59" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AG59" s="20"/>
-      <c r="AV59" s="12"/>
     </row>
-    <row r="60" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:89" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AG60" s="20"/>
-      <c r="AV60" s="12"/>
     </row>
-    <row r="61" spans="2:89" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
@@ -11279,9 +11406,8 @@
       <c r="M61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AV61" s="12"/>
     </row>
-    <row r="62" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="2">
         <v>2</v>
       </c>
@@ -11312,9 +11438,8 @@
       <c r="M62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AV62" s="12"/>
     </row>
-    <row r="63" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>3</v>
       </c>
@@ -11345,9 +11470,8 @@
       <c r="M63" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AV63" s="12"/>
     </row>
-    <row r="64" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2">
         <v>4</v>
       </c>
@@ -11378,9 +11502,8 @@
       <c r="M64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AV64" s="12"/>
     </row>
-    <row r="65" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -11411,9 +11534,8 @@
       <c r="M65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AV65" s="12"/>
     </row>
-    <row r="66" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="2">
         <v>6</v>
       </c>
@@ -11444,9 +11566,8 @@
       <c r="M66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AV66" s="12"/>
     </row>
-    <row r="67" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>7</v>
       </c>
@@ -11477,9 +11598,8 @@
       <c r="M67" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AV67" s="12"/>
     </row>
-    <row r="68" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="2">
         <v>8</v>
       </c>
@@ -11510,9 +11630,8 @@
       <c r="M68" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AV68" s="12"/>
     </row>
-    <row r="69" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>9</v>
       </c>
@@ -11543,9 +11662,8 @@
       <c r="M69" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AV69" s="12"/>
     </row>
-    <row r="70" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="2">
         <v>10</v>
       </c>
@@ -11573,9 +11691,8 @@
       <c r="J70" s="4">
         <v>0.19333642000000001</v>
       </c>
-      <c r="AV70" s="12"/>
     </row>
-    <row r="71" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>11</v>
       </c>
@@ -11603,9 +11720,8 @@
       <c r="J71" s="5">
         <v>0.18458662000000001</v>
       </c>
-      <c r="AV71" s="12"/>
     </row>
-    <row r="72" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="2">
         <v>12</v>
       </c>
@@ -11633,9 +11749,8 @@
       <c r="J72" s="4">
         <v>0.16288343</v>
       </c>
-      <c r="AV72" s="12"/>
     </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>13</v>
       </c>
@@ -11663,9 +11778,8 @@
       <c r="J73" s="5">
         <v>0.15136542</v>
       </c>
-      <c r="AV73" s="12"/>
     </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="2">
         <v>14</v>
       </c>
@@ -11693,9 +11807,8 @@
       <c r="J74" s="4">
         <v>0.11553666</v>
       </c>
-      <c r="AV74" s="12"/>
     </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>15</v>
       </c>
@@ -11726,9 +11839,8 @@
       <c r="M75" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AV75" s="12"/>
     </row>
-    <row r="76" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="2">
         <v>16</v>
       </c>
@@ -11791,9 +11903,8 @@
         <f t="shared" si="57"/>
         <v>0.19759749942857141</v>
       </c>
-      <c r="AV76" s="12"/>
     </row>
-    <row r="77" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <v>17</v>
       </c>
@@ -11856,9 +11967,8 @@
         <f t="shared" si="57"/>
         <v>0.178211392</v>
       </c>
-      <c r="AV77" s="12"/>
     </row>
-    <row r="78" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="2">
         <v>18</v>
       </c>
@@ -11886,9 +11996,8 @@
       <c r="J78" s="4">
         <v>3.2460589999999998E-2</v>
       </c>
-      <c r="AV78" s="12"/>
     </row>
-    <row r="79" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <v>19</v>
       </c>
@@ -11951,9 +12060,8 @@
         <f t="shared" si="58"/>
         <v>6</v>
       </c>
-      <c r="AV79" s="12"/>
     </row>
-    <row r="80" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="2">
         <v>20</v>
       </c>
@@ -12016,9 +12124,8 @@
         <f t="shared" si="58"/>
         <v>4</v>
       </c>
-      <c r="AV80" s="12"/>
     </row>
-    <row r="81" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -12027,9 +12134,8 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="AV81" s="12"/>
     </row>
-    <row r="82" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
@@ -12065,9 +12171,8 @@
         <f t="shared" si="59"/>
         <v>0.23821479285714289</v>
       </c>
-      <c r="AV82" s="12"/>
     </row>
-    <row r="83" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -12103,12 +12208,9 @@
         <f t="shared" si="60"/>
         <v>0.1465071325</v>
       </c>
-      <c r="AV83" s="12"/>
     </row>
-    <row r="84" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="AV84" s="12"/>
-    </row>
-    <row r="85" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="9" t="s">
         <v>3</v>
       </c>
@@ -12144,9 +12246,8 @@
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
-      <c r="AV85" s="12"/>
     </row>
-    <row r="86" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="9" t="s">
         <v>3</v>
       </c>
@@ -12182,15 +12283,10 @@
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
-      <c r="AV86" s="12"/>
     </row>
-    <row r="87" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="AV87" s="12"/>
-    </row>
-    <row r="88" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="AV88" s="12"/>
-    </row>
-    <row r="89" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="11" t="s">
         <v>28</v>
       </c>
@@ -12200,9 +12296,17 @@
       <c r="S89" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AV89" s="12"/>
+      <c r="Z89" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG89" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN89" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="90" spans="2:48" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:48" ht="23" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
@@ -12263,9 +12367,63 @@
       <c r="X90" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="Z90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS90" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AV90" s="12"/>
     </row>
-    <row r="91" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -12326,9 +12484,65 @@
       <c r="X91" s="4">
         <v>0.30339899999999997</v>
       </c>
+      <c r="Z91" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>0.13488323999999999</v>
+      </c>
+      <c r="AB91" s="4">
+        <v>0.13488323999999999</v>
+      </c>
+      <c r="AC91" s="4">
+        <v>0.31732009999999999</v>
+      </c>
+      <c r="AD91" s="4">
+        <v>0.22281699999999999</v>
+      </c>
+      <c r="AE91" s="4">
+        <v>0.23099265999999999</v>
+      </c>
+      <c r="AG91" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH91" s="4">
+        <v>0.26968029999999998</v>
+      </c>
+      <c r="AI91" s="4">
+        <v>0.26968029999999998</v>
+      </c>
+      <c r="AJ91" s="4">
+        <v>0.26471152999999997</v>
+      </c>
+      <c r="AK91" s="4">
+        <v>0.26433329999999999</v>
+      </c>
+      <c r="AL91" s="4">
+        <v>0.27233489999999999</v>
+      </c>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO91" s="4">
+        <v>0.2641812</v>
+      </c>
+      <c r="AP91" s="4">
+        <v>0.2623781</v>
+      </c>
+      <c r="AQ91" s="4">
+        <v>0.26100872000000003</v>
+      </c>
+      <c r="AR91" s="4">
+        <v>0.26931460000000002</v>
+      </c>
+      <c r="AS91" s="4">
+        <v>0.27744190000000002</v>
+      </c>
+      <c r="AT91" s="22"/>
       <c r="AV91" s="12"/>
     </row>
-    <row r="92" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B92" s="2">
         <v>3</v>
       </c>
@@ -12389,9 +12603,63 @@
       <c r="X92" s="4">
         <v>0.25441370000000002</v>
       </c>
+      <c r="Z92" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA92" s="4">
+        <v>8.9975780000000005E-2</v>
+      </c>
+      <c r="AB92" s="4">
+        <v>8.9975780000000005E-2</v>
+      </c>
+      <c r="AC92" s="4">
+        <v>0.29996279999999997</v>
+      </c>
+      <c r="AD92" s="4">
+        <v>0.19755790000000001</v>
+      </c>
+      <c r="AE92" s="4">
+        <v>0.22605494000000001</v>
+      </c>
+      <c r="AG92" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH92" s="4">
+        <v>0.26975490000000002</v>
+      </c>
+      <c r="AI92" s="4">
+        <v>0.26975490000000002</v>
+      </c>
+      <c r="AJ92" s="4">
+        <v>0.25652394000000001</v>
+      </c>
+      <c r="AK92" s="4">
+        <v>0.193247</v>
+      </c>
+      <c r="AL92" s="4">
+        <v>0.26660640000000002</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO92" s="4">
+        <v>0.25926060000000001</v>
+      </c>
+      <c r="AP92" s="4">
+        <v>0.25730239999999999</v>
+      </c>
+      <c r="AQ92" s="4">
+        <v>0.26858757</v>
+      </c>
+      <c r="AR92" s="4">
+        <v>0.1999341</v>
+      </c>
+      <c r="AS92" s="4">
+        <v>0.27800469999999999</v>
+      </c>
       <c r="AV92" s="12"/>
     </row>
-    <row r="93" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B93" s="2">
         <v>4</v>
       </c>
@@ -12452,9 +12720,63 @@
       <c r="X93" s="4">
         <v>0.2328257</v>
       </c>
+      <c r="Z93" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>6.7505049999999997E-2</v>
+      </c>
+      <c r="AB93" s="4">
+        <v>6.7505049999999997E-2</v>
+      </c>
+      <c r="AC93" s="4">
+        <v>0.22499340000000001</v>
+      </c>
+      <c r="AD93" s="4">
+        <v>0.21811340000000001</v>
+      </c>
+      <c r="AE93" s="4">
+        <v>0.22036115000000001</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH93" s="4">
+        <v>0.26976139999999998</v>
+      </c>
+      <c r="AI93" s="4">
+        <v>0.26976139999999998</v>
+      </c>
+      <c r="AJ93" s="4">
+        <v>0.25653631999999998</v>
+      </c>
+      <c r="AK93" s="4">
+        <v>0.21556139999999999</v>
+      </c>
+      <c r="AL93" s="4">
+        <v>0.27008589999999999</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO93" s="4">
+        <v>0.25386500000000001</v>
+      </c>
+      <c r="AP93" s="4">
+        <v>0.27019979999999999</v>
+      </c>
+      <c r="AQ93" s="4">
+        <v>0.22693743999999999</v>
+      </c>
+      <c r="AR93" s="4">
+        <v>0.2217278</v>
+      </c>
+      <c r="AS93" s="4">
+        <v>0.25444539999999999</v>
+      </c>
       <c r="AV93" s="12"/>
     </row>
-    <row r="94" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B94" s="2">
         <v>5</v>
       </c>
@@ -12515,9 +12837,63 @@
       <c r="X94" s="4">
         <v>0.23393900000000001</v>
       </c>
+      <c r="Z94" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>5.4012900000000003E-2</v>
+      </c>
+      <c r="AB94" s="4">
+        <v>5.4012900000000003E-2</v>
+      </c>
+      <c r="AC94" s="4">
+        <v>0.2167946</v>
+      </c>
+      <c r="AD94" s="4">
+        <v>0.1715632</v>
+      </c>
+      <c r="AE94" s="4">
+        <v>0.18307565000000001</v>
+      </c>
+      <c r="AG94" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH94" s="4">
+        <v>0.2697194</v>
+      </c>
+      <c r="AI94" s="4">
+        <v>0.2697194</v>
+      </c>
+      <c r="AJ94" s="4">
+        <v>0.25920326999999999</v>
+      </c>
+      <c r="AK94" s="4">
+        <v>0.16571939999999999</v>
+      </c>
+      <c r="AL94" s="4">
+        <v>0.2692369</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO94" s="4">
+        <v>0.2158011</v>
+      </c>
+      <c r="AP94" s="4">
+        <v>0.22818540000000001</v>
+      </c>
+      <c r="AQ94" s="4">
+        <v>0.2188117</v>
+      </c>
+      <c r="AR94" s="4">
+        <v>0.1721377</v>
+      </c>
+      <c r="AS94" s="4">
+        <v>0.2211958</v>
+      </c>
       <c r="AV94" s="12"/>
     </row>
-    <row r="95" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B95" s="2">
         <v>6</v>
       </c>
@@ -12578,9 +12954,63 @@
       <c r="X95" s="4">
         <v>0.2515368</v>
       </c>
+      <c r="Z95" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>4.5008430000000002E-2</v>
+      </c>
+      <c r="AB95" s="4">
+        <v>4.5008430000000002E-2</v>
+      </c>
+      <c r="AC95" s="4">
+        <v>0.27240700000000001</v>
+      </c>
+      <c r="AD95" s="4">
+        <v>0.1816614</v>
+      </c>
+      <c r="AE95" s="4">
+        <v>0.25380609999999998</v>
+      </c>
+      <c r="AG95" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>0.2696192</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>0.2696192</v>
+      </c>
+      <c r="AJ95" s="4">
+        <v>0.22054435999999999</v>
+      </c>
+      <c r="AK95" s="4">
+        <v>0.15948909999999999</v>
+      </c>
+      <c r="AL95" s="4">
+        <v>0.26995140000000001</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO95" s="4">
+        <v>0.2105638</v>
+      </c>
+      <c r="AP95" s="4">
+        <v>0.21856809999999999</v>
+      </c>
+      <c r="AQ95" s="4">
+        <v>0.21665143000000001</v>
+      </c>
+      <c r="AR95" s="4">
+        <v>0.16723769999999999</v>
+      </c>
+      <c r="AS95" s="4">
+        <v>0.22301000000000001</v>
+      </c>
       <c r="AV95" s="12"/>
     </row>
-    <row r="96" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B96" s="2">
         <v>7</v>
       </c>
@@ -12641,9 +13071,63 @@
       <c r="X96" s="4">
         <v>0.24162359999999999</v>
       </c>
+      <c r="Z96" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>3.858404E-2</v>
+      </c>
+      <c r="AB96" s="4">
+        <v>3.858404E-2</v>
+      </c>
+      <c r="AC96" s="4">
+        <v>0.29577819999999999</v>
+      </c>
+      <c r="AD96" s="4">
+        <v>0.18965480000000001</v>
+      </c>
+      <c r="AE96" s="4">
+        <v>0.21767338999999999</v>
+      </c>
+      <c r="AG96" s="2">
+        <v>7</v>
+      </c>
+      <c r="AH96" s="4">
+        <v>0.26957049999999999</v>
+      </c>
+      <c r="AI96" s="4">
+        <v>0.26957049999999999</v>
+      </c>
+      <c r="AJ96" s="4">
+        <v>0.21876209999999999</v>
+      </c>
+      <c r="AK96" s="4">
+        <v>0.16746520000000001</v>
+      </c>
+      <c r="AL96" s="4">
+        <v>0.26995710000000001</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>7</v>
+      </c>
+      <c r="AO96" s="4">
+        <v>0.21282000000000001</v>
+      </c>
+      <c r="AP96" s="4">
+        <v>0.2184577</v>
+      </c>
+      <c r="AQ96" s="4">
+        <v>0.20520144000000001</v>
+      </c>
+      <c r="AR96" s="4">
+        <v>0.17593159999999999</v>
+      </c>
+      <c r="AS96" s="4">
+        <v>0.222909</v>
+      </c>
       <c r="AV96" s="12"/>
     </row>
-    <row r="97" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B97" s="2">
         <v>8</v>
       </c>
@@ -12704,9 +13188,63 @@
       <c r="X97" s="4">
         <v>0.2549418</v>
       </c>
+      <c r="Z97" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>3.3756040000000001E-2</v>
+      </c>
+      <c r="AB97" s="4">
+        <v>3.3756040000000001E-2</v>
+      </c>
+      <c r="AC97" s="4">
+        <v>0.28803899999999999</v>
+      </c>
+      <c r="AD97" s="4">
+        <v>0.19175639999999999</v>
+      </c>
+      <c r="AE97" s="4">
+        <v>0.19056985000000001</v>
+      </c>
+      <c r="AG97" s="2">
+        <v>8</v>
+      </c>
+      <c r="AH97" s="4">
+        <v>0.26944439999999997</v>
+      </c>
+      <c r="AI97" s="4">
+        <v>0.26944439999999997</v>
+      </c>
+      <c r="AJ97" s="4">
+        <v>0.21816419000000001</v>
+      </c>
+      <c r="AK97" s="4">
+        <v>0.15935299999999999</v>
+      </c>
+      <c r="AL97" s="4">
+        <v>0.26996209999999998</v>
+      </c>
+      <c r="AN97" s="2">
+        <v>8</v>
+      </c>
+      <c r="AO97" s="4">
+        <v>0.21411050000000001</v>
+      </c>
+      <c r="AP97" s="4">
+        <v>0.18584290000000001</v>
+      </c>
+      <c r="AQ97" s="4">
+        <v>0.19556098999999999</v>
+      </c>
+      <c r="AR97" s="4">
+        <v>0.16768340000000001</v>
+      </c>
+      <c r="AS97" s="4">
+        <v>0.2185764</v>
+      </c>
       <c r="AV97" s="12"/>
     </row>
-    <row r="98" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B98" s="2">
         <v>9</v>
       </c>
@@ -12767,9 +13305,63 @@
       <c r="X98" s="4">
         <v>0.24865119999999999</v>
       </c>
+      <c r="Z98" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>2.9963710000000001E-2</v>
+      </c>
+      <c r="AB98" s="4">
+        <v>2.9963710000000001E-2</v>
+      </c>
+      <c r="AC98" s="4">
+        <v>0.28162280000000001</v>
+      </c>
+      <c r="AD98" s="4">
+        <v>0.18481439999999999</v>
+      </c>
+      <c r="AE98" s="4">
+        <v>0.16948242999999999</v>
+      </c>
+      <c r="AG98" s="2">
+        <v>9</v>
+      </c>
+      <c r="AH98" s="4">
+        <v>0.2689841</v>
+      </c>
+      <c r="AI98" s="4">
+        <v>0.2689841</v>
+      </c>
+      <c r="AJ98" s="4">
+        <v>0.21010486</v>
+      </c>
+      <c r="AK98" s="4">
+        <v>0.15958610000000001</v>
+      </c>
+      <c r="AL98" s="4">
+        <v>0.26996609999999999</v>
+      </c>
+      <c r="AN98" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO98" s="4">
+        <v>0.19189129999999999</v>
+      </c>
+      <c r="AP98" s="4">
+        <v>0.1899419</v>
+      </c>
+      <c r="AQ98" s="4">
+        <v>0.19598684</v>
+      </c>
+      <c r="AR98" s="4">
+        <v>0.16794480000000001</v>
+      </c>
+      <c r="AS98" s="4">
+        <v>0.18048359999999999</v>
+      </c>
       <c r="AV98" s="12"/>
     </row>
-    <row r="99" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B99" s="2">
         <v>10</v>
       </c>
@@ -12830,9 +13422,63 @@
       <c r="X99" s="4">
         <v>0.24217959999999999</v>
       </c>
+      <c r="Z99" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>2.6954240000000001E-2</v>
+      </c>
+      <c r="AB99" s="4">
+        <v>2.6954240000000001E-2</v>
+      </c>
+      <c r="AC99" s="4">
+        <v>0.26036589999999998</v>
+      </c>
+      <c r="AD99" s="4">
+        <v>0.1890384</v>
+      </c>
+      <c r="AE99" s="4">
+        <v>0.18096438000000001</v>
+      </c>
+      <c r="AG99" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH99" s="4">
+        <v>0.26876739999999999</v>
+      </c>
+      <c r="AI99" s="4">
+        <v>0.26876739999999999</v>
+      </c>
+      <c r="AJ99" s="4">
+        <v>0.19164410000000001</v>
+      </c>
+      <c r="AK99" s="4">
+        <v>0.16347200000000001</v>
+      </c>
+      <c r="AL99" s="4">
+        <v>0.27018239999999999</v>
+      </c>
+      <c r="AN99" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO99" s="4">
+        <v>0.19025520000000001</v>
+      </c>
+      <c r="AP99" s="4">
+        <v>0.1889644</v>
+      </c>
+      <c r="AQ99" s="4">
+        <v>0.19214534999999999</v>
+      </c>
+      <c r="AR99" s="4">
+        <v>0.17193559999999999</v>
+      </c>
+      <c r="AS99" s="4">
+        <v>0.17715729999999999</v>
+      </c>
       <c r="AV99" s="12"/>
     </row>
-    <row r="100" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B100" s="2">
         <v>11</v>
       </c>
@@ -12893,9 +13539,63 @@
       <c r="X100" s="4">
         <v>0.22889680000000001</v>
       </c>
+      <c r="Z100" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>4.0939209999999997E-2</v>
+      </c>
+      <c r="AB100" s="4">
+        <v>4.0939209999999997E-2</v>
+      </c>
+      <c r="AC100" s="4">
+        <v>0.2398912</v>
+      </c>
+      <c r="AD100" s="4">
+        <v>0.1906514</v>
+      </c>
+      <c r="AE100" s="4">
+        <v>0.15707059000000001</v>
+      </c>
+      <c r="AG100" s="2">
+        <v>11</v>
+      </c>
+      <c r="AH100" s="4">
+        <v>0.2687871</v>
+      </c>
+      <c r="AI100" s="4">
+        <v>0.2687871</v>
+      </c>
+      <c r="AJ100" s="4">
+        <v>0.19041221999999999</v>
+      </c>
+      <c r="AK100" s="4">
+        <v>0.1680633</v>
+      </c>
+      <c r="AL100" s="4">
+        <v>0.2701305</v>
+      </c>
+      <c r="AN100" s="2">
+        <v>11</v>
+      </c>
+      <c r="AO100" s="4">
+        <v>0.19205150000000001</v>
+      </c>
+      <c r="AP100" s="4">
+        <v>0.1901195</v>
+      </c>
+      <c r="AQ100" s="4">
+        <v>0.18460808000000001</v>
+      </c>
+      <c r="AR100" s="4">
+        <v>0.17620430000000001</v>
+      </c>
+      <c r="AS100" s="4">
+        <v>0.17581289999999999</v>
+      </c>
       <c r="AV100" s="12"/>
     </row>
-    <row r="101" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B101" s="2">
         <v>12</v>
       </c>
@@ -12956,9 +13656,63 @@
       <c r="X101" s="4">
         <v>0.23979829999999999</v>
       </c>
+      <c r="Z101" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA101" s="4">
+        <v>5.399139E-2</v>
+      </c>
+      <c r="AB101" s="4">
+        <v>5.399139E-2</v>
+      </c>
+      <c r="AC101" s="4">
+        <v>0.25177450000000001</v>
+      </c>
+      <c r="AD101" s="4">
+        <v>0.17857909999999999</v>
+      </c>
+      <c r="AE101" s="4">
+        <v>0.14716713000000001</v>
+      </c>
+      <c r="AG101" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH101" s="4">
+        <v>0.26914090000000002</v>
+      </c>
+      <c r="AI101" s="4">
+        <v>0.26914090000000002</v>
+      </c>
+      <c r="AJ101" s="4">
+        <v>0.19058442</v>
+      </c>
+      <c r="AK101" s="4">
+        <v>0.1670239</v>
+      </c>
+      <c r="AL101" s="4">
+        <v>0.27008599999999999</v>
+      </c>
+      <c r="AN101" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO101" s="4">
+        <v>0.18697230000000001</v>
+      </c>
+      <c r="AP101" s="4">
+        <v>0.18615760000000001</v>
+      </c>
+      <c r="AQ101" s="4">
+        <v>0.18328712</v>
+      </c>
+      <c r="AR101" s="4">
+        <v>0.17558009999999999</v>
+      </c>
+      <c r="AS101" s="4">
+        <v>0.1658403</v>
+      </c>
       <c r="AV101" s="12"/>
     </row>
-    <row r="102" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B102" s="2">
         <v>13</v>
       </c>
@@ -13007,9 +13761,63 @@
       <c r="X102" s="4">
         <v>0.25352950000000002</v>
       </c>
+      <c r="Z102" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>4.9807200000000003E-2</v>
+      </c>
+      <c r="AB102" s="4">
+        <v>4.9807200000000003E-2</v>
+      </c>
+      <c r="AC102" s="4">
+        <v>0.24475350000000001</v>
+      </c>
+      <c r="AD102" s="4">
+        <v>0.1752331</v>
+      </c>
+      <c r="AE102" s="4">
+        <v>0.13589886000000001</v>
+      </c>
+      <c r="AG102" s="2">
+        <v>13</v>
+      </c>
+      <c r="AH102" s="4">
+        <v>0.26865430000000001</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>0.26865430000000001</v>
+      </c>
+      <c r="AJ102" s="4">
+        <v>0.18713661000000001</v>
+      </c>
+      <c r="AK102" s="4">
+        <v>0.1729561</v>
+      </c>
+      <c r="AL102" s="4">
+        <v>0.27009430000000001</v>
+      </c>
+      <c r="AN102" s="2">
+        <v>13</v>
+      </c>
+      <c r="AO102" s="4">
+        <v>0.20170540000000001</v>
+      </c>
+      <c r="AP102" s="4">
+        <v>0.2027108</v>
+      </c>
+      <c r="AQ102" s="4">
+        <v>0.18341318000000001</v>
+      </c>
+      <c r="AR102" s="4">
+        <v>0.1813698</v>
+      </c>
+      <c r="AS102" s="4">
+        <v>0.16509969999999999</v>
+      </c>
       <c r="AV102" s="12"/>
     </row>
-    <row r="103" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B103" s="2">
         <v>14</v>
       </c>
@@ -13058,9 +13866,63 @@
       <c r="X103" s="4">
         <v>0.26021529999999998</v>
       </c>
+      <c r="Z103" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>5.2944699999999997E-2</v>
+      </c>
+      <c r="AB103" s="4">
+        <v>5.2944699999999997E-2</v>
+      </c>
+      <c r="AC103" s="4">
+        <v>0.20926310000000001</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>0.17528189999999999</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>0.12626271999999999</v>
+      </c>
+      <c r="AG103" s="2">
+        <v>14</v>
+      </c>
+      <c r="AH103" s="4">
+        <v>0.26885310000000001</v>
+      </c>
+      <c r="AI103" s="4">
+        <v>0.26885310000000001</v>
+      </c>
+      <c r="AJ103" s="4">
+        <v>0.18524247999999999</v>
+      </c>
+      <c r="AK103" s="4">
+        <v>0.17870140000000001</v>
+      </c>
+      <c r="AL103" s="4">
+        <v>0.27009699999999998</v>
+      </c>
+      <c r="AN103" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO103" s="4">
+        <v>0.19880909999999999</v>
+      </c>
+      <c r="AP103" s="4">
+        <v>0.19885700000000001</v>
+      </c>
+      <c r="AQ103" s="4">
+        <v>0.18065120000000001</v>
+      </c>
+      <c r="AR103" s="4">
+        <v>0.18562880000000001</v>
+      </c>
+      <c r="AS103" s="4">
+        <v>0.18172640000000001</v>
+      </c>
       <c r="AV103" s="12"/>
     </row>
-    <row r="104" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B104" s="2">
         <v>15</v>
       </c>
@@ -13109,9 +13971,63 @@
       <c r="X104" s="4">
         <v>0.25741000000000003</v>
       </c>
+      <c r="Z104" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>4.9338079999999999E-2</v>
+      </c>
+      <c r="AB104" s="4">
+        <v>4.9338079999999999E-2</v>
+      </c>
+      <c r="AC104" s="4">
+        <v>0.20531740000000001</v>
+      </c>
+      <c r="AD104" s="4">
+        <v>0.1920367</v>
+      </c>
+      <c r="AE104" s="4">
+        <v>0.11792695</v>
+      </c>
+      <c r="AG104" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH104" s="4">
+        <v>0.267621</v>
+      </c>
+      <c r="AI104" s="4">
+        <v>0.267621</v>
+      </c>
+      <c r="AJ104" s="4">
+        <v>0.18149176</v>
+      </c>
+      <c r="AK104" s="4">
+        <v>0.1825784</v>
+      </c>
+      <c r="AL104" s="4">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="AN104" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO104" s="4">
+        <v>0.19029560000000001</v>
+      </c>
+      <c r="AP104" s="4">
+        <v>0.1992892</v>
+      </c>
+      <c r="AQ104" s="4">
+        <v>0.16151821999999999</v>
+      </c>
+      <c r="AR104" s="4">
+        <v>0.18592230000000001</v>
+      </c>
+      <c r="AS104" s="4">
+        <v>0.17657400000000001</v>
+      </c>
       <c r="AV104" s="12"/>
     </row>
-    <row r="105" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B105" s="2">
         <v>16</v>
       </c>
@@ -13160,9 +14076,63 @@
       <c r="X105" s="4">
         <v>0.25902320000000001</v>
       </c>
+      <c r="Z105" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>4.6070600000000003E-2</v>
+      </c>
+      <c r="AB105" s="4">
+        <v>4.6070600000000003E-2</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>0.19883120000000001</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>0.19289239999999999</v>
+      </c>
+      <c r="AE105" s="4">
+        <v>0.11065896</v>
+      </c>
+      <c r="AG105" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH105" s="4">
+        <v>0.26461459999999998</v>
+      </c>
+      <c r="AI105" s="4">
+        <v>0.26461459999999998</v>
+      </c>
+      <c r="AJ105" s="4">
+        <v>0.1758555</v>
+      </c>
+      <c r="AK105" s="4">
+        <v>0.1841063</v>
+      </c>
+      <c r="AL105" s="4">
+        <v>0.2701035</v>
+      </c>
+      <c r="AN105" s="2">
+        <v>16</v>
+      </c>
+      <c r="AO105" s="4">
+        <v>0.19164220000000001</v>
+      </c>
+      <c r="AP105" s="4">
+        <v>0.18994849999999999</v>
+      </c>
+      <c r="AQ105" s="4">
+        <v>0.16404152</v>
+      </c>
+      <c r="AR105" s="4">
+        <v>0.1809094</v>
+      </c>
+      <c r="AS105" s="4">
+        <v>0.17820559999999999</v>
+      </c>
       <c r="AV105" s="12"/>
     </row>
-    <row r="106" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B106" s="2">
         <v>17</v>
       </c>
@@ -13211,9 +14181,63 @@
       <c r="X106" s="4">
         <v>0.25420039999999999</v>
       </c>
+      <c r="Z106" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>7.9491469999999995E-2</v>
+      </c>
+      <c r="AB106" s="4">
+        <v>7.9491469999999995E-2</v>
+      </c>
+      <c r="AC106" s="4">
+        <v>0.20279359999999999</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>0.1920895</v>
+      </c>
+      <c r="AE106" s="4">
+        <v>0.10428434</v>
+      </c>
+      <c r="AG106" s="2">
+        <v>17</v>
+      </c>
+      <c r="AH106" s="4">
+        <v>0.26333089999999998</v>
+      </c>
+      <c r="AI106" s="4">
+        <v>0.26333089999999998</v>
+      </c>
+      <c r="AJ106" s="4">
+        <v>0.17257771999999999</v>
+      </c>
+      <c r="AK106" s="4">
+        <v>0.1844016</v>
+      </c>
+      <c r="AL106" s="4">
+        <v>0.27010780000000001</v>
+      </c>
+      <c r="AN106" s="2">
+        <v>17</v>
+      </c>
+      <c r="AO106" s="4">
+        <v>0.19104499999999999</v>
+      </c>
+      <c r="AP106" s="4">
+        <v>0.19261200000000001</v>
+      </c>
+      <c r="AQ106" s="4">
+        <v>0.16079426999999999</v>
+      </c>
+      <c r="AR106" s="4">
+        <v>0.18186340000000001</v>
+      </c>
+      <c r="AS106" s="4">
+        <v>0.17814650000000001</v>
+      </c>
       <c r="AV106" s="12"/>
     </row>
-    <row r="107" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B107" s="2">
         <v>18</v>
       </c>
@@ -13262,9 +14286,63 @@
       <c r="X107" s="4">
         <v>0.2695978</v>
       </c>
+      <c r="Z107" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA107" s="4">
+        <v>7.4806650000000002E-2</v>
+      </c>
+      <c r="AB107" s="4">
+        <v>7.4806650000000002E-2</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>0.21002460000000001</v>
+      </c>
+      <c r="AD107" s="4">
+        <v>0.18524499999999999</v>
+      </c>
+      <c r="AE107" s="4">
+        <v>9.7427470000000002E-2</v>
+      </c>
+      <c r="AG107" s="2">
+        <v>18</v>
+      </c>
+      <c r="AH107" s="4">
+        <v>0.25845400000000002</v>
+      </c>
+      <c r="AI107" s="4">
+        <v>0.25845400000000002</v>
+      </c>
+      <c r="AJ107" s="4">
+        <v>0.1718606</v>
+      </c>
+      <c r="AK107" s="4">
+        <v>0.1805322</v>
+      </c>
+      <c r="AL107" s="4">
+        <v>0.27005590000000002</v>
+      </c>
+      <c r="AN107" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO107" s="4">
+        <v>0.19031819999999999</v>
+      </c>
+      <c r="AP107" s="4">
+        <v>0.1827281</v>
+      </c>
+      <c r="AQ107" s="4">
+        <v>0.18134670999999999</v>
+      </c>
+      <c r="AR107" s="4">
+        <v>0.18547630000000001</v>
+      </c>
+      <c r="AS107" s="4">
+        <v>0.17792559999999999</v>
+      </c>
       <c r="AV107" s="12"/>
     </row>
-    <row r="108" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B108" s="2">
         <v>19</v>
       </c>
@@ -13313,9 +14391,63 @@
       <c r="X108" s="4">
         <v>0.2569842</v>
       </c>
+      <c r="Z108" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>7.1674139999999997E-2</v>
+      </c>
+      <c r="AB108" s="4">
+        <v>7.1674139999999997E-2</v>
+      </c>
+      <c r="AC108" s="4">
+        <v>0.2070832</v>
+      </c>
+      <c r="AD108" s="4">
+        <v>0.2003712</v>
+      </c>
+      <c r="AE108" s="4">
+        <v>9.6983559999999996E-2</v>
+      </c>
+      <c r="AG108" s="2">
+        <v>19</v>
+      </c>
+      <c r="AH108" s="4">
+        <v>0.2425563</v>
+      </c>
+      <c r="AI108" s="4">
+        <v>0.2425563</v>
+      </c>
+      <c r="AJ108" s="4">
+        <v>0.16897053000000001</v>
+      </c>
+      <c r="AK108" s="4">
+        <v>0.1816702</v>
+      </c>
+      <c r="AL108" s="4">
+        <v>0.27014169999999998</v>
+      </c>
+      <c r="AN108" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO108" s="4">
+        <v>0.1457976</v>
+      </c>
+      <c r="AP108" s="4">
+        <v>0.1556536</v>
+      </c>
+      <c r="AQ108" s="4">
+        <v>0.18302768</v>
+      </c>
+      <c r="AR108" s="4">
+        <v>0.18665519999999999</v>
+      </c>
+      <c r="AS108" s="4">
+        <v>0.16553619999999999</v>
+      </c>
       <c r="AV108" s="12"/>
     </row>
-    <row r="109" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B109" s="2">
         <v>20</v>
       </c>
@@ -13364,9 +14496,63 @@
       <c r="X109" s="4">
         <v>0.25497629999999999</v>
       </c>
+      <c r="Z109" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>6.6987599999999994E-2</v>
+      </c>
+      <c r="AB109" s="4">
+        <v>6.6987599999999994E-2</v>
+      </c>
+      <c r="AC109" s="4">
+        <v>0.1830831</v>
+      </c>
+      <c r="AD109" s="4">
+        <v>0.21978900000000001</v>
+      </c>
+      <c r="AE109" s="4">
+        <v>0.10036324000000001</v>
+      </c>
+      <c r="AG109" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH109" s="4">
+        <v>0.24251239999999999</v>
+      </c>
+      <c r="AI109" s="4">
+        <v>0.24251239999999999</v>
+      </c>
+      <c r="AJ109" s="4">
+        <v>0.16883655</v>
+      </c>
+      <c r="AK109" s="4">
+        <v>0.18469650000000001</v>
+      </c>
+      <c r="AL109" s="4">
+        <v>0.27023550000000002</v>
+      </c>
+      <c r="AN109" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO109" s="4">
+        <v>0.1409667</v>
+      </c>
+      <c r="AP109" s="4">
+        <v>0.159529</v>
+      </c>
+      <c r="AQ109" s="4">
+        <v>0.18759961999999999</v>
+      </c>
+      <c r="AR109" s="4">
+        <v>0.17854970000000001</v>
+      </c>
+      <c r="AS109" s="4">
+        <v>0.16864290000000001</v>
+      </c>
       <c r="AV109" s="12"/>
     </row>
-    <row r="110" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B110" s="2">
         <v>21</v>
       </c>
@@ -13415,9 +14601,63 @@
       <c r="X110" s="4">
         <v>0.2496012</v>
       </c>
+      <c r="Z110" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>7.600461E-2</v>
+      </c>
+      <c r="AB110" s="4">
+        <v>7.7035670000000001E-2</v>
+      </c>
+      <c r="AC110" s="4">
+        <v>0.18069160000000001</v>
+      </c>
+      <c r="AD110" s="4">
+        <v>0.2161718</v>
+      </c>
+      <c r="AE110" s="4">
+        <v>9.5569559999999998E-2</v>
+      </c>
+      <c r="AG110" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH110" s="4">
+        <v>0.25681349999999997</v>
+      </c>
+      <c r="AI110" s="4">
+        <v>0.25499810000000001</v>
+      </c>
+      <c r="AJ110" s="4">
+        <v>0.17100296000000001</v>
+      </c>
+      <c r="AK110" s="4">
+        <v>0.1767321</v>
+      </c>
+      <c r="AL110" s="4">
+        <v>0.27023580000000003</v>
+      </c>
+      <c r="AN110" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO110" s="4">
+        <v>0.1659873</v>
+      </c>
+      <c r="AP110" s="4">
+        <v>0.1588379</v>
+      </c>
+      <c r="AQ110" s="4">
+        <v>0.18670113999999999</v>
+      </c>
+      <c r="AR110" s="4">
+        <v>0.17855570000000001</v>
+      </c>
+      <c r="AS110" s="4">
+        <v>0.1685354</v>
+      </c>
       <c r="AV110" s="12"/>
     </row>
-    <row r="111" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B111" s="2">
         <v>22</v>
       </c>
@@ -13466,9 +14706,63 @@
       <c r="X111" s="4">
         <v>0.25145869999999998</v>
       </c>
+      <c r="Z111" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA111" s="4">
+        <v>6.9521189999999997E-2</v>
+      </c>
+      <c r="AB111" s="4">
+        <v>7.0493929999999996E-2</v>
+      </c>
+      <c r="AC111" s="4">
+        <v>0.18077289999999999</v>
+      </c>
+      <c r="AD111" s="4">
+        <v>0.2201342</v>
+      </c>
+      <c r="AE111" s="4">
+        <v>9.1180059999999993E-2</v>
+      </c>
+      <c r="AG111" s="2">
+        <v>22</v>
+      </c>
+      <c r="AH111" s="4">
+        <v>0.25491730000000001</v>
+      </c>
+      <c r="AI111" s="4">
+        <v>0.25306329999999999</v>
+      </c>
+      <c r="AJ111" s="4">
+        <v>0.16676937999999999</v>
+      </c>
+      <c r="AK111" s="4">
+        <v>0.1790195</v>
+      </c>
+      <c r="AL111" s="4">
+        <v>0.27023580000000003</v>
+      </c>
+      <c r="AN111" s="2">
+        <v>22</v>
+      </c>
+      <c r="AO111" s="4">
+        <v>0.16544639999999999</v>
+      </c>
+      <c r="AP111" s="4">
+        <v>0.15835150000000001</v>
+      </c>
+      <c r="AQ111" s="4">
+        <v>0.18441619000000001</v>
+      </c>
+      <c r="AR111" s="4">
+        <v>0.17803330000000001</v>
+      </c>
+      <c r="AS111" s="4">
+        <v>0.17710219999999999</v>
+      </c>
       <c r="AV111" s="12"/>
     </row>
-    <row r="112" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B112" s="2">
         <v>23</v>
       </c>
@@ -13517,9 +14811,63 @@
       <c r="X112" s="4">
         <v>0.2492134</v>
       </c>
+      <c r="Z112" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>6.5022099999999999E-2</v>
+      </c>
+      <c r="AB112" s="4">
+        <v>6.5951850000000006E-2</v>
+      </c>
+      <c r="AC112" s="4">
+        <v>0.1662188</v>
+      </c>
+      <c r="AD112" s="4">
+        <v>0.21827849999999999</v>
+      </c>
+      <c r="AE112" s="4">
+        <v>8.7353269999999997E-2</v>
+      </c>
+      <c r="AG112" s="2">
+        <v>23</v>
+      </c>
+      <c r="AH112" s="4">
+        <v>0.25020569999999998</v>
+      </c>
+      <c r="AI112" s="4">
+        <v>0.24823799999999999</v>
+      </c>
+      <c r="AJ112" s="4">
+        <v>0.15583258</v>
+      </c>
+      <c r="AK112" s="4">
+        <v>0.17899570000000001</v>
+      </c>
+      <c r="AL112" s="4">
+        <v>0.27023779999999997</v>
+      </c>
+      <c r="AN112" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO112" s="4">
+        <v>0.16892289999999999</v>
+      </c>
+      <c r="AP112" s="4">
+        <v>0.1768962</v>
+      </c>
+      <c r="AQ112" s="4">
+        <v>0.18604794999999999</v>
+      </c>
+      <c r="AR112" s="4">
+        <v>0.1796394</v>
+      </c>
+      <c r="AS112" s="4">
+        <v>0.17438629999999999</v>
+      </c>
       <c r="AV112" s="12"/>
     </row>
-    <row r="113" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B113" s="2">
         <v>24</v>
       </c>
@@ -13568,9 +14916,62 @@
       <c r="X113" s="4">
         <v>0.24246490000000001</v>
       </c>
-      <c r="AV113" s="12"/>
+      <c r="Z113" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA113" s="4">
+        <v>6.2974359999999993E-2</v>
+      </c>
+      <c r="AB113" s="4">
+        <v>6.3865160000000004E-2</v>
+      </c>
+      <c r="AC113" s="4">
+        <v>0.17058680000000001</v>
+      </c>
+      <c r="AD113" s="4">
+        <v>0.2132944</v>
+      </c>
+      <c r="AE113" s="4">
+        <v>8.3804770000000001E-2</v>
+      </c>
+      <c r="AG113" s="2">
+        <v>24</v>
+      </c>
+      <c r="AH113" s="4">
+        <v>0.25016500000000003</v>
+      </c>
+      <c r="AI113" s="4">
+        <v>0.24819730000000001</v>
+      </c>
+      <c r="AJ113" s="4">
+        <v>0.15272090999999999</v>
+      </c>
+      <c r="AK113" s="4">
+        <v>0.17848030000000001</v>
+      </c>
+      <c r="AL113" s="4">
+        <v>0.27021430000000002</v>
+      </c>
+      <c r="AN113" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO113" s="4">
+        <v>0.16765920000000001</v>
+      </c>
+      <c r="AP113" s="4">
+        <v>0.17379049999999999</v>
+      </c>
+      <c r="AQ113" s="4">
+        <v>0.18581149999999999</v>
+      </c>
+      <c r="AR113" s="4">
+        <v>0.1790321</v>
+      </c>
+      <c r="AS113" s="4">
+        <v>0.16940459999999999</v>
+      </c>
     </row>
-    <row r="114" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:45" x14ac:dyDescent="0.35">
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -13581,8 +14982,50 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="T114" s="20"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AG114" s="2">
+        <v>64</v>
+      </c>
+      <c r="AH114" s="4">
+        <v>0.15386610000000001</v>
+      </c>
+      <c r="AI114" s="4">
+        <v>0.18227789999999999</v>
+      </c>
+      <c r="AJ114" s="4">
+        <v>0.14513856</v>
+      </c>
+      <c r="AK114" s="4">
+        <v>0.17197609999999999</v>
+      </c>
+      <c r="AL114" s="4">
+        <v>0.1626185</v>
+      </c>
+      <c r="AN114" s="2">
+        <v>64</v>
+      </c>
+      <c r="AO114" s="4">
+        <v>0.16036300000000001</v>
+      </c>
+      <c r="AP114" s="4">
+        <v>0.154116</v>
+      </c>
+      <c r="AQ114" s="4">
+        <v>0.15137660999999999</v>
+      </c>
+      <c r="AR114" s="4">
+        <v>0.1724106</v>
+      </c>
+      <c r="AS114" s="4">
+        <v>0.13807900000000001</v>
+      </c>
     </row>
-    <row r="115" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
@@ -13645,8 +15088,67 @@
         <f t="shared" si="63"/>
         <v>0.25323994285714285</v>
       </c>
+      <c r="Z115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="4">
+        <f>AVERAGE(AA91:AA97)</f>
+        <v>6.6246497142857144E-2</v>
+      </c>
+      <c r="AB115" s="4">
+        <f>AVERAGE(AB91:AB97)</f>
+        <v>6.6246497142857144E-2</v>
+      </c>
+      <c r="AC115" s="4">
+        <f>AVERAGE(AC91:AC97)</f>
+        <v>0.27361358571428573</v>
+      </c>
+      <c r="AD115" s="4">
+        <f>AVERAGE(AD91:AD97)</f>
+        <v>0.19616058571428571</v>
+      </c>
+      <c r="AE115" s="4">
+        <f>AVERAGE(AE91:AE97)</f>
+        <v>0.21750482000000002</v>
+      </c>
+      <c r="AG115" s="2">
+        <v>256</v>
+      </c>
+      <c r="AH115" s="4">
+        <v>0.16058430000000001</v>
+      </c>
+      <c r="AI115" s="4">
+        <v>0.1611996</v>
+      </c>
+      <c r="AJ115" s="4">
+        <v>5.3149259999999997E-2</v>
+      </c>
+      <c r="AK115" s="4">
+        <v>0.1584518</v>
+      </c>
+      <c r="AL115" s="4">
+        <v>0.13079250000000001</v>
+      </c>
+      <c r="AN115" s="2">
+        <v>256</v>
+      </c>
+      <c r="AO115" s="4">
+        <v>0.1594091</v>
+      </c>
+      <c r="AP115" s="4">
+        <v>0.16094739999999999</v>
+      </c>
+      <c r="AQ115" s="4">
+        <v>4.878884E-2</v>
+      </c>
+      <c r="AR115" s="4">
+        <v>0.1584033</v>
+      </c>
+      <c r="AS115" s="4">
+        <v>0.12889519999999999</v>
+      </c>
     </row>
-    <row r="116" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
@@ -13709,8 +15211,31 @@
         <f t="shared" si="65"/>
         <v>0.24871298750000004</v>
       </c>
+      <c r="Z116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA116" s="5">
+        <f>AVERAGE(AA98:AA105)</f>
+        <v>4.375114125E-2</v>
+      </c>
+      <c r="AB116" s="5">
+        <f>AVERAGE(AB98:AB105)</f>
+        <v>4.375114125E-2</v>
+      </c>
+      <c r="AC116" s="5">
+        <f>AVERAGE(AC98:AC105)</f>
+        <v>0.23647745000000003</v>
+      </c>
+      <c r="AD116" s="5">
+        <f>AVERAGE(AD98:AD105)</f>
+        <v>0.18481592500000002</v>
+      </c>
+      <c r="AE116" s="5">
+        <f>AVERAGE(AE98:AE105)</f>
+        <v>0.14317900250000001</v>
+      </c>
     </row>
-    <row r="117" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B117" s="2" t="s">
         <v>29</v>
       </c>
@@ -13773,45 +15298,162 @@
         <f t="shared" si="68"/>
         <v>0.25356211249999999</v>
       </c>
+      <c r="Z117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA117" s="5">
+        <f>AVERAGE(AA106:AA113)</f>
+        <v>7.0810264999999997E-2</v>
+      </c>
+      <c r="AB117" s="5">
+        <f>AVERAGE(AB106:AB113)</f>
+        <v>7.1288308749999987E-2</v>
+      </c>
+      <c r="AC117" s="5">
+        <f>AVERAGE(AC106:AC113)</f>
+        <v>0.187656825</v>
+      </c>
+      <c r="AD117" s="5">
+        <f>AVERAGE(AD106:AD113)</f>
+        <v>0.20817170000000002</v>
+      </c>
+      <c r="AE117" s="5">
+        <f>AVERAGE(AE106:AE113)</f>
+        <v>9.4620783750000007E-2</v>
+      </c>
+      <c r="AG117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH117" s="4">
+        <f>AVERAGE(AH91:AH97)</f>
+        <v>0.26965001428571428</v>
+      </c>
+      <c r="AI117" s="4">
+        <f t="shared" ref="AI117:AL117" si="69">AVERAGE(AI91:AI97)</f>
+        <v>0.26965001428571428</v>
+      </c>
+      <c r="AJ117" s="4">
+        <f t="shared" si="69"/>
+        <v>0.24206367285714284</v>
+      </c>
+      <c r="AK117" s="4">
+        <f t="shared" si="69"/>
+        <v>0.18930977142857144</v>
+      </c>
+      <c r="AL117" s="4">
+        <f t="shared" si="69"/>
+        <v>0.26973352857142857</v>
+      </c>
+      <c r="AN117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO117" s="4">
+        <f>AVERAGE(AO91:AO97)</f>
+        <v>0.23294317142857146</v>
+      </c>
+      <c r="AP117" s="4">
+        <f t="shared" ref="AP117:AS117" si="70">AVERAGE(AP91:AP97)</f>
+        <v>0.23441919999999999</v>
+      </c>
+      <c r="AQ117" s="4">
+        <f t="shared" si="70"/>
+        <v>0.2275370414285714</v>
+      </c>
+      <c r="AR117" s="4">
+        <f t="shared" si="70"/>
+        <v>0.19628098571428573</v>
+      </c>
+      <c r="AS117" s="4">
+        <f t="shared" si="70"/>
+        <v>0.24222617142857145</v>
+      </c>
     </row>
-    <row r="119" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AG118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH118" s="5">
+        <f>AVERAGE(AH97:AH104)</f>
+        <v>0.2687815375</v>
+      </c>
+      <c r="AI118" s="5">
+        <f t="shared" ref="AI118:AL118" si="71">AVERAGE(AI97:AI104)</f>
+        <v>0.2687815375</v>
+      </c>
+      <c r="AJ118" s="5">
+        <f t="shared" si="71"/>
+        <v>0.19434758000000002</v>
+      </c>
+      <c r="AK118" s="5">
+        <f t="shared" si="71"/>
+        <v>0.16896677499999999</v>
+      </c>
+      <c r="AL118" s="5">
+        <f t="shared" si="71"/>
+        <v>0.27007730000000002</v>
+      </c>
+      <c r="AN118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO118" s="5">
+        <f>AVERAGE(AO97:AO104)</f>
+        <v>0.19576136250000001</v>
+      </c>
+      <c r="AP118" s="5">
+        <f t="shared" ref="AP118:AS118" si="72">AVERAGE(AP97:AP104)</f>
+        <v>0.19273541250000001</v>
+      </c>
+      <c r="AQ118" s="5">
+        <f t="shared" si="72"/>
+        <v>0.18464637250000002</v>
+      </c>
+      <c r="AR118" s="5">
+        <f t="shared" si="72"/>
+        <v>0.17653363750000001</v>
+      </c>
+      <c r="AS118" s="5">
+        <f t="shared" si="72"/>
+        <v>0.18015882499999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B119" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="9">
-        <f t="shared" ref="C119:K119" si="69">RANK(C115,($C115:$K115))</f>
+        <f t="shared" ref="C119:K119" si="73">RANK(C115,($C115:$K115))</f>
         <v>1</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="E119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>7</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>6</v>
       </c>
       <c r="G119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>5</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="J119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
       <c r="K119" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="S119" s="9" t="s">
@@ -13822,155 +15464,948 @@
         <v>2</v>
       </c>
       <c r="U119" s="9">
-        <f t="shared" ref="U119:X119" si="70">RANK(U115,($T115:$X115))</f>
+        <f t="shared" ref="U119:X119" si="74">RANK(U115,($T115:$X115))</f>
         <v>3</v>
       </c>
       <c r="V119" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="W119" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="X119" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>4</v>
       </c>
+      <c r="Z119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA119" s="9">
+        <f t="shared" ref="AA119:AE121" si="75">RANK(AA115,($AA115:$AE115))</f>
+        <v>4</v>
+      </c>
+      <c r="AB119" s="9">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="AC119" s="9">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AD119" s="9">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="AE119" s="9">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="AG119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH119" s="5">
+        <f>AVERAGE(AH106:AH113)</f>
+        <v>0.25236938750000004</v>
+      </c>
+      <c r="AI119" s="5">
+        <f t="shared" ref="AI119:AL119" si="76">AVERAGE(AI106:AI113)</f>
+        <v>0.25141878750000002</v>
+      </c>
+      <c r="AJ119" s="5">
+        <f t="shared" si="76"/>
+        <v>0.16607140375000001</v>
+      </c>
+      <c r="AK119" s="5">
+        <f t="shared" si="76"/>
+        <v>0.18056601250000001</v>
+      </c>
+      <c r="AL119" s="5">
+        <f t="shared" si="76"/>
+        <v>0.27018307500000005</v>
+      </c>
+      <c r="AN119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO119" s="5">
+        <f>AVERAGE(AO106:AO113)</f>
+        <v>0.16701791250000003</v>
+      </c>
+      <c r="AP119" s="5">
+        <f t="shared" ref="AP119:AS119" si="77">AVERAGE(AP106:AP113)</f>
+        <v>0.16979985</v>
+      </c>
+      <c r="AQ119" s="5">
+        <f t="shared" si="77"/>
+        <v>0.18196813250000002</v>
+      </c>
+      <c r="AR119" s="5">
+        <f t="shared" si="77"/>
+        <v>0.18097563749999998</v>
+      </c>
+      <c r="AS119" s="5">
+        <f t="shared" si="77"/>
+        <v>0.17245996250000001</v>
+      </c>
     </row>
-    <row r="120" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B120" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="9">
-        <f t="shared" ref="C120:K120" si="71">RANK(C116,($C116:$K116))</f>
+        <f t="shared" ref="C120:K120" si="78">RANK(C116,($C116:$K116))</f>
         <v>1</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>3</v>
       </c>
       <c r="E120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>5</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>7</v>
       </c>
       <c r="G120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>4</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>6</v>
       </c>
       <c r="J120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>9</v>
       </c>
       <c r="K120" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>8</v>
       </c>
       <c r="S120" s="9" t="s">
         <v>3</v>
       </c>
       <c r="T120" s="9">
-        <f t="shared" ref="T120:X121" si="72">RANK(T116,($T116:$X116))</f>
+        <f t="shared" ref="T120:X121" si="79">RANK(T116,($T116:$X116))</f>
         <v>2</v>
       </c>
       <c r="U120" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="V120" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="W120" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>5</v>
       </c>
       <c r="X120" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>4</v>
       </c>
+      <c r="Z120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA120" s="9">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="AB120" s="9">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="AC120" s="9">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AD120" s="9">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="AE120" s="9">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="AG120" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH120" s="5">
+        <f>AVERAGE(AH114:AH115)</f>
+        <v>0.15722520000000001</v>
+      </c>
+      <c r="AI120" s="5">
+        <f t="shared" ref="AI120:AL120" si="80">AVERAGE(AI114:AI115)</f>
+        <v>0.17173875</v>
+      </c>
+      <c r="AJ120" s="5">
+        <f t="shared" si="80"/>
+        <v>9.9143910000000002E-2</v>
+      </c>
+      <c r="AK120" s="5">
+        <f t="shared" si="80"/>
+        <v>0.16521395</v>
+      </c>
+      <c r="AL120" s="5">
+        <f t="shared" si="80"/>
+        <v>0.14670549999999999</v>
+      </c>
+      <c r="AN120" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO120" s="5">
+        <f>AVERAGE(AO114:AO115)</f>
+        <v>0.15988605</v>
+      </c>
+      <c r="AP120" s="5">
+        <f t="shared" ref="AP120:AS120" si="81">AVERAGE(AP114:AP115)</f>
+        <v>0.1575317</v>
+      </c>
+      <c r="AQ120" s="5">
+        <f t="shared" si="81"/>
+        <v>0.100082725</v>
+      </c>
+      <c r="AR120" s="5">
+        <f t="shared" si="81"/>
+        <v>0.16540695</v>
+      </c>
+      <c r="AS120" s="5">
+        <f t="shared" si="81"/>
+        <v>0.1334871</v>
+      </c>
     </row>
-    <row r="121" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B121" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="9">
-        <f t="shared" ref="C121:K121" si="73">RANK(C117,($C117:$K117))</f>
+        <f t="shared" ref="C121:K121" si="82">RANK(C117,($C117:$K117))</f>
         <v>2</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="E121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>5</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>4</v>
       </c>
       <c r="G121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>6</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>3</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>8</v>
       </c>
       <c r="J121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>9</v>
       </c>
       <c r="K121" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>7</v>
       </c>
       <c r="S121" s="9" t="s">
         <v>3</v>
       </c>
       <c r="T121" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>2</v>
       </c>
       <c r="U121" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="V121" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="W121" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>5</v>
       </c>
       <c r="X121" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>4</v>
       </c>
+      <c r="Z121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA121" s="9">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="AB121" s="9">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="AC121" s="9">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="AD121" s="9">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AE121" s="9">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AG122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH122" s="9">
+        <f>RANK(AH117,($AH117:$AL117))</f>
+        <v>2</v>
+      </c>
+      <c r="AI122" s="9">
+        <f t="shared" ref="AI122:AL122" si="83">RANK(AI117,($AH117:$AL117))</f>
+        <v>2</v>
+      </c>
+      <c r="AJ122" s="9">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="AK122" s="9">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="AL122" s="9">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+      <c r="AN122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO122" s="9">
+        <f>RANK(AO117,($AO117:$AS117))</f>
+        <v>3</v>
+      </c>
+      <c r="AP122" s="9">
+        <f t="shared" ref="AP122:AS122" si="84">RANK(AP117,($AO117:$AS117))</f>
+        <v>2</v>
+      </c>
+      <c r="AQ122" s="9">
+        <f t="shared" si="84"/>
+        <v>4</v>
+      </c>
+      <c r="AR122" s="9">
+        <f t="shared" si="84"/>
+        <v>5</v>
+      </c>
+      <c r="AS122" s="9">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AG123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH123" s="9">
+        <f t="shared" ref="AH123:AL123" si="85">RANK(AH118,($AH118:$AL118))</f>
+        <v>2</v>
+      </c>
+      <c r="AI123" s="9">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AJ123" s="9">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="AK123" s="9">
+        <f t="shared" si="85"/>
+        <v>5</v>
+      </c>
+      <c r="AL123" s="9">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AN123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO123" s="9">
+        <f t="shared" ref="AO123:AS123" si="86">RANK(AO118,($AO118:$AS118))</f>
+        <v>1</v>
+      </c>
+      <c r="AP123" s="9">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="AQ123" s="9">
+        <f t="shared" si="86"/>
+        <v>3</v>
+      </c>
+      <c r="AR123" s="9">
+        <f t="shared" si="86"/>
+        <v>5</v>
+      </c>
+      <c r="AS123" s="9">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AG124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH124" s="9">
+        <f t="shared" ref="AH124:AL125" si="87">RANK(AH119,($AH119:$AL119))</f>
+        <v>2</v>
+      </c>
+      <c r="AI124" s="9">
+        <f t="shared" si="87"/>
+        <v>3</v>
+      </c>
+      <c r="AJ124" s="9">
+        <f t="shared" si="87"/>
+        <v>5</v>
+      </c>
+      <c r="AK124" s="9">
+        <f t="shared" si="87"/>
+        <v>4</v>
+      </c>
+      <c r="AL124" s="9">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="AN124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO124" s="9">
+        <f t="shared" ref="AO124:AS124" si="88">RANK(AO119,($AO119:$AS119))</f>
+        <v>5</v>
+      </c>
+      <c r="AP124" s="9">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="AQ124" s="9">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="AR124" s="9">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="AS124" s="9">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AG125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH125" s="9">
+        <f t="shared" si="87"/>
+        <v>3</v>
+      </c>
+      <c r="AI125" s="9">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="AJ125" s="9">
+        <f t="shared" si="87"/>
+        <v>5</v>
+      </c>
+      <c r="AK125" s="9">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="AL125" s="9">
+        <f t="shared" si="87"/>
+        <v>4</v>
+      </c>
+      <c r="AN125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO125" s="9">
+        <f t="shared" ref="AO125:AS125" si="89">RANK(AO120,($AO120:$AS120))</f>
+        <v>2</v>
+      </c>
+      <c r="AP125" s="9">
+        <f t="shared" si="89"/>
+        <v>3</v>
+      </c>
+      <c r="AQ125" s="9">
+        <f t="shared" si="89"/>
+        <v>5</v>
+      </c>
+      <c r="AR125" s="9">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="AS125" s="9">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AO126" s="9"/>
+      <c r="AP126" s="9"/>
+      <c r="AQ126" s="9"/>
+      <c r="AR126" s="9"/>
+      <c r="AS126" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M91:P101">
-    <sortCondition ref="P91:P101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M90:P100">
+    <sortCondition ref="P90:P100"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="428">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="418">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="407">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T22">
+    <cfRule type="colorScale" priority="406">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T22 C4:J22">
+    <cfRule type="colorScale" priority="415">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="401">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="399">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="398">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="396">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="393">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="390">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="388">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="380">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="381">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="378">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="377">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="376">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="374">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="372">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80 C82:J83">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J25">
+    <cfRule type="colorScale" priority="369">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T25">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J83">
+    <cfRule type="colorScale" priority="366">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="364">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="365">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J51">
     <cfRule type="colorScale" priority="362">
       <colorScale>
         <cfvo type="min"/>
@@ -13982,7 +16417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J22">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="361">
       <colorScale>
         <cfvo type="min"/>
@@ -13994,548 +16429,116 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="352">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="341">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T22">
-    <cfRule type="colorScale" priority="340">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T22 C4:J22">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="357">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="356">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="354">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J54">
+    <cfRule type="colorScale" priority="350">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:J86">
     <cfRule type="colorScale" priority="349">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="335">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="334">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="333">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="332">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="329">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="330">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="328">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="327">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="326">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="324">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="322">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="323">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
-    <cfRule type="colorScale" priority="314">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
-    <cfRule type="colorScale" priority="315">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="312">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="311">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="310">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="309">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="308">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="306">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="307">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80 C82:J83">
-    <cfRule type="colorScale" priority="305">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J25">
-    <cfRule type="colorScale" priority="303">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T25">
-    <cfRule type="colorScale" priority="302">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J83">
-    <cfRule type="colorScale" priority="300">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="299">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="297">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="296">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="295">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="294">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="293">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="292">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="291">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="289">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="290">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="287">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J54">
-    <cfRule type="colorScale" priority="284">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:J86">
-    <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14547,7 +16550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:J57">
-    <cfRule type="colorScale" priority="282">
+    <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14559,7 +16562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:J28">
-    <cfRule type="colorScale" priority="280">
+    <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14571,7 +16574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:T28">
-    <cfRule type="colorScale" priority="279">
+    <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14583,7 +16586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="274">
+    <cfRule type="colorScale" priority="340">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14595,7 +16598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="270">
+    <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14607,7 +16610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79:U80">
-    <cfRule type="colorScale" priority="269">
+    <cfRule type="colorScale" priority="335">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14619,7 +16622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91:N101">
-    <cfRule type="colorScale" priority="227">
+    <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14631,7 +16634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O91:O101">
-    <cfRule type="colorScale" priority="226">
+    <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14643,7 +16646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P101">
-    <cfRule type="colorScale" priority="225">
+    <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14655,7 +16658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:K113">
-    <cfRule type="colorScale" priority="394">
+    <cfRule type="colorScale" priority="460">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14667,7 +16670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:K116">
-    <cfRule type="colorScale" priority="396">
+    <cfRule type="colorScale" priority="462">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14679,7 +16682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114:K116">
-    <cfRule type="colorScale" priority="398">
+    <cfRule type="colorScale" priority="464">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14691,7 +16694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:K121">
-    <cfRule type="colorScale" priority="222">
+    <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14703,7 +16706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:K116">
-    <cfRule type="colorScale" priority="402">
+    <cfRule type="colorScale" priority="468">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14715,7 +16718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:K117">
-    <cfRule type="colorScale" priority="404">
+    <cfRule type="colorScale" priority="470">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14727,7 +16730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:K117">
-    <cfRule type="colorScale" priority="223">
+    <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14739,7 +16742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:V54">
-    <cfRule type="colorScale" priority="405">
+    <cfRule type="colorScale" priority="471">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14751,7 +16754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:V54">
-    <cfRule type="colorScale" priority="413">
+    <cfRule type="colorScale" priority="479">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14763,7 +16766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:T54 U53:V54">
-    <cfRule type="colorScale" priority="421">
+    <cfRule type="colorScale" priority="487">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14775,7 +16778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:V57">
-    <cfRule type="colorScale" priority="189">
+    <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14787,7 +16790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="203">
+    <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14799,7 +16802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="204">
+    <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14811,7 +16814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="205">
+    <cfRule type="colorScale" priority="271">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14823,7 +16826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="202">
+    <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14835,7 +16838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:T54 U53:V54 M33:V51">
-    <cfRule type="colorScale" priority="187">
+    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14847,7 +16850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="198">
+    <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14859,7 +16862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="199">
+    <cfRule type="colorScale" priority="265">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14871,7 +16874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="200">
+    <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14883,7 +16886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="197">
+    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14895,7 +16898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="196">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14907,7 +16910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y53:AF54">
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14919,7 +16922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y53:AF54">
-    <cfRule type="colorScale" priority="193">
+    <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14931,7 +16934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y52:AF54">
-    <cfRule type="colorScale" priority="194">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14943,7 +16946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y56:AF57">
-    <cfRule type="colorScale" priority="190">
+    <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14955,7 +16958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y52:AF54">
-    <cfRule type="colorScale" priority="191">
+    <cfRule type="colorScale" priority="257">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14967,7 +16970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF54">
-    <cfRule type="colorScale" priority="188">
+    <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14979,7 +16982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V54">
-    <cfRule type="colorScale" priority="185">
+    <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14991,7 +16994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN51">
-    <cfRule type="colorScale" priority="183">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15003,7 +17006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN51">
-    <cfRule type="colorScale" priority="184">
+    <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15015,7 +17018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN51">
-    <cfRule type="colorScale" priority="182">
+    <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15027,7 +17030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="181">
+    <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15039,7 +17042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="180">
+    <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15051,7 +17054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="179">
+    <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15063,7 +17066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="178">
+    <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15075,7 +17078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15087,7 +17090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="175">
+    <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15099,7 +17102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="176">
+    <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15111,7 +17114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="174">
+    <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15123,7 +17126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN54">
-    <cfRule type="colorScale" priority="173">
+    <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15135,7 +17138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ56:AN57">
-    <cfRule type="colorScale" priority="172">
+    <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15147,7 +17150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC22">
-    <cfRule type="colorScale" priority="170">
+    <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15159,7 +17162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC22">
-    <cfRule type="colorScale" priority="171">
+    <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15171,7 +17174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC22">
-    <cfRule type="colorScale" priority="169">
+    <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15183,7 +17186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15195,7 +17198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="167">
+    <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15207,7 +17210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="166">
+    <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15219,7 +17222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15231,7 +17234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="164">
+    <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15243,7 +17246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15255,7 +17258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="163">
+    <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15267,7 +17270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15279,7 +17282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC25">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15291,7 +17294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27:AC28">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15303,7 +17306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="157">
+    <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15315,7 +17318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="158">
+    <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15327,7 +17330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="156">
+    <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15339,7 +17342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="155">
+    <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15351,7 +17354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15363,7 +17366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="153">
+    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15375,7 +17378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15387,7 +17390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="151">
+    <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15399,7 +17402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15411,7 +17414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15423,7 +17426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="149">
+    <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15435,7 +17438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="147">
+    <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15447,7 +17450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23:AL25">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15459,7 +17462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH27:AL28">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15471,7 +17474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="143">
+    <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15483,7 +17486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15495,7 +17498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15507,7 +17510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="141">
+    <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15519,7 +17522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15531,7 +17534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15543,7 +17546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="138">
+    <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15555,7 +17558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="137">
+    <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15567,7 +17570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15579,7 +17582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="134">
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15591,7 +17594,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15603,7 +17606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="133">
+    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15615,7 +17618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23:AS25">
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15627,7 +17630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO27:AS28">
-    <cfRule type="colorScale" priority="131">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15639,7 +17642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS25">
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15651,7 +17654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X113">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15663,7 +17666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X113">
-    <cfRule type="colorScale" priority="129">
+    <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15675,7 +17678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X113">
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15687,7 +17690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X116">
-    <cfRule type="colorScale" priority="123">
+    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15699,7 +17702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X116">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15711,7 +17714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T119:X121">
-    <cfRule type="colorScale" priority="121">
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15723,7 +17726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X116">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15735,7 +17738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T117:X117">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15747,7 +17750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X117">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15759,7 +17762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X117">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15771,7 +17774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15783,7 +17786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="119">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15795,7 +17798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15807,7 +17810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15819,7 +17822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15831,7 +17834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15843,7 +17846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15855,7 +17858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15867,7 +17870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15879,7 +17882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15891,7 +17894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15903,7 +17906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15915,7 +17918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15927,7 +17930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15939,7 +17942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW27:BH28">
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15951,7 +17954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15963,7 +17966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG25">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15975,7 +17978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15987,7 +17990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15999,7 +18002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16011,7 +18014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16023,7 +18026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16035,7 +18038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16047,7 +18050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16059,7 +18062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16071,7 +18074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16083,7 +18086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16095,7 +18098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16107,7 +18110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16119,7 +18122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16131,7 +18134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16143,7 +18146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16155,7 +18158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK27:BU28">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16167,7 +18170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16179,7 +18182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16191,7 +18194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU25">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16203,7 +18206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BZ8">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16215,7 +18218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX4:BZ5">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16227,7 +18230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16239,7 +18242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16251,7 +18254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16263,7 +18266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16275,7 +18278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16287,7 +18290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16299,7 +18302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16311,7 +18314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16323,7 +18326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="72">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16335,7 +18338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16347,7 +18350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16359,7 +18362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16371,7 +18374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16383,7 +18386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16395,7 +18398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16407,7 +18410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW56:BG57">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16419,7 +18422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16431,7 +18434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW52:BG54">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16443,7 +18446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16455,7 +18458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16467,7 +18470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16479,7 +18482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16491,7 +18494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16503,7 +18506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16515,7 +18518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16527,7 +18530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16539,7 +18542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16551,7 +18554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16563,7 +18566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16575,7 +18578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16587,7 +18590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16599,7 +18602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16611,7 +18614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16623,7 +18626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK56:BU57">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16635,7 +18638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16647,7 +18650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16659,7 +18662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16671,7 +18674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX36:BZ37">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16683,7 +18686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX33:BZ34">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16695,7 +18698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU54">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16707,7 +18710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16719,7 +18722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16731,7 +18734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16743,7 +18746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16755,7 +18758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16767,7 +18770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16779,7 +18782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16791,7 +18794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16803,7 +18806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16815,7 +18818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD56:CK57">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16827,6 +18830,570 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD53:CK54">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD53:CK54">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD52:CK54">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK54">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH25">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4:BH25">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA91:AE113">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA119:AE121">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA114:AE114">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA91:AE114">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA115:AE116">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA115:AE116">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA115:AE116">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA117:AE117">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA115:AE117">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA91:AE117">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH91:AL113">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH91:AL113">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH91:AL113">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH114:AL115">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH114:AL115">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH114:AL115">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH91:AL115">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH117:AL118">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH117:AL118">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -16838,19 +19405,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD53:CK54">
+  <conditionalFormatting sqref="AH117:AL118">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH119:AL119">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH117:AL119">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -16862,7 +19441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD52:CK54">
+  <conditionalFormatting sqref="AH117:AL119">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -16874,7 +19453,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
+  <conditionalFormatting sqref="AH120:AL120">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH120:AL120">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -16886,19 +19477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
+  <conditionalFormatting sqref="AH120:AL120">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -16910,43 +19489,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
+  <conditionalFormatting sqref="AH91:AL120">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH122:AL125">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO91:AS113">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -16958,7 +19525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK54">
+  <conditionalFormatting sqref="AO91:AS113">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -16970,7 +19537,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
+  <conditionalFormatting sqref="AO91:AS113">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO114:AS115">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO114:AS115">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -16982,19 +19573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
+  <conditionalFormatting sqref="AO114:AS115">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -17006,7 +19585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
+  <conditionalFormatting sqref="AO91:AS115">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -17018,7 +19597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
+  <conditionalFormatting sqref="AO91:AS115">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -17030,7 +19609,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
+  <conditionalFormatting sqref="AO117:AS118">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO117:AS118">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO117:AS118">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO119:AS119">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -17042,43 +19657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
+  <conditionalFormatting sqref="AO117:AS119">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -17090,7 +19669,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
+  <conditionalFormatting sqref="AO117:AS119">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO120:AS120">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -17102,19 +19693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
+  <conditionalFormatting sqref="AO120:AS120">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -17126,7 +19705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
+  <conditionalFormatting sqref="AO120:AS120">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -17138,31 +19717,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
+  <conditionalFormatting sqref="AO117:AS120">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO122:AS126">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW4:BH25">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO91:AS120">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17180,6 +19759,765 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77953D02-229B-43C1-9222-5F0FDBA4AD43}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="62.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="18">
+        <v>5.7500879999999997E-2</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="18">
+        <v>9.4187530000000005E-2</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.2135206</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.13211545</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.17578205999999999</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.18440641999999999</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.11383269999999999</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <f>AVERAGE(D3:D10)</f>
+        <v>0.12141820499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.10452481</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.18480492600000001</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="18">
+        <v>4.1866342000000001E-2</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4.6130429999999998E-3</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.20704876</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.15619422199999999</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="19">
+        <v>9.2803775000000005E-2</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.327868567</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <f>AVERAGE(D14:D24)</f>
+        <v>0.13996555562500002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="19">
+        <v>7.8913300000000006E-2</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.15011503000000001</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.26005492000000002</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="18">
+        <v>3.4679269999999998E-2</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.14835888</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-1.0804940000000001E-2</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.20680955000000001</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.15617343</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="19">
+        <v>9.1326190000000002E-2</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.31010186000000001</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <f>AVERAGE(D27:D36)</f>
+        <v>0.142572749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D27:D36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15 D24 D17:D19 D21:D22">
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C63CBD-2C3B-46F9-A32A-3609A2EF5368}">
   <dimension ref="A1:AD31"/>
   <sheetViews>
@@ -17187,9 +20525,9 @@
       <selection activeCell="K1" sqref="K1:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -17251,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17313,7 +20651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17375,7 +20713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17437,7 +20775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17499,7 +20837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -17561,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -17623,7 +20961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>SUM(A1:A7)</f>
         <v>5</v>
@@ -17721,7 +21059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D10">
         <f>D9/C9</f>
         <v>0.84515425472851657</v>
@@ -17747,7 +21085,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D11">
         <f>1-D10</f>
         <v>0.15484574527148343</v>
@@ -17773,7 +21111,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -17835,7 +21173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -17897,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -17959,7 +21297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -18021,7 +21359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -18083,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -18145,7 +21483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -18207,7 +21545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>SUM(A25:A31)</f>
         <v>5</v>
@@ -18305,7 +21643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D23">
         <f>D22/C22</f>
         <v>0.84515425472851646</v>
@@ -18331,7 +21669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D24">
         <f>1-D23</f>
         <v>0.15484574527148354</v>
@@ -18357,7 +21695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>A14^2</f>
         <v>1</v>
@@ -18383,7 +21721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ref="A26:B31" si="12">A15^2</f>
         <v>0</v>
@@ -18421,7 +21759,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -18447,7 +21785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -18473,7 +21811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -18499,7 +21837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -18525,7 +21863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18556,20 +21894,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2504A145-3FD9-456D-A872-827794A3C298}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -18577,7 +21915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>102</v>
       </c>
@@ -18585,7 +21923,7 @@
         <v>0.67522919999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>103</v>
       </c>
@@ -18593,7 +21931,7 @@
         <v>0.72097429999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>104</v>
       </c>
@@ -18601,7 +21939,7 @@
         <v>0.73604950000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>105</v>
       </c>
@@ -18609,7 +21947,7 @@
         <v>0.74281589999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>100</v>
       </c>
@@ -18617,7 +21955,7 @@
         <v>0.79301920000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>106</v>
       </c>
@@ -18625,7 +21963,7 @@
         <v>0.7960429</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>107</v>
       </c>
@@ -18633,7 +21971,7 @@
         <v>0.80097890000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>108</v>
       </c>
@@ -18641,7 +21979,7 @@
         <v>0.80124850000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>109</v>
       </c>
@@ -18649,7 +21987,7 @@
         <v>0.80483879999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>110</v>
       </c>
@@ -18657,7 +21995,7 @@
         <v>0.85670449999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>111</v>
       </c>
@@ -18674,679 +22012,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77953D02-229B-43C1-9222-5F0FDBA4AD43}">
-  <dimension ref="A1:G66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="18">
-        <v>5.7500879999999997E-2</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="18">
-        <v>9.4187530000000005E-2</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.2135206</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.13211545</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.17578205999999999</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0.18440641999999999</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.11383269999999999</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <f>AVERAGE(D3:D10)</f>
-        <v>0.12141820499999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.10452481</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.18480492600000001</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="18">
-        <v>4.1866342000000001E-2</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="19">
-        <v>4.6130429999999998E-3</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.20704876</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0.15619422199999999</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="19">
-        <v>9.2803775000000005E-2</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0.327868567</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <f>AVERAGE(D14:D24)</f>
-        <v>0.13996555562500002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="19">
-        <v>7.8913300000000006E-2</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0.15011503000000001</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.26005492000000002</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="18">
-        <v>3.4679269999999998E-2</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0.14835888</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="18">
-        <v>-1.0804940000000001E-2</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0.20680955000000001</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0.15617343</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="19">
-        <v>9.1326190000000002E-2</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="18">
-        <v>0.31010186000000001</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
-        <f>AVERAGE(D27:D36)</f>
-        <v>0.142572749</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D27:D36">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15 D24 D17:D19 D21:D22">
-    <cfRule type="colorScale" priority="382">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/output/ClusterAnalysisPerformance.xlsx
+++ b/output/ClusterAnalysisPerformance.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\match_pedon_site\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5383497F-F325-4D84-8A07-484C0544FE51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D0CFB-4639-40FA-9B98-E8E34B81032C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
     <sheet name="clustercomp" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="allclusters" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
   <si>
     <t>klevel</t>
   </si>
@@ -411,64 +412,49 @@
     <t xml:space="preserve">	Phalaris arundinacea Eastern Ruderal Marsh</t>
   </si>
   <si>
-    <t>Myrica gale - Dasiphora fruticosa / Carex lasiocarpa - Cladium mariscoides Fen</t>
-  </si>
-  <si>
     <t>Acer (rubrum, saccharinum) - Fraxinus spp. - Ulmus americana Swamp Forest</t>
   </si>
   <si>
-    <r>
-      <t>Cladium mariscoides - (Carex lasiocarpa, Hypericum kalmianum, Oligoneuron riddellii, Eleocharis elliptica)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> Fen</t>
-    </r>
+    <t>Cephalanthus occidentalis / Carex spp. Northern Shrub Swamp</t>
   </si>
   <si>
-    <t>Midwest Prairie Alkaline Fen</t>
+    <t>Acer saccharinum - Ulmus americana / Onoclea sensibilis Floodplain Forest</t>
   </si>
   <si>
-    <r>
-      <t>Carex lasiocarpa - Calamagrostis</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> spp. - (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Eleocharis rostellata</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) Fen</t>
-    </r>
+    <t>Cladium mariscoides - (Carex lasiocarpa, Hypericum kalmianum, Oligoneuron riddellii, Eleocharis elliptica) Fen</t>
+  </si>
+  <si>
+    <t>Pinus strobus - (Acer rubrum) / Osmunda spp. Swamp Forest</t>
+  </si>
+  <si>
+    <t>Cornus sericea - Salix spp. - (Rosa palustris) Shrub Swamp</t>
+  </si>
+  <si>
+    <t>Typha spp. - Schoenoplectus tabernaemontani - Mixed Herbs Southern Great Lakes Shore Marsh</t>
+  </si>
+  <si>
+    <t>allclusters</t>
+  </si>
+  <si>
+    <t>Fagus grandifolia - Acer saccharum Glaciated Midwest Forest</t>
+  </si>
+  <si>
+    <t>Fagus grandifolia - Acer saccharum - Quercus bicolor - Acer rubrum Flatwoods Forest</t>
+  </si>
+  <si>
+    <t>Quercus palustris - Quercus bicolor - Nyssa sylvatica - Acer rubrum Sand Wet Flatwoods Forest</t>
+  </si>
+  <si>
+    <t>Quercus rubra - Quercus alba - (Quercus velutina, Acer rubrum) / Viburnum acerifolium Forest</t>
+  </si>
+  <si>
+    <t>Phalaris arundinacea Eastern Ruderal Marsh</t>
+  </si>
+  <si>
+    <t>Tsuga canadensis - Fagus grandifolia - (Acer saccharum) Great Lakes Forest</t>
+  </si>
+  <si>
+    <t>Quercus palustris - Quercus bicolor - Acer rubrum Flatwoods Forest</t>
   </si>
 </sst>
 </file>
@@ -478,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,21 +503,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -633,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -694,8 +665,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44202EFB-DF2D-460C-A98E-9C14A00CE468}">
   <dimension ref="A1:CK126"/>
   <sheetViews>
-    <sheetView topLeftCell="AD106" workbookViewId="0">
-      <selection activeCell="AT122" sqref="AT122"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19760,13 +19729,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77953D02-229B-43C1-9222-5F0FDBA4AD43}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20411,6 +20380,9 @@
       <c r="B70" t="s">
         <v>125</v>
       </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
@@ -20428,10 +20400,7 @@
         <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -20441,12 +20410,6 @@
       <c r="B74" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
@@ -20458,13 +20421,19 @@
       <c r="C76" t="s">
         <v>122</v>
       </c>
+      <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -20473,6 +20442,84 @@
       </c>
       <c r="B79" t="s">
         <v>123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -20518,6 +20565,170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5843A7B9-8C6A-49C0-80DF-2AAAD8F8BB56}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L1:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>685222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>687841</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>686814</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>686814</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>688421</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>686190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>688421</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>689615</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>685467</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>689285</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>689188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>683742</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>683742</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C63CBD-2C3B-46F9-A32A-3609A2EF5368}">
   <dimension ref="A1:AD31"/>
   <sheetViews>
@@ -21894,7 +22105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2504A145-3FD9-456D-A872-827794A3C298}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/output/ClusterAnalysisPerformance.xlsx
+++ b/output/ClusterAnalysisPerformance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\match_pedon_site\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D0CFB-4639-40FA-9B98-E8E34B81032C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232969F2-95A3-4331-BBEA-D0BA13C21640}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5093B92A-DE42-4B02-9A90-566AE8194217}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="146">
   <si>
     <t>klevel</t>
   </si>
@@ -455,6 +455,27 @@
   </si>
   <si>
     <t>Quercus palustris - Quercus bicolor - Acer rubrum Flatwoods Forest</t>
+  </si>
+  <si>
+    <t>agnes kulczynski</t>
+  </si>
+  <si>
+    <t>ward kulczynski</t>
+  </si>
+  <si>
+    <t>hybrid kulczynski</t>
+  </si>
+  <si>
+    <t>All Vegetation (to July 1, 2020), kulczynski metric</t>
+  </si>
+  <si>
+    <t>All Vegetation (to July 1, 2020), bray-curtis metric</t>
+  </si>
+  <si>
+    <t>kmeans bray</t>
+  </si>
+  <si>
+    <t>Mucky Vegetation (to July 1, 2020), kulczynski metric</t>
   </si>
 </sst>
 </file>
@@ -979,26 +1000,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44202EFB-DF2D-460C-A98E-9C14A00CE468}">
-  <dimension ref="A1:CK126"/>
+  <dimension ref="A1:CK161"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="I130" workbookViewId="0">
+      <selection activeCell="AI131" sqref="AA131:AI131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="11" width="9.26953125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="20" width="9.26953125" customWidth="1"/>
+    <col min="13" max="20" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>17</v>
@@ -1064,7 +1085,7 @@
       <c r="BU2"/>
       <c r="BV2"/>
     </row>
-    <row r="3" spans="1:78" ht="23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1262,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -1465,7 +1486,7 @@
         <v>1.2923523714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="3">
         <v>3</v>
@@ -1668,7 +1689,7 @@
         <v>1.3112606839285714</v>
       </c>
     </row>
-    <row r="6" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -1866,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="3">
         <v>5</v>
@@ -2069,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -2272,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="3">
         <v>7</v>
@@ -2460,7 +2481,7 @@
         <v>0.30553839999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>8</v>
@@ -2648,7 +2669,7 @@
         <v>0.30792950000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="3">
         <v>9</v>
@@ -2836,7 +2857,7 @@
         <v>0.31914769999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -3024,7 +3045,7 @@
         <v>0.33533689999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="3">
         <v>11</v>
@@ -3212,7 +3233,7 @@
         <v>0.35486970000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="2">
         <v>12</v>
@@ -3400,7 +3421,7 @@
         <v>0.35652089999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="3">
         <v>13</v>
@@ -3588,7 +3609,7 @@
         <v>0.3329201</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="2">
         <v>14</v>
@@ -3776,7 +3797,7 @@
         <v>0.31310359999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="3">
         <v>15</v>
@@ -3964,7 +3985,7 @@
         <v>0.31430649999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="2">
         <v>16</v>
@@ -4152,7 +4173,7 @@
         <v>0.31296669999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="3">
         <v>17</v>
@@ -4340,7 +4361,7 @@
         <v>0.30772349999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="2">
         <v>18</v>
@@ -4528,7 +4549,7 @@
         <v>0.3031626</v>
       </c>
     </row>
-    <row r="21" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="3">
         <v>19</v>
@@ -4716,7 +4737,7 @@
         <v>0.29791469999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="2">
         <v>20</v>
@@ -4904,7 +4925,7 @@
         <v>0.29927759999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="W23" s="20"/>
       <c r="X23" s="12"/>
       <c r="AF23" s="20"/>
@@ -4917,7 +4938,7 @@
       <c r="AZ23" s="12"/>
       <c r="BA23" s="12"/>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -5158,7 +5179,7 @@
         <v>0.32202968571428581</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -5399,10 +5420,10 @@
         <v>0.32989651249999996</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="AF26" s="20"/>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -5641,7 +5662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>3</v>
       </c>
@@ -5880,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="AV30" s="12"/>
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
@@ -5890,7 +5911,7 @@
       <c r="BB30" s="12"/>
       <c r="BC30" s="12"/>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5913,7 +5934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:89" ht="23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:89" ht="21" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -6129,7 +6150,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>2</v>
       </c>
@@ -6355,7 +6376,7 @@
         <v>6.5766839999999993E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>3</v>
       </c>
@@ -6581,7 +6602,7 @@
         <v>4.5974559999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>4</v>
       </c>
@@ -6802,7 +6823,7 @@
         <v>6.7296679999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>5</v>
       </c>
@@ -7028,7 +7049,7 @@
         <v>6.7310099999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>6</v>
       </c>
@@ -7254,7 +7275,7 @@
         <v>9.0035470000000006E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>7</v>
       </c>
@@ -7465,7 +7486,7 @@
         <v>0.10791869</v>
       </c>
     </row>
-    <row r="39" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>8</v>
       </c>
@@ -7676,7 +7697,7 @@
         <v>0.12835928999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>9</v>
       </c>
@@ -7887,7 +7908,7 @@
         <v>0.12795377999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>10</v>
       </c>
@@ -8098,7 +8119,7 @@
         <v>0.13381202</v>
       </c>
     </row>
-    <row r="42" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>11</v>
       </c>
@@ -8309,7 +8330,7 @@
         <v>0.13526740000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>12</v>
       </c>
@@ -8520,7 +8541,7 @@
         <v>0.13976332</v>
       </c>
     </row>
-    <row r="44" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>13</v>
       </c>
@@ -8731,7 +8752,7 @@
         <v>0.14060302</v>
       </c>
     </row>
-    <row r="45" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>14</v>
       </c>
@@ -8942,7 +8963,7 @@
         <v>0.13918742000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>15</v>
       </c>
@@ -9153,7 +9174,7 @@
         <v>0.12713888000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>16</v>
       </c>
@@ -9364,7 +9385,7 @@
         <v>0.120784</v>
       </c>
     </row>
-    <row r="48" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>17</v>
       </c>
@@ -9575,7 +9596,7 @@
         <v>0.12740253000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>18</v>
       </c>
@@ -9786,7 +9807,7 @@
         <v>0.13435848</v>
       </c>
     </row>
-    <row r="50" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>19</v>
       </c>
@@ -9997,7 +10018,7 @@
         <v>0.13164556999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>20</v>
       </c>
@@ -10208,7 +10229,7 @@
         <v>0.13154141</v>
       </c>
     </row>
-    <row r="52" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:89" x14ac:dyDescent="0.25">
       <c r="AG52" s="20"/>
       <c r="AH52" s="20"/>
       <c r="AO52" s="20"/>
@@ -10221,7 +10242,7 @@
       <c r="AZ52" s="12"/>
       <c r="BA52" s="12"/>
     </row>
-    <row r="53" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
@@ -10493,7 +10514,7 @@
         <v>8.1808804285714271E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
@@ -10765,7 +10786,7 @@
         <v>0.13306372999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:89" x14ac:dyDescent="0.25">
       <c r="AG55" s="20"/>
       <c r="AH55" s="20"/>
       <c r="AI55" s="20"/>
@@ -10778,7 +10799,7 @@
       <c r="AP55" s="20"/>
       <c r="AQ55" s="20"/>
     </row>
-    <row r="56" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>3</v>
       </c>
@@ -11050,7 +11071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>3</v>
       </c>
@@ -11322,7 +11343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:89" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:89" x14ac:dyDescent="0.25">
       <c r="AG58" s="20"/>
       <c r="AH58" s="20"/>
       <c r="AI58" s="20"/>
@@ -11335,16 +11356,16 @@
       <c r="AP58" s="20"/>
       <c r="AQ58" s="20"/>
     </row>
-    <row r="59" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:89" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG59" s="20"/>
     </row>
-    <row r="60" spans="2:89" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:89" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AG60" s="20"/>
     </row>
-    <row r="61" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:89" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
@@ -11376,7 +11397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:89" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>2</v>
       </c>
@@ -11408,7 +11429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:89" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>3</v>
       </c>
@@ -11440,7 +11461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:89" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:89" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>4</v>
       </c>
@@ -11472,7 +11493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -11504,7 +11525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>6</v>
       </c>
@@ -11536,7 +11557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>7</v>
       </c>
@@ -11568,7 +11589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>8</v>
       </c>
@@ -11600,7 +11621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>9</v>
       </c>
@@ -11632,7 +11653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>10</v>
       </c>
@@ -11661,7 +11682,7 @@
         <v>0.19333642000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>11</v>
       </c>
@@ -11690,7 +11711,7 @@
         <v>0.18458662000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>12</v>
       </c>
@@ -11719,7 +11740,7 @@
         <v>0.16288343</v>
       </c>
     </row>
-    <row r="73" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>13</v>
       </c>
@@ -11748,7 +11769,7 @@
         <v>0.15136542</v>
       </c>
     </row>
-    <row r="74" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>14</v>
       </c>
@@ -11777,7 +11798,7 @@
         <v>0.11553666</v>
       </c>
     </row>
-    <row r="75" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>15</v>
       </c>
@@ -11809,7 +11830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>16</v>
       </c>
@@ -11873,7 +11894,7 @@
         <v>0.19759749942857141</v>
       </c>
     </row>
-    <row r="77" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>17</v>
       </c>
@@ -11937,7 +11958,7 @@
         <v>0.178211392</v>
       </c>
     </row>
-    <row r="78" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>18</v>
       </c>
@@ -11966,7 +11987,7 @@
         <v>3.2460589999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>19</v>
       </c>
@@ -12030,7 +12051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:21" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>20</v>
       </c>
@@ -12094,7 +12115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -12104,7 +12125,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
@@ -12141,7 +12162,7 @@
         <v>0.23821479285714289</v>
       </c>
     </row>
-    <row r="83" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -12178,8 +12199,8 @@
         <v>0.1465071325</v>
       </c>
     </row>
-    <row r="84" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>3</v>
       </c>
@@ -12216,7 +12237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>3</v>
       </c>
@@ -12253,9 +12274,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="2:48" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>28</v>
       </c>
@@ -12275,7 +12296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="2:48" ht="23" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:48" ht="21" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
@@ -12392,7 +12413,7 @@
       </c>
       <c r="AV90" s="12"/>
     </row>
-    <row r="91" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -12511,7 +12532,7 @@
       <c r="AT91" s="22"/>
       <c r="AV91" s="12"/>
     </row>
-    <row r="92" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>3</v>
       </c>
@@ -12628,7 +12649,7 @@
       </c>
       <c r="AV92" s="12"/>
     </row>
-    <row r="93" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>4</v>
       </c>
@@ -12745,7 +12766,7 @@
       </c>
       <c r="AV93" s="12"/>
     </row>
-    <row r="94" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>5</v>
       </c>
@@ -12862,7 +12883,7 @@
       </c>
       <c r="AV94" s="12"/>
     </row>
-    <row r="95" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>6</v>
       </c>
@@ -12979,7 +13000,7 @@
       </c>
       <c r="AV95" s="12"/>
     </row>
-    <row r="96" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>7</v>
       </c>
@@ -13096,7 +13117,7 @@
       </c>
       <c r="AV96" s="12"/>
     </row>
-    <row r="97" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>8</v>
       </c>
@@ -13213,7 +13234,7 @@
       </c>
       <c r="AV97" s="12"/>
     </row>
-    <row r="98" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>9</v>
       </c>
@@ -13330,7 +13351,7 @@
       </c>
       <c r="AV98" s="12"/>
     </row>
-    <row r="99" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>10</v>
       </c>
@@ -13447,7 +13468,7 @@
       </c>
       <c r="AV99" s="12"/>
     </row>
-    <row r="100" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>11</v>
       </c>
@@ -13564,7 +13585,7 @@
       </c>
       <c r="AV100" s="12"/>
     </row>
-    <row r="101" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>12</v>
       </c>
@@ -13681,7 +13702,7 @@
       </c>
       <c r="AV101" s="12"/>
     </row>
-    <row r="102" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>13</v>
       </c>
@@ -13786,7 +13807,7 @@
       </c>
       <c r="AV102" s="12"/>
     </row>
-    <row r="103" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>14</v>
       </c>
@@ -13891,7 +13912,7 @@
       </c>
       <c r="AV103" s="12"/>
     </row>
-    <row r="104" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>15</v>
       </c>
@@ -13996,7 +14017,7 @@
       </c>
       <c r="AV104" s="12"/>
     </row>
-    <row r="105" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>16</v>
       </c>
@@ -14101,7 +14122,7 @@
       </c>
       <c r="AV105" s="12"/>
     </row>
-    <row r="106" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>17</v>
       </c>
@@ -14206,7 +14227,7 @@
       </c>
       <c r="AV106" s="12"/>
     </row>
-    <row r="107" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>18</v>
       </c>
@@ -14311,7 +14332,7 @@
       </c>
       <c r="AV107" s="12"/>
     </row>
-    <row r="108" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>19</v>
       </c>
@@ -14416,7 +14437,7 @@
       </c>
       <c r="AV108" s="12"/>
     </row>
-    <row r="109" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>20</v>
       </c>
@@ -14521,7 +14542,7 @@
       </c>
       <c r="AV109" s="12"/>
     </row>
-    <row r="110" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>21</v>
       </c>
@@ -14626,7 +14647,7 @@
       </c>
       <c r="AV110" s="12"/>
     </row>
-    <row r="111" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>22</v>
       </c>
@@ -14731,7 +14752,7 @@
       </c>
       <c r="AV111" s="12"/>
     </row>
-    <row r="112" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>23</v>
       </c>
@@ -14836,7 +14857,7 @@
       </c>
       <c r="AV112" s="12"/>
     </row>
-    <row r="113" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>24</v>
       </c>
@@ -14940,7 +14961,7 @@
         <v>0.16940459999999999</v>
       </c>
     </row>
-    <row r="114" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -14994,7 +15015,7 @@
         <v>0.13807900000000001</v>
       </c>
     </row>
-    <row r="115" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
@@ -15117,7 +15138,7 @@
         <v>0.12889519999999999</v>
       </c>
     </row>
-    <row r="116" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
@@ -15204,7 +15225,7 @@
         <v>0.14317900250000001</v>
       </c>
     </row>
-    <row r="117" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>29</v>
       </c>
@@ -15337,7 +15358,7 @@
         <v>0.24222617142857145</v>
       </c>
     </row>
-    <row r="118" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AG118" s="2" t="s">
         <v>2</v>
       </c>
@@ -15385,7 +15406,7 @@
         <v>0.18015882499999999</v>
       </c>
     </row>
-    <row r="119" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
         <v>3</v>
       </c>
@@ -15518,7 +15539,7 @@
         <v>0.17245996250000001</v>
       </c>
     </row>
-    <row r="120" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>3</v>
       </c>
@@ -15651,7 +15672,7 @@
         <v>0.1334871</v>
       </c>
     </row>
-    <row r="121" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
         <v>3</v>
       </c>
@@ -15738,7 +15759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AG122" s="9" t="s">
         <v>3</v>
       </c>
@@ -15786,7 +15807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AG123" s="9" t="s">
         <v>3</v>
       </c>
@@ -15834,7 +15855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AG124" s="9" t="s">
         <v>3</v>
       </c>
@@ -15882,7 +15903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AG125" s="9" t="s">
         <v>3</v>
       </c>
@@ -15930,19 +15951,3107 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AO126" s="9"/>
       <c r="AP126" s="9"/>
       <c r="AQ126" s="9"/>
       <c r="AR126" s="9"/>
       <c r="AS126" s="9"/>
     </row>
+    <row r="129" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="M129" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z129" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="2:35" ht="21" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG130" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI130" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B131" s="2">
+        <v>2</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.10508052</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0.10508052</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.10508052</v>
+      </c>
+      <c r="F131" s="4">
+        <v>9.2604699999999998E-2</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2.359845E-2</v>
+      </c>
+      <c r="H131" s="4">
+        <v>9.2968960000000003E-2</v>
+      </c>
+      <c r="I131" s="4">
+        <v>0.10508052</v>
+      </c>
+      <c r="J131" s="4">
+        <v>9.0461200000000005E-2</v>
+      </c>
+      <c r="K131" s="4">
+        <v>9.0461200000000005E-2</v>
+      </c>
+      <c r="M131" s="2">
+        <v>2</v>
+      </c>
+      <c r="N131" s="4">
+        <v>9.8829650000000005E-2</v>
+      </c>
+      <c r="O131" s="4">
+        <v>9.8829650000000005E-2</v>
+      </c>
+      <c r="P131" s="4">
+        <v>9.8829650000000005E-2</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>8.7605039999999995E-2</v>
+      </c>
+      <c r="R131" s="4">
+        <v>2.1220739999999998E-2</v>
+      </c>
+      <c r="S131" s="4">
+        <v>9.2968960000000003E-2</v>
+      </c>
+      <c r="T131" s="4">
+        <v>9.8829650000000005E-2</v>
+      </c>
+      <c r="U131" s="4">
+        <v>8.5300760000000003E-2</v>
+      </c>
+      <c r="V131" s="4">
+        <v>8.5300760000000003E-2</v>
+      </c>
+      <c r="Z131" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA131" s="4">
+        <v>9.0474159999999998E-2</v>
+      </c>
+      <c r="AB131" s="4">
+        <v>9.0474159999999998E-2</v>
+      </c>
+      <c r="AC131" s="4">
+        <v>8.2415089400000002E-2</v>
+      </c>
+      <c r="AD131" s="4">
+        <v>0.1093886</v>
+      </c>
+      <c r="AE131" s="4">
+        <v>8.7987159999999995E-2</v>
+      </c>
+      <c r="AF131" s="4">
+        <v>0.10774082</v>
+      </c>
+      <c r="AG131" s="4">
+        <v>9.0474159999999998E-2</v>
+      </c>
+      <c r="AH131" s="4">
+        <v>0.1093886</v>
+      </c>
+      <c r="AI131" s="4">
+        <v>0.1093886</v>
+      </c>
+    </row>
+    <row r="132" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
+        <v>3</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0.10144401</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0.10076237</v>
+      </c>
+      <c r="E132" s="4">
+        <v>9.9185060000000005E-2</v>
+      </c>
+      <c r="F132" s="4">
+        <v>9.3390029999999999E-2</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1.603098E-2</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0.11019195</v>
+      </c>
+      <c r="I132" s="4">
+        <v>0.10076237</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0.10790946</v>
+      </c>
+      <c r="K132" s="4">
+        <v>0.10790946</v>
+      </c>
+      <c r="M132" s="2">
+        <v>3</v>
+      </c>
+      <c r="N132" s="4">
+        <v>9.5604540000000002E-2</v>
+      </c>
+      <c r="O132" s="4">
+        <v>9.5081499999999999E-2</v>
+      </c>
+      <c r="P132" s="4">
+        <v>9.3620830000000002E-2</v>
+      </c>
+      <c r="Q132" s="4">
+        <v>8.9132909999999996E-2</v>
+      </c>
+      <c r="R132" s="4">
+        <v>1.3890980000000001E-2</v>
+      </c>
+      <c r="S132" s="4">
+        <v>0.11019195</v>
+      </c>
+      <c r="T132" s="4">
+        <v>9.5081499999999999E-2</v>
+      </c>
+      <c r="U132" s="4">
+        <v>0.10121611</v>
+      </c>
+      <c r="V132" s="4">
+        <v>0.10121611</v>
+      </c>
+      <c r="Z132" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA132" s="4">
+        <v>9.2609120000000003E-2</v>
+      </c>
+      <c r="AB132" s="4">
+        <v>8.0876630000000005E-2</v>
+      </c>
+      <c r="AC132" s="4">
+        <v>4.7267126499999999E-2</v>
+      </c>
+      <c r="AD132" s="4">
+        <v>0.1115992</v>
+      </c>
+      <c r="AE132" s="4">
+        <v>8.616878E-2</v>
+      </c>
+      <c r="AF132" s="4">
+        <v>0.13240983000000001</v>
+      </c>
+      <c r="AG132" s="4">
+        <v>9.2609120000000003E-2</v>
+      </c>
+      <c r="AH132" s="4">
+        <v>0.12998689999999999</v>
+      </c>
+      <c r="AI132" s="4">
+        <v>0.12998689999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B133" s="2">
+        <v>4</v>
+      </c>
+      <c r="C133" s="4">
+        <v>9.4102089999999999E-2</v>
+      </c>
+      <c r="D133" s="4">
+        <v>9.785845E-2</v>
+      </c>
+      <c r="E133" s="4">
+        <v>9.3388869999999999E-2</v>
+      </c>
+      <c r="F133" s="4">
+        <v>0.10647526</v>
+      </c>
+      <c r="G133" s="4">
+        <v>1.720023E-2</v>
+      </c>
+      <c r="H133" s="4">
+        <v>9.4730800000000004E-2</v>
+      </c>
+      <c r="I133" s="4">
+        <v>9.9990339999999997E-2</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0.11733808</v>
+      </c>
+      <c r="K133" s="4">
+        <v>0.11733808</v>
+      </c>
+      <c r="M133" s="2">
+        <v>4</v>
+      </c>
+      <c r="N133" s="4">
+        <v>8.9837180000000003E-2</v>
+      </c>
+      <c r="O133" s="4">
+        <v>9.2527620000000005E-2</v>
+      </c>
+      <c r="P133" s="4">
+        <v>8.8495879999999999E-2</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>0.10131966000000001</v>
+      </c>
+      <c r="R133" s="4">
+        <v>1.486816E-2</v>
+      </c>
+      <c r="S133" s="4">
+        <v>0.11810279999999999</v>
+      </c>
+      <c r="T133" s="4">
+        <v>9.4521679999999997E-2</v>
+      </c>
+      <c r="U133" s="4">
+        <v>0.10967411000000001</v>
+      </c>
+      <c r="V133" s="4">
+        <v>0.10967411000000001</v>
+      </c>
+      <c r="Z133" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA133" s="4">
+        <v>8.1082719999999997E-2</v>
+      </c>
+      <c r="AB133" s="4">
+        <v>7.6315919999999995E-2</v>
+      </c>
+      <c r="AC133" s="4">
+        <v>4.49383727E-2</v>
+      </c>
+      <c r="AD133" s="4">
+        <v>0.122198</v>
+      </c>
+      <c r="AE133" s="4">
+        <v>0.11656864</v>
+      </c>
+      <c r="AF133" s="4">
+        <v>0.13738715000000001</v>
+      </c>
+      <c r="AG133" s="4">
+        <v>0.11923451</v>
+      </c>
+      <c r="AH133" s="4">
+        <v>0.14037569999999999</v>
+      </c>
+      <c r="AI133" s="4">
+        <v>0.14037569999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0.1011383</v>
+      </c>
+      <c r="D134" s="4">
+        <v>9.0801930000000003E-2</v>
+      </c>
+      <c r="E134" s="4">
+        <v>9.6310389999999996E-2</v>
+      </c>
+      <c r="F134" s="4">
+        <v>9.9837179999999998E-2</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1.951727E-2</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0.11006414</v>
+      </c>
+      <c r="I134" s="4">
+        <v>8.6791140000000003E-2</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0.11389212</v>
+      </c>
+      <c r="K134" s="4">
+        <v>0.11389212</v>
+      </c>
+      <c r="M134" s="2">
+        <v>5</v>
+      </c>
+      <c r="N134" s="4">
+        <v>9.626411E-2</v>
+      </c>
+      <c r="O134" s="4">
+        <v>8.6986019999999997E-2</v>
+      </c>
+      <c r="P134" s="4">
+        <v>9.1168769999999996E-2</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>9.448136E-2</v>
+      </c>
+      <c r="R134" s="4">
+        <v>1.704516E-2</v>
+      </c>
+      <c r="S134" s="4">
+        <v>0.12370493</v>
+      </c>
+      <c r="T134" s="4">
+        <v>8.4070530000000004E-2</v>
+      </c>
+      <c r="U134" s="4">
+        <v>0.10586994</v>
+      </c>
+      <c r="V134" s="4">
+        <v>0.10586994</v>
+      </c>
+      <c r="Z134" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA134" s="4">
+        <v>0.10006323</v>
+      </c>
+      <c r="AB134" s="4">
+        <v>0.11453020999999999</v>
+      </c>
+      <c r="AC134" s="4">
+        <v>6.4745356300000001E-2</v>
+      </c>
+      <c r="AD134" s="4">
+        <v>0.12732679999999999</v>
+      </c>
+      <c r="AE134" s="4">
+        <v>0.15060145999999999</v>
+      </c>
+      <c r="AF134" s="4">
+        <v>0.11659385</v>
+      </c>
+      <c r="AG134" s="4">
+        <v>0.13572702</v>
+      </c>
+      <c r="AH134" s="4">
+        <v>0.14173549999999999</v>
+      </c>
+      <c r="AI134" s="4">
+        <v>0.15827169999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B135" s="2">
+        <v>6</v>
+      </c>
+      <c r="C135" s="4">
+        <v>9.0059230000000004E-2</v>
+      </c>
+      <c r="D135" s="4">
+        <v>9.9451129999999999E-2</v>
+      </c>
+      <c r="E135" s="4">
+        <v>9.4277630000000001E-2</v>
+      </c>
+      <c r="F135" s="4">
+        <v>9.5257259999999996E-2</v>
+      </c>
+      <c r="G135" s="4">
+        <v>4.6444149999999997E-2</v>
+      </c>
+      <c r="H135" s="4">
+        <v>9.954238E-2</v>
+      </c>
+      <c r="I135" s="4">
+        <v>8.3498959999999997E-2</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0.10126066</v>
+      </c>
+      <c r="K135" s="4">
+        <v>0.11834936</v>
+      </c>
+      <c r="M135" s="2">
+        <v>6</v>
+      </c>
+      <c r="N135" s="4">
+        <v>8.5070389999999996E-2</v>
+      </c>
+      <c r="O135" s="4">
+        <v>9.4799430000000004E-2</v>
+      </c>
+      <c r="P135" s="4">
+        <v>8.9139819999999995E-2</v>
+      </c>
+      <c r="Q135" s="4">
+        <v>8.9450929999999998E-2</v>
+      </c>
+      <c r="R135" s="4">
+        <v>4.2609710000000002E-2</v>
+      </c>
+      <c r="S135" s="4">
+        <v>0.10415993</v>
+      </c>
+      <c r="T135" s="4">
+        <v>7.9521919999999996E-2</v>
+      </c>
+      <c r="U135" s="4">
+        <v>9.3315770000000006E-2</v>
+      </c>
+      <c r="V135" s="4">
+        <v>0.11040566</v>
+      </c>
+      <c r="Z135" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA135" s="4">
+        <v>0.13551065000000001</v>
+      </c>
+      <c r="AB135" s="4">
+        <v>0.13551065000000001</v>
+      </c>
+      <c r="AC135" s="4">
+        <v>-1.9844510000000001E-4</v>
+      </c>
+      <c r="AD135" s="4">
+        <v>0.13108449999999999</v>
+      </c>
+      <c r="AE135" s="4">
+        <v>0.15814465</v>
+      </c>
+      <c r="AF135" s="4">
+        <v>0.15192032</v>
+      </c>
+      <c r="AG135" s="4">
+        <v>0.13551065000000001</v>
+      </c>
+      <c r="AH135" s="4">
+        <v>0.1600278</v>
+      </c>
+      <c r="AI135" s="4">
+        <v>0.1600278</v>
+      </c>
+    </row>
+    <row r="136" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
+        <v>7</v>
+      </c>
+      <c r="C136" s="4">
+        <v>9.0580480000000005E-2</v>
+      </c>
+      <c r="D136" s="4">
+        <v>8.8564870000000004E-2</v>
+      </c>
+      <c r="E136" s="4">
+        <v>9.3053819999999995E-2</v>
+      </c>
+      <c r="F136" s="4">
+        <v>8.6942430000000001E-2</v>
+      </c>
+      <c r="G136" s="4">
+        <v>4.5936020000000001E-2</v>
+      </c>
+      <c r="H136" s="4">
+        <v>9.4327469999999997E-2</v>
+      </c>
+      <c r="I136" s="4">
+        <v>8.3542859999999997E-2</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0.10571792000000001</v>
+      </c>
+      <c r="K136" s="4">
+        <v>0.10571792000000001</v>
+      </c>
+      <c r="M136" s="2">
+        <v>7</v>
+      </c>
+      <c r="N136" s="4">
+        <v>8.5543949999999994E-2</v>
+      </c>
+      <c r="O136" s="4">
+        <v>8.3802979999999999E-2</v>
+      </c>
+      <c r="P136" s="4">
+        <v>8.7981770000000001E-2</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>8.4425710000000001E-2</v>
+      </c>
+      <c r="R136" s="4">
+        <v>4.2260060000000002E-2</v>
+      </c>
+      <c r="S136" s="4">
+        <v>8.3526760000000005E-2</v>
+      </c>
+      <c r="T136" s="4">
+        <v>7.9237940000000007E-2</v>
+      </c>
+      <c r="U136" s="4">
+        <v>9.7851519999999997E-2</v>
+      </c>
+      <c r="V136" s="4">
+        <v>9.7851519999999997E-2</v>
+      </c>
+      <c r="Z136" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA136" s="4">
+        <v>0.17230582</v>
+      </c>
+      <c r="AB136" s="4">
+        <v>0.17230582</v>
+      </c>
+      <c r="AC136" s="4">
+        <v>-2.335921E-4</v>
+      </c>
+      <c r="AD136" s="4">
+        <v>0.1493216</v>
+      </c>
+      <c r="AE136" s="4">
+        <v>0.15935041</v>
+      </c>
+      <c r="AF136" s="4">
+        <v>0.17214436</v>
+      </c>
+      <c r="AG136" s="4">
+        <v>0.17230582</v>
+      </c>
+      <c r="AH136" s="4">
+        <v>0.1654465</v>
+      </c>
+      <c r="AI136" s="4">
+        <v>0.17162250000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B137" s="2">
+        <v>8</v>
+      </c>
+      <c r="C137" s="4">
+        <v>8.9196689999999995E-2</v>
+      </c>
+      <c r="D137" s="4">
+        <v>8.9155269999999995E-2</v>
+      </c>
+      <c r="E137" s="4">
+        <v>9.0665060000000006E-2</v>
+      </c>
+      <c r="F137" s="4">
+        <v>9.4517000000000004E-2</v>
+      </c>
+      <c r="G137" s="4">
+        <v>4.7632550000000003E-2</v>
+      </c>
+      <c r="H137" s="4">
+        <v>7.1995149999999994E-2</v>
+      </c>
+      <c r="I137" s="4">
+        <v>8.3702269999999995E-2</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0.10274077</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0.10621795000000001</v>
+      </c>
+      <c r="M137" s="2">
+        <v>8</v>
+      </c>
+      <c r="N137" s="4">
+        <v>8.4730260000000002E-2</v>
+      </c>
+      <c r="O137" s="4">
+        <v>8.4333050000000007E-2</v>
+      </c>
+      <c r="P137" s="4">
+        <v>8.6626040000000001E-2</v>
+      </c>
+      <c r="Q137" s="4">
+        <v>9.1571650000000004E-2</v>
+      </c>
+      <c r="R137" s="4">
+        <v>4.4032549999999997E-2</v>
+      </c>
+      <c r="S137" s="4">
+        <v>8.8908860000000006E-2</v>
+      </c>
+      <c r="T137" s="4">
+        <v>7.9501890000000006E-2</v>
+      </c>
+      <c r="U137" s="4">
+        <v>9.5099749999999997E-2</v>
+      </c>
+      <c r="V137" s="4">
+        <v>9.8235970000000006E-2</v>
+      </c>
+      <c r="Z137" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA137" s="4">
+        <v>0.15694981</v>
+      </c>
+      <c r="AB137" s="4">
+        <v>0.15694981</v>
+      </c>
+      <c r="AC137" s="4">
+        <v>-7.5700452000000001E-3</v>
+      </c>
+      <c r="AD137" s="4">
+        <v>0.15583520000000001</v>
+      </c>
+      <c r="AE137" s="4">
+        <v>0.17364681000000001</v>
+      </c>
+      <c r="AF137" s="4">
+        <v>0.12924057</v>
+      </c>
+      <c r="AG137" s="4">
+        <v>0.15694981</v>
+      </c>
+      <c r="AH137" s="4">
+        <v>0.1780206</v>
+      </c>
+      <c r="AI137" s="4">
+        <v>0.1780206</v>
+      </c>
+    </row>
+    <row r="138" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B138" s="2">
+        <v>9</v>
+      </c>
+      <c r="C138" s="4">
+        <v>8.7426589999999998E-2</v>
+      </c>
+      <c r="D138" s="4">
+        <v>8.7970569999999998E-2</v>
+      </c>
+      <c r="E138" s="4">
+        <v>9.9293950000000006E-2</v>
+      </c>
+      <c r="F138" s="4">
+        <v>9.3417280000000005E-2</v>
+      </c>
+      <c r="G138" s="4">
+        <v>4.8934940000000003E-2</v>
+      </c>
+      <c r="H138" s="4">
+        <v>5.8873759999999997E-2</v>
+      </c>
+      <c r="I138" s="4">
+        <v>8.2803139999999997E-2</v>
+      </c>
+      <c r="J138" s="4">
+        <v>8.0078679999999999E-2</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0.10402797</v>
+      </c>
+      <c r="M138" s="2">
+        <v>9</v>
+      </c>
+      <c r="N138" s="4">
+        <v>8.2769270000000006E-2</v>
+      </c>
+      <c r="O138" s="4">
+        <v>8.3659880000000006E-2</v>
+      </c>
+      <c r="P138" s="4">
+        <v>9.3681760000000003E-2</v>
+      </c>
+      <c r="Q138" s="4">
+        <v>9.0916540000000004E-2</v>
+      </c>
+      <c r="R138" s="4">
+        <v>4.5256490000000003E-2</v>
+      </c>
+      <c r="S138" s="4">
+        <v>6.517249E-2</v>
+      </c>
+      <c r="T138" s="4">
+        <v>7.8438250000000001E-2</v>
+      </c>
+      <c r="U138" s="4">
+        <v>7.5574459999999996E-2</v>
+      </c>
+      <c r="V138" s="4">
+        <v>9.6220180000000002E-2</v>
+      </c>
+      <c r="Z138" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA138" s="4">
+        <v>0.14571503999999999</v>
+      </c>
+      <c r="AB138" s="4">
+        <v>0.14571503999999999</v>
+      </c>
+      <c r="AC138" s="4">
+        <v>-1.9414349399999999E-2</v>
+      </c>
+      <c r="AD138" s="4">
+        <v>0.16868530000000001</v>
+      </c>
+      <c r="AE138" s="4">
+        <v>0.18481856999999999</v>
+      </c>
+      <c r="AF138" s="4">
+        <v>0.13743633999999999</v>
+      </c>
+      <c r="AG138" s="4">
+        <v>0.17521601000000001</v>
+      </c>
+      <c r="AH138" s="4">
+        <v>0.17874100000000001</v>
+      </c>
+      <c r="AI138" s="4">
+        <v>0.17874100000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
+        <v>10</v>
+      </c>
+      <c r="C139" s="4">
+        <v>7.5623129999999997E-2</v>
+      </c>
+      <c r="D139" s="4">
+        <v>8.6616700000000005E-2</v>
+      </c>
+      <c r="E139" s="4">
+        <v>8.6407750000000005E-2</v>
+      </c>
+      <c r="F139" s="4">
+        <v>9.3389970000000003E-2</v>
+      </c>
+      <c r="G139" s="4">
+        <v>2.4170580000000001E-2</v>
+      </c>
+      <c r="H139" s="4">
+        <v>6.2802830000000004E-2</v>
+      </c>
+      <c r="I139" s="4">
+        <v>7.6592850000000004E-2</v>
+      </c>
+      <c r="J139" s="4">
+        <v>7.2993199999999994E-2</v>
+      </c>
+      <c r="K139" s="4">
+        <v>0.10632653</v>
+      </c>
+      <c r="M139" s="2">
+        <v>10</v>
+      </c>
+      <c r="N139" s="4">
+        <v>7.376982E-2</v>
+      </c>
+      <c r="O139" s="4">
+        <v>8.2003069999999997E-2</v>
+      </c>
+      <c r="P139" s="4">
+        <v>8.2903420000000005E-2</v>
+      </c>
+      <c r="Q139" s="4">
+        <v>9.1195559999999995E-2</v>
+      </c>
+      <c r="R139" s="4">
+        <v>2.2533600000000001E-2</v>
+      </c>
+      <c r="S139" s="4">
+        <v>6.4447669999999999E-2</v>
+      </c>
+      <c r="T139" s="4">
+        <v>7.2712819999999997E-2</v>
+      </c>
+      <c r="U139" s="4">
+        <v>7.0054930000000001E-2</v>
+      </c>
+      <c r="V139" s="4">
+        <v>9.8029099999999994E-2</v>
+      </c>
+      <c r="Z139" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA139" s="4">
+        <v>0.14837829999999999</v>
+      </c>
+      <c r="AB139" s="4">
+        <v>0.14837829999999999</v>
+      </c>
+      <c r="AC139" s="4">
+        <v>1.9581797099999999E-2</v>
+      </c>
+      <c r="AD139" s="4">
+        <v>0.174931</v>
+      </c>
+      <c r="AE139" s="4">
+        <v>0.19230847000000001</v>
+      </c>
+      <c r="AF139" s="4">
+        <v>0.11566841999999999</v>
+      </c>
+      <c r="AG139" s="4">
+        <v>0.17001057</v>
+      </c>
+      <c r="AH139" s="4">
+        <v>0.18243999999999999</v>
+      </c>
+      <c r="AI139" s="4">
+        <v>0.17629729999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
+        <v>11</v>
+      </c>
+      <c r="C140" s="4">
+        <v>7.4006210000000003E-2</v>
+      </c>
+      <c r="D140" s="4">
+        <v>7.4983190000000005E-2</v>
+      </c>
+      <c r="E140" s="4">
+        <v>8.7066009999999999E-2</v>
+      </c>
+      <c r="F140" s="4">
+        <v>9.5746049999999999E-2</v>
+      </c>
+      <c r="G140" s="4">
+        <v>1.341501E-2</v>
+      </c>
+      <c r="H140" s="4">
+        <v>8.5866479999999995E-2</v>
+      </c>
+      <c r="I140" s="4">
+        <v>7.8009090000000003E-2</v>
+      </c>
+      <c r="J140" s="4">
+        <v>7.3148790000000005E-2</v>
+      </c>
+      <c r="K140" s="4">
+        <v>0.10593777</v>
+      </c>
+      <c r="M140" s="2">
+        <v>11</v>
+      </c>
+      <c r="N140" s="4">
+        <v>7.1875939999999999E-2</v>
+      </c>
+      <c r="O140" s="4">
+        <v>7.3153040000000003E-2</v>
+      </c>
+      <c r="P140" s="4">
+        <v>8.3416779999999996E-2</v>
+      </c>
+      <c r="Q140" s="4">
+        <v>9.3362769999999998E-2</v>
+      </c>
+      <c r="R140" s="4">
+        <v>1.210924E-2</v>
+      </c>
+      <c r="S140" s="4">
+        <v>7.3706859999999999E-2</v>
+      </c>
+      <c r="T140" s="4">
+        <v>7.3312359999999993E-2</v>
+      </c>
+      <c r="U140" s="4">
+        <v>6.9969900000000002E-2</v>
+      </c>
+      <c r="V140" s="4">
+        <v>9.8509289999999999E-2</v>
+      </c>
+      <c r="Z140" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA140" s="4">
+        <v>0.17069003999999999</v>
+      </c>
+      <c r="AB140" s="4">
+        <v>0.17069003999999999</v>
+      </c>
+      <c r="AC140" s="4">
+        <v>1.1717108800000001E-2</v>
+      </c>
+      <c r="AD140" s="4">
+        <v>0.16206129999999999</v>
+      </c>
+      <c r="AE140" s="4">
+        <v>0.19184050999999999</v>
+      </c>
+      <c r="AF140" s="4">
+        <v>0.15432539000000001</v>
+      </c>
+      <c r="AG140" s="4">
+        <v>0.17953241</v>
+      </c>
+      <c r="AH140" s="4">
+        <v>0.17385490000000001</v>
+      </c>
+      <c r="AI140" s="4">
+        <v>0.18010590000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B141" s="2">
+        <v>12</v>
+      </c>
+      <c r="C141" s="4">
+        <v>6.8539180000000005E-2</v>
+      </c>
+      <c r="D141" s="4">
+        <v>6.9478150000000002E-2</v>
+      </c>
+      <c r="E141" s="4">
+        <v>8.6961280000000002E-2</v>
+      </c>
+      <c r="F141" s="4">
+        <v>9.0645340000000005E-2</v>
+      </c>
+      <c r="G141" s="4">
+        <v>5.660399E-2</v>
+      </c>
+      <c r="H141" s="4">
+        <v>7.1784390000000003E-2</v>
+      </c>
+      <c r="I141" s="4">
+        <v>7.6336559999999998E-2</v>
+      </c>
+      <c r="J141" s="4">
+        <v>7.3131849999999998E-2</v>
+      </c>
+      <c r="K141" s="4">
+        <v>0.10703044</v>
+      </c>
+      <c r="M141" s="2">
+        <v>12</v>
+      </c>
+      <c r="N141" s="4">
+        <v>6.6915539999999996E-2</v>
+      </c>
+      <c r="O141" s="4">
+        <v>6.8144800000000005E-2</v>
+      </c>
+      <c r="P141" s="4">
+        <v>8.3131869999999997E-2</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>8.7931590000000004E-2</v>
+      </c>
+      <c r="R141" s="4">
+        <v>5.2025340000000003E-2</v>
+      </c>
+      <c r="S141" s="4">
+        <v>6.3368510000000003E-2</v>
+      </c>
+      <c r="T141" s="4">
+        <v>7.1842009999999998E-2</v>
+      </c>
+      <c r="U141" s="4">
+        <v>6.9817210000000005E-2</v>
+      </c>
+      <c r="V141" s="4">
+        <v>9.9403900000000003E-2</v>
+      </c>
+      <c r="Z141" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA141" s="4">
+        <v>0.16713358</v>
+      </c>
+      <c r="AB141" s="4">
+        <v>0.16713358</v>
+      </c>
+      <c r="AC141" s="4">
+        <v>1.0745863000000001E-3</v>
+      </c>
+      <c r="AD141" s="4">
+        <v>0.16897570000000001</v>
+      </c>
+      <c r="AE141" s="4">
+        <v>0.17872084999999999</v>
+      </c>
+      <c r="AF141" s="4">
+        <v>0.14225051</v>
+      </c>
+      <c r="AG141" s="4">
+        <v>0.18325885</v>
+      </c>
+      <c r="AH141" s="4">
+        <v>0.16367129999999999</v>
+      </c>
+      <c r="AI141" s="4">
+        <v>0.16728899999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B142" s="2">
+        <v>13</v>
+      </c>
+      <c r="C142" s="4">
+        <v>6.8753789999999995E-2</v>
+      </c>
+      <c r="D142" s="4">
+        <v>6.934535E-2</v>
+      </c>
+      <c r="E142" s="4">
+        <v>8.6294940000000001E-2</v>
+      </c>
+      <c r="F142" s="4">
+        <v>9.2828450000000007E-2</v>
+      </c>
+      <c r="G142" s="4">
+        <v>7.0336570000000001E-2</v>
+      </c>
+      <c r="H142" s="4">
+        <v>7.2050680000000006E-2</v>
+      </c>
+      <c r="I142" s="4">
+        <v>7.2346229999999997E-2</v>
+      </c>
+      <c r="J142" s="4">
+        <v>7.7617340000000007E-2</v>
+      </c>
+      <c r="K142" s="4">
+        <v>9.7268069999999998E-2</v>
+      </c>
+      <c r="M142" s="2">
+        <v>13</v>
+      </c>
+      <c r="N142" s="4">
+        <v>6.7087250000000001E-2</v>
+      </c>
+      <c r="O142" s="4">
+        <v>6.8062789999999998E-2</v>
+      </c>
+      <c r="P142" s="4">
+        <v>8.2740800000000003E-2</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>9.0664300000000003E-2</v>
+      </c>
+      <c r="R142" s="4">
+        <v>6.4483079999999998E-2</v>
+      </c>
+      <c r="S142" s="4">
+        <v>6.5650970000000003E-2</v>
+      </c>
+      <c r="T142" s="4">
+        <v>6.7206509999999997E-2</v>
+      </c>
+      <c r="U142" s="4">
+        <v>7.4062520000000007E-2</v>
+      </c>
+      <c r="V142" s="4">
+        <v>9.1052720000000004E-2</v>
+      </c>
+      <c r="Z142" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA142" s="4">
+        <v>0.18000656000000001</v>
+      </c>
+      <c r="AB142" s="4">
+        <v>0.18000656000000001</v>
+      </c>
+      <c r="AC142" s="4">
+        <v>-3.2227667699999997E-2</v>
+      </c>
+      <c r="AD142" s="4">
+        <v>0.1612538</v>
+      </c>
+      <c r="AE142" s="4">
+        <v>0.17519926999999999</v>
+      </c>
+      <c r="AF142" s="4">
+        <v>0.18090992</v>
+      </c>
+      <c r="AG142" s="4">
+        <v>0.17555829000000001</v>
+      </c>
+      <c r="AH142" s="4">
+        <v>0.17103380000000001</v>
+      </c>
+      <c r="AI142" s="4">
+        <v>0.17262050000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B143" s="2">
+        <v>14</v>
+      </c>
+      <c r="C143" s="4">
+        <v>6.2981599999999999E-2</v>
+      </c>
+      <c r="D143" s="4">
+        <v>6.2981599999999999E-2</v>
+      </c>
+      <c r="E143" s="4">
+        <v>7.6243660000000005E-2</v>
+      </c>
+      <c r="F143" s="4">
+        <v>8.156948E-2</v>
+      </c>
+      <c r="G143" s="4">
+        <v>6.9749749999999999E-2</v>
+      </c>
+      <c r="H143" s="4">
+        <v>6.431858E-2</v>
+      </c>
+      <c r="I143" s="4">
+        <v>5.9097579999999997E-2</v>
+      </c>
+      <c r="J143" s="4">
+        <v>8.059682E-2</v>
+      </c>
+      <c r="K143" s="4">
+        <v>7.9208500000000001E-2</v>
+      </c>
+      <c r="M143" s="2">
+        <v>14</v>
+      </c>
+      <c r="N143" s="4">
+        <v>6.1265790000000001E-2</v>
+      </c>
+      <c r="O143" s="4">
+        <v>6.1265790000000001E-2</v>
+      </c>
+      <c r="P143" s="4">
+        <v>7.3299450000000002E-2</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>7.9383339999999997E-2</v>
+      </c>
+      <c r="R143" s="4">
+        <v>6.3940339999999998E-2</v>
+      </c>
+      <c r="S143" s="4">
+        <v>6.7342449999999998E-2</v>
+      </c>
+      <c r="T143" s="4">
+        <v>5.3923150000000003E-2</v>
+      </c>
+      <c r="U143" s="4">
+        <v>7.7085020000000004E-2</v>
+      </c>
+      <c r="V143" s="4">
+        <v>7.5890810000000003E-2</v>
+      </c>
+      <c r="Z143" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA143" s="4">
+        <v>0.18415268000000001</v>
+      </c>
+      <c r="AB143" s="4">
+        <v>0.18415268000000001</v>
+      </c>
+      <c r="AC143" s="4">
+        <v>-6.2631934000000004E-3</v>
+      </c>
+      <c r="AD143" s="4">
+        <v>0.16315499999999999</v>
+      </c>
+      <c r="AE143" s="4">
+        <v>0.16165022000000001</v>
+      </c>
+      <c r="AF143" s="4">
+        <v>0.11023346000000001</v>
+      </c>
+      <c r="AG143" s="4">
+        <v>0.17885516000000001</v>
+      </c>
+      <c r="AH143" s="4">
+        <v>0.16499730000000001</v>
+      </c>
+      <c r="AI143" s="4">
+        <v>0.168374</v>
+      </c>
+    </row>
+    <row r="144" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B144" s="2">
+        <v>15</v>
+      </c>
+      <c r="C144" s="4">
+        <v>6.7622249999999995E-2</v>
+      </c>
+      <c r="D144" s="4">
+        <v>6.7622249999999995E-2</v>
+      </c>
+      <c r="E144" s="4">
+        <v>6.6844870000000001E-2</v>
+      </c>
+      <c r="F144" s="4">
+        <v>8.3343669999999995E-2</v>
+      </c>
+      <c r="G144" s="4">
+        <v>7.5056639999999994E-2</v>
+      </c>
+      <c r="H144" s="4">
+        <v>6.3999650000000005E-2</v>
+      </c>
+      <c r="I144" s="4">
+        <v>6.0050260000000001E-2</v>
+      </c>
+      <c r="J144" s="4">
+        <v>8.2664929999999998E-2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>7.9930899999999999E-2</v>
+      </c>
+      <c r="M144" s="2">
+        <v>15</v>
+      </c>
+      <c r="N144" s="4">
+        <v>6.5297069999999999E-2</v>
+      </c>
+      <c r="O144" s="4">
+        <v>6.5297069999999999E-2</v>
+      </c>
+      <c r="P144" s="4">
+        <v>6.4839679999999997E-2</v>
+      </c>
+      <c r="Q144" s="4">
+        <v>8.1473329999999997E-2</v>
+      </c>
+      <c r="R144" s="4">
+        <v>6.8297960000000005E-2</v>
+      </c>
+      <c r="S144" s="4">
+        <v>7.1681850000000005E-2</v>
+      </c>
+      <c r="T144" s="4">
+        <v>5.476491E-2</v>
+      </c>
+      <c r="U144" s="4">
+        <v>7.9264539999999994E-2</v>
+      </c>
+      <c r="V144" s="4">
+        <v>7.6592889999999997E-2</v>
+      </c>
+      <c r="Z144" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA144" s="4">
+        <v>0.15932618000000001</v>
+      </c>
+      <c r="AB144" s="4">
+        <v>0.15932618000000001</v>
+      </c>
+      <c r="AC144" s="4">
+        <v>-9.0106733000000008E-3</v>
+      </c>
+      <c r="AD144" s="4">
+        <v>0.16239960000000001</v>
+      </c>
+      <c r="AE144" s="4">
+        <v>0.14177762999999999</v>
+      </c>
+      <c r="AF144" s="4">
+        <v>0.13446198000000001</v>
+      </c>
+      <c r="AG144" s="4">
+        <v>0.17411658999999999</v>
+      </c>
+      <c r="AH144" s="4">
+        <v>0.16444349999999999</v>
+      </c>
+      <c r="AI144" s="4">
+        <v>0.16039729999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>16</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0.10172370999999999</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.10208984</v>
+      </c>
+      <c r="E145" s="4">
+        <v>8.8568179999999996E-2</v>
+      </c>
+      <c r="F145" s="4">
+        <v>8.5333660000000006E-2</v>
+      </c>
+      <c r="G145" s="4">
+        <v>7.7010430000000005E-2</v>
+      </c>
+      <c r="H145" s="4">
+        <v>5.6035340000000003E-2</v>
+      </c>
+      <c r="I145" s="4">
+        <v>5.8011229999999997E-2</v>
+      </c>
+      <c r="J145" s="4">
+        <v>8.1531690000000004E-2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>8.1018989999999999E-2</v>
+      </c>
+      <c r="M145" s="2">
+        <v>16</v>
+      </c>
+      <c r="N145" s="4">
+        <v>9.6718689999999996E-2</v>
+      </c>
+      <c r="O145" s="4">
+        <v>9.709139E-2</v>
+      </c>
+      <c r="P145" s="4">
+        <v>8.4339869999999997E-2</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>8.3378690000000005E-2</v>
+      </c>
+      <c r="R145" s="4">
+        <v>7.0136770000000001E-2</v>
+      </c>
+      <c r="S145" s="4">
+        <v>6.9980829999999994E-2</v>
+      </c>
+      <c r="T145" s="4">
+        <v>5.3272819999999999E-2</v>
+      </c>
+      <c r="U145" s="4">
+        <v>7.811543E-2</v>
+      </c>
+      <c r="V145" s="4">
+        <v>7.760069E-2</v>
+      </c>
+      <c r="Z145" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA145" s="4">
+        <v>0.15526443000000001</v>
+      </c>
+      <c r="AB145" s="4">
+        <v>0.15526443000000001</v>
+      </c>
+      <c r="AC145" s="4">
+        <v>-1.8291829E-3</v>
+      </c>
+      <c r="AD145" s="4">
+        <v>0.15669640000000001</v>
+      </c>
+      <c r="AE145" s="4">
+        <v>0.13739815999999999</v>
+      </c>
+      <c r="AF145" s="4">
+        <v>8.3817150000000007E-2</v>
+      </c>
+      <c r="AG145" s="4">
+        <v>0.1610106</v>
+      </c>
+      <c r="AH145" s="4">
+        <v>0.16860800000000001</v>
+      </c>
+      <c r="AI145" s="4">
+        <v>0.15277399999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
+        <v>17</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.10451356000000001</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.10021766999999999</v>
+      </c>
+      <c r="E146" s="4">
+        <v>7.2648019999999994E-2</v>
+      </c>
+      <c r="F146" s="4">
+        <v>8.7959010000000004E-2</v>
+      </c>
+      <c r="G146" s="4">
+        <v>8.1300639999999993E-2</v>
+      </c>
+      <c r="H146" s="4">
+        <v>5.5202710000000002E-2</v>
+      </c>
+      <c r="I146" s="4">
+        <v>9.6113560000000001E-2</v>
+      </c>
+      <c r="J146" s="4">
+        <v>8.3621539999999994E-2</v>
+      </c>
+      <c r="K146" s="4">
+        <v>8.3798159999999997E-2</v>
+      </c>
+      <c r="M146" s="2">
+        <v>17</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0.1001514</v>
+      </c>
+      <c r="O146" s="4">
+        <v>9.6671300000000002E-2</v>
+      </c>
+      <c r="P146" s="4">
+        <v>6.8249219999999999E-2</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>8.6214589999999994E-2</v>
+      </c>
+      <c r="R146" s="4">
+        <v>7.3539149999999998E-2</v>
+      </c>
+      <c r="S146" s="4">
+        <v>5.0520700000000002E-2</v>
+      </c>
+      <c r="T146" s="4">
+        <v>8.9043440000000001E-2</v>
+      </c>
+      <c r="U146" s="4">
+        <v>7.9984710000000001E-2</v>
+      </c>
+      <c r="V146" s="4">
+        <v>8.0652989999999994E-2</v>
+      </c>
+      <c r="Z146" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA146" s="4">
+        <v>0.14171538</v>
+      </c>
+      <c r="AB146" s="4">
+        <v>0.14171538</v>
+      </c>
+      <c r="AC146" s="4">
+        <v>-1.06391278E-2</v>
+      </c>
+      <c r="AD146" s="4">
+        <v>0.15614259999999999</v>
+      </c>
+      <c r="AE146" s="4">
+        <v>0.13599807999999999</v>
+      </c>
+      <c r="AF146" s="4">
+        <v>0.13890430000000001</v>
+      </c>
+      <c r="AG146" s="4">
+        <v>0.15562197999999999</v>
+      </c>
+      <c r="AH146" s="4">
+        <v>0.16436149999999999</v>
+      </c>
+      <c r="AI146" s="4">
+        <v>0.1516458</v>
+      </c>
+    </row>
+    <row r="147" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
+        <v>18</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.10272019</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0.10310779</v>
+      </c>
+      <c r="E147" s="4">
+        <v>7.17941E-2</v>
+      </c>
+      <c r="F147" s="4">
+        <v>7.2727639999999996E-2</v>
+      </c>
+      <c r="G147" s="4">
+        <v>8.3307580000000006E-2</v>
+      </c>
+      <c r="H147" s="4">
+        <v>6.1084310000000003E-2</v>
+      </c>
+      <c r="I147" s="4">
+        <v>9.3985849999999996E-2</v>
+      </c>
+      <c r="J147" s="4">
+        <v>8.0880629999999995E-2</v>
+      </c>
+      <c r="K147" s="4">
+        <v>8.7174000000000001E-2</v>
+      </c>
+      <c r="M147" s="2">
+        <v>18</v>
+      </c>
+      <c r="N147" s="4">
+        <v>9.9790119999999996E-2</v>
+      </c>
+      <c r="O147" s="4">
+        <v>0.10017547</v>
+      </c>
+      <c r="P147" s="4">
+        <v>6.7456119999999994E-2</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>7.2912989999999997E-2</v>
+      </c>
+      <c r="R147" s="4">
+        <v>7.5435119999999994E-2</v>
+      </c>
+      <c r="S147" s="4">
+        <v>5.1757980000000002E-2</v>
+      </c>
+      <c r="T147" s="4">
+        <v>8.6859370000000005E-2</v>
+      </c>
+      <c r="U147" s="4">
+        <v>7.6934089999999997E-2</v>
+      </c>
+      <c r="V147" s="4">
+        <v>8.3791329999999997E-2</v>
+      </c>
+      <c r="Z147" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA147" s="4">
+        <v>0.13891593999999999</v>
+      </c>
+      <c r="AB147" s="4">
+        <v>0.13891593999999999</v>
+      </c>
+      <c r="AC147" s="4">
+        <v>-1.9443926300000001E-2</v>
+      </c>
+      <c r="AD147" s="4">
+        <v>0.15258620000000001</v>
+      </c>
+      <c r="AE147" s="4">
+        <v>0.13397199000000001</v>
+      </c>
+      <c r="AF147" s="4">
+        <v>9.7537869999999999E-2</v>
+      </c>
+      <c r="AG147" s="4">
+        <v>0.15366083</v>
+      </c>
+      <c r="AH147" s="4">
+        <v>0.15638479999999999</v>
+      </c>
+      <c r="AI147" s="4">
+        <v>0.15581030000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
+        <v>19</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.12255241</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0.12578002999999999</v>
+      </c>
+      <c r="E148" s="4">
+        <v>6.8402069999999995E-2</v>
+      </c>
+      <c r="F148" s="4">
+        <v>7.3037179999999993E-2</v>
+      </c>
+      <c r="G148" s="4">
+        <v>8.6087230000000001E-2</v>
+      </c>
+      <c r="H148" s="4">
+        <v>5.3729550000000001E-2</v>
+      </c>
+      <c r="I148" s="4">
+        <v>8.7393020000000002E-2</v>
+      </c>
+      <c r="J148" s="4">
+        <v>8.2639420000000005E-2</v>
+      </c>
+      <c r="K148" s="4">
+        <v>8.7594980000000003E-2</v>
+      </c>
+      <c r="M148" s="2">
+        <v>19</v>
+      </c>
+      <c r="N148" s="4">
+        <v>0.11796537</v>
+      </c>
+      <c r="O148" s="4">
+        <v>0.12084665999999999</v>
+      </c>
+      <c r="P148" s="4">
+        <v>6.3644019999999996E-2</v>
+      </c>
+      <c r="Q148" s="4">
+        <v>7.3676290000000005E-2</v>
+      </c>
+      <c r="R148" s="4">
+        <v>7.797635E-2</v>
+      </c>
+      <c r="S148" s="4">
+        <v>5.0785150000000001E-2</v>
+      </c>
+      <c r="T148" s="4">
+        <v>8.0527349999999998E-2</v>
+      </c>
+      <c r="U148" s="4">
+        <v>7.9304299999999994E-2</v>
+      </c>
+      <c r="V148" s="4">
+        <v>8.4227629999999998E-2</v>
+      </c>
+      <c r="Z148" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA148" s="4">
+        <v>0.13695478</v>
+      </c>
+      <c r="AB148" s="4">
+        <v>0.13695478</v>
+      </c>
+      <c r="AC148" s="4">
+        <v>-4.67821369E-2</v>
+      </c>
+      <c r="AD148" s="4">
+        <v>0.1480196</v>
+      </c>
+      <c r="AE148" s="4">
+        <v>0.13317156999999999</v>
+      </c>
+      <c r="AF148" s="4">
+        <v>9.267048E-2</v>
+      </c>
+      <c r="AG148" s="4">
+        <v>0.14777002</v>
+      </c>
+      <c r="AH148" s="4">
+        <v>0.15525649999999999</v>
+      </c>
+      <c r="AI148" s="4">
+        <v>0.153726</v>
+      </c>
+    </row>
+    <row r="149" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B149" s="2">
+        <v>20</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.12354292</v>
+      </c>
+      <c r="D149" s="4">
+        <v>0.12679845000000001</v>
+      </c>
+      <c r="E149" s="4">
+        <v>6.841643E-2</v>
+      </c>
+      <c r="F149" s="4">
+        <v>7.4942129999999996E-2</v>
+      </c>
+      <c r="G149" s="4">
+        <v>8.3700339999999998E-2</v>
+      </c>
+      <c r="H149" s="4">
+        <v>5.946415E-2</v>
+      </c>
+      <c r="I149" s="4">
+        <v>8.8165679999999996E-2</v>
+      </c>
+      <c r="J149" s="4">
+        <v>8.1406539999999999E-2</v>
+      </c>
+      <c r="K149" s="4">
+        <v>8.9257729999999993E-2</v>
+      </c>
+      <c r="M149" s="2">
+        <v>20</v>
+      </c>
+      <c r="N149" s="4">
+        <v>0.119409</v>
+      </c>
+      <c r="O149" s="4">
+        <v>0.12123586</v>
+      </c>
+      <c r="P149" s="4">
+        <v>6.3511209999999998E-2</v>
+      </c>
+      <c r="Q149" s="4">
+        <v>7.5256030000000002E-2</v>
+      </c>
+      <c r="R149" s="4">
+        <v>7.5637010000000005E-2</v>
+      </c>
+      <c r="S149" s="4">
+        <v>4.8907930000000002E-2</v>
+      </c>
+      <c r="T149" s="4">
+        <v>8.1282409999999999E-2</v>
+      </c>
+      <c r="U149" s="4">
+        <v>7.8147869999999994E-2</v>
+      </c>
+      <c r="V149" s="4">
+        <v>8.5364800000000005E-2</v>
+      </c>
+      <c r="Z149" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA149" s="4">
+        <v>0.1172619</v>
+      </c>
+      <c r="AB149" s="4">
+        <v>0.1172619</v>
+      </c>
+      <c r="AC149" s="4">
+        <v>-4.62725919E-2</v>
+      </c>
+      <c r="AD149" s="4">
+        <v>0.12949530000000001</v>
+      </c>
+      <c r="AE149" s="4">
+        <v>0.13108729</v>
+      </c>
+      <c r="AF149" s="4">
+        <v>6.3157599999999994E-2</v>
+      </c>
+      <c r="AG149" s="4">
+        <v>0.15145987</v>
+      </c>
+      <c r="AH149" s="4">
+        <v>0.1501314</v>
+      </c>
+      <c r="AI149" s="4">
+        <v>0.15317220000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
+        <v>21</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0.12488012</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0.12811457000000001</v>
+      </c>
+      <c r="E150" s="4">
+        <v>6.7379400000000006E-2</v>
+      </c>
+      <c r="F150" s="4">
+        <v>7.6668150000000004E-2</v>
+      </c>
+      <c r="G150" s="4">
+        <v>8.7331179999999994E-2</v>
+      </c>
+      <c r="H150" s="4">
+        <v>5.2168800000000001E-2</v>
+      </c>
+      <c r="I150" s="4">
+        <v>0.11331524</v>
+      </c>
+      <c r="J150" s="4">
+        <v>8.3949060000000006E-2</v>
+      </c>
+      <c r="K150" s="4">
+        <v>9.1547600000000007E-2</v>
+      </c>
+      <c r="M150" s="2">
+        <v>21</v>
+      </c>
+      <c r="N150" s="4">
+        <v>0.12015089</v>
+      </c>
+      <c r="O150" s="4">
+        <v>0.12303406</v>
+      </c>
+      <c r="P150" s="4">
+        <v>6.2510990000000002E-2</v>
+      </c>
+      <c r="Q150" s="4">
+        <v>7.6802229999999999E-2</v>
+      </c>
+      <c r="R150" s="4">
+        <v>7.9024200000000003E-2</v>
+      </c>
+      <c r="S150" s="4">
+        <v>6.2643690000000002E-2</v>
+      </c>
+      <c r="T150" s="4">
+        <v>0.10459971999999999</v>
+      </c>
+      <c r="U150" s="4">
+        <v>8.0076560000000005E-2</v>
+      </c>
+      <c r="V150" s="4">
+        <v>8.7235359999999998E-2</v>
+      </c>
+      <c r="Z150" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA150" s="4">
+        <v>0.1231819</v>
+      </c>
+      <c r="AB150" s="4">
+        <v>0.1231819</v>
+      </c>
+      <c r="AC150" s="4">
+        <v>-4.9481340999999998E-2</v>
+      </c>
+      <c r="AD150" s="4">
+        <v>0.13019359999999999</v>
+      </c>
+      <c r="AE150" s="4">
+        <v>0.13932045000000001</v>
+      </c>
+      <c r="AF150" s="4">
+        <v>0.1047838</v>
+      </c>
+      <c r="AG150" s="4">
+        <v>0.14537965999999999</v>
+      </c>
+      <c r="AH150" s="4">
+        <v>0.14894009999999999</v>
+      </c>
+      <c r="AI150" s="4">
+        <v>0.14728140000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
+        <v>22</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0.12274458000000001</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0.12633630000000001</v>
+      </c>
+      <c r="E151" s="4">
+        <v>5.6435220000000001E-2</v>
+      </c>
+      <c r="F151" s="4">
+        <v>7.7658720000000001E-2</v>
+      </c>
+      <c r="G151" s="4">
+        <v>8.7022199999999994E-2</v>
+      </c>
+      <c r="H151" s="4">
+        <v>5.3467859999999999E-2</v>
+      </c>
+      <c r="I151" s="4">
+        <v>0.10757410000000001</v>
+      </c>
+      <c r="J151" s="4">
+        <v>7.9938919999999997E-2</v>
+      </c>
+      <c r="K151" s="4">
+        <v>9.1637999999999997E-2</v>
+      </c>
+      <c r="M151" s="2">
+        <v>22</v>
+      </c>
+      <c r="N151" s="4">
+        <v>0.11802275</v>
+      </c>
+      <c r="O151" s="4">
+        <v>0.12133157</v>
+      </c>
+      <c r="P151" s="4">
+        <v>5.2104909999999997E-2</v>
+      </c>
+      <c r="Q151" s="4">
+        <v>7.7863879999999996E-2</v>
+      </c>
+      <c r="R151" s="4">
+        <v>7.8377080000000002E-2</v>
+      </c>
+      <c r="S151" s="4">
+        <v>4.2058640000000001E-2</v>
+      </c>
+      <c r="T151" s="4">
+        <v>9.8982810000000004E-2</v>
+      </c>
+      <c r="U151" s="4">
+        <v>7.6515230000000004E-2</v>
+      </c>
+      <c r="V151" s="4">
+        <v>8.7284470000000003E-2</v>
+      </c>
+      <c r="Z151" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA151" s="4">
+        <v>0.12953353000000001</v>
+      </c>
+      <c r="AB151" s="4">
+        <v>0.12953353000000001</v>
+      </c>
+      <c r="AC151" s="4">
+        <v>-4.4425931100000003E-2</v>
+      </c>
+      <c r="AD151" s="4">
+        <v>0.10934149999999999</v>
+      </c>
+      <c r="AE151" s="4">
+        <v>0.12892192999999999</v>
+      </c>
+      <c r="AF151" s="4">
+        <v>0.10049358</v>
+      </c>
+      <c r="AG151" s="4">
+        <v>0.14284928999999999</v>
+      </c>
+      <c r="AH151" s="4">
+        <v>0.14333190000000001</v>
+      </c>
+      <c r="AI151" s="4">
+        <v>0.14333190000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
+        <v>23</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0.12268729</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0.1184365</v>
+      </c>
+      <c r="E152" s="4">
+        <v>5.6164970000000002E-2</v>
+      </c>
+      <c r="F152" s="4">
+        <v>7.9033099999999995E-2</v>
+      </c>
+      <c r="G152" s="4">
+        <v>8.6002079999999995E-2</v>
+      </c>
+      <c r="H152" s="4">
+        <v>5.0600979999999997E-2</v>
+      </c>
+      <c r="I152" s="4">
+        <v>0.11004646</v>
+      </c>
+      <c r="J152" s="4">
+        <v>8.1934110000000004E-2</v>
+      </c>
+      <c r="K152" s="4">
+        <v>9.2015449999999999E-2</v>
+      </c>
+      <c r="M152" s="2">
+        <v>23</v>
+      </c>
+      <c r="N152" s="4">
+        <v>0.11795773</v>
+      </c>
+      <c r="O152" s="4">
+        <v>0.11373265</v>
+      </c>
+      <c r="P152" s="4">
+        <v>5.2115250000000002E-2</v>
+      </c>
+      <c r="Q152" s="4">
+        <v>7.9488799999999998E-2</v>
+      </c>
+      <c r="R152" s="4">
+        <v>7.7387940000000002E-2</v>
+      </c>
+      <c r="S152" s="4">
+        <v>5.562433E-2</v>
+      </c>
+      <c r="T152" s="4">
+        <v>0.10123167</v>
+      </c>
+      <c r="U152" s="4">
+        <v>7.7989749999999997E-2</v>
+      </c>
+      <c r="V152" s="4">
+        <v>8.7520689999999998E-2</v>
+      </c>
+      <c r="Z152" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA152" s="4">
+        <v>0.1240506</v>
+      </c>
+      <c r="AB152" s="4">
+        <v>0.1240506</v>
+      </c>
+      <c r="AC152" s="4">
+        <v>-3.9329589900000003E-2</v>
+      </c>
+      <c r="AD152" s="4">
+        <v>0.1099619</v>
+      </c>
+      <c r="AE152" s="4">
+        <v>0.13482267000000001</v>
+      </c>
+      <c r="AF152" s="4">
+        <v>0.11799339</v>
+      </c>
+      <c r="AG152" s="4">
+        <v>0.12912375000000001</v>
+      </c>
+      <c r="AH152" s="4">
+        <v>0.14558180000000001</v>
+      </c>
+      <c r="AI152" s="4">
+        <v>0.1402997</v>
+      </c>
+    </row>
+    <row r="153" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>24</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.11571175</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0.11860266</v>
+      </c>
+      <c r="E153" s="4">
+        <v>5.2518389999999998E-2</v>
+      </c>
+      <c r="F153" s="4">
+        <v>8.1071459999999998E-2</v>
+      </c>
+      <c r="G153" s="4">
+        <v>7.6028219999999994E-2</v>
+      </c>
+      <c r="H153" s="4">
+        <v>5.0936309999999999E-2</v>
+      </c>
+      <c r="I153" s="4">
+        <v>0.10543158</v>
+      </c>
+      <c r="J153" s="4">
+        <v>8.3814200000000005E-2</v>
+      </c>
+      <c r="K153" s="4">
+        <v>9.4482869999999997E-2</v>
+      </c>
+      <c r="M153" s="2">
+        <v>24</v>
+      </c>
+      <c r="N153" s="4">
+        <v>0.1112518</v>
+      </c>
+      <c r="O153" s="4">
+        <v>0.11388860000000001</v>
+      </c>
+      <c r="P153" s="4">
+        <v>4.8196780000000002E-2</v>
+      </c>
+      <c r="Q153" s="4">
+        <v>8.1687270000000006E-2</v>
+      </c>
+      <c r="R153" s="4">
+        <v>6.8205489999999994E-2</v>
+      </c>
+      <c r="S153" s="4">
+        <v>5.0898869999999999E-2</v>
+      </c>
+      <c r="T153" s="4">
+        <v>9.7031210000000007E-2</v>
+      </c>
+      <c r="U153" s="4">
+        <v>7.9322900000000002E-2</v>
+      </c>
+      <c r="V153" s="4">
+        <v>8.9946600000000002E-2</v>
+      </c>
+      <c r="Z153" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA153" s="4">
+        <v>0.12154908</v>
+      </c>
+      <c r="AB153" s="4">
+        <v>0.12154908</v>
+      </c>
+      <c r="AC153" s="4">
+        <v>-4.4647235299999997E-2</v>
+      </c>
+      <c r="AD153" s="4">
+        <v>0.1065823</v>
+      </c>
+      <c r="AE153" s="4">
+        <v>0.13495570000000001</v>
+      </c>
+      <c r="AF153" s="4">
+        <v>8.2674670000000006E-2</v>
+      </c>
+      <c r="AG153" s="4">
+        <v>0.13154788000000001</v>
+      </c>
+      <c r="AH153" s="4">
+        <v>0.1425496</v>
+      </c>
+      <c r="AI153" s="4">
+        <v>0.1425496</v>
+      </c>
+    </row>
+    <row r="154" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+    </row>
+    <row r="155" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="4">
+        <f>AVERAGE(C131:C137)</f>
+        <v>9.5943045714285705E-2</v>
+      </c>
+      <c r="D155" s="4">
+        <f t="shared" ref="D155:K155" si="90">AVERAGE(D131:D137)</f>
+        <v>9.5953505714285708E-2</v>
+      </c>
+      <c r="E155" s="4">
+        <f t="shared" si="90"/>
+        <v>9.5994478571428551E-2</v>
+      </c>
+      <c r="F155" s="4">
+        <f t="shared" si="90"/>
+        <v>9.5574837142857152E-2</v>
+      </c>
+      <c r="G155" s="4">
+        <f t="shared" si="90"/>
+        <v>3.0908521428571426E-2</v>
+      </c>
+      <c r="H155" s="4">
+        <f>AVERAGE(H131:H137)</f>
+        <v>9.6260121428571432E-2</v>
+      </c>
+      <c r="I155" s="4">
+        <f t="shared" ref="I155:K155" si="91">AVERAGE(I131:I137)</f>
+        <v>9.1909779999999983E-2</v>
+      </c>
+      <c r="J155" s="4">
+        <f t="shared" si="91"/>
+        <v>0.10561717285714287</v>
+      </c>
+      <c r="K155" s="4">
+        <f t="shared" si="91"/>
+        <v>0.10855515571428571</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N155" s="4">
+        <f>AVERAGE(N131:N137)</f>
+        <v>9.0840011428571427E-2</v>
+      </c>
+      <c r="O155" s="4">
+        <f t="shared" ref="O155:V155" si="92">AVERAGE(O131:O137)</f>
+        <v>9.0908607142857159E-2</v>
+      </c>
+      <c r="P155" s="4">
+        <f t="shared" si="92"/>
+        <v>9.0837537142857139E-2</v>
+      </c>
+      <c r="Q155" s="4">
+        <f t="shared" si="92"/>
+        <v>9.1141037142857137E-2</v>
+      </c>
+      <c r="R155" s="4">
+        <f t="shared" si="92"/>
+        <v>2.7989622857142855E-2</v>
+      </c>
+      <c r="S155" s="4">
+        <f>AVERAGE(S131:S137)</f>
+        <v>0.10308059857142857</v>
+      </c>
+      <c r="T155" s="4">
+        <f t="shared" ref="T155:V155" si="93">AVERAGE(T131:T137)</f>
+        <v>8.7252158571428567E-2</v>
+      </c>
+      <c r="U155" s="4">
+        <f t="shared" si="93"/>
+        <v>9.8332565714285725E-2</v>
+      </c>
+      <c r="V155" s="4">
+        <f t="shared" si="93"/>
+        <v>0.10122200999999999</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA155" s="4">
+        <f>AVERAGE(AA131:AA137)</f>
+        <v>0.11842792999999999</v>
+      </c>
+      <c r="AB155" s="4">
+        <f t="shared" ref="AB155:AI155" si="94">AVERAGE(AB131:AB137)</f>
+        <v>0.1181376</v>
+      </c>
+      <c r="AC155" s="4">
+        <f t="shared" si="94"/>
+        <v>3.3051980357142859E-2</v>
+      </c>
+      <c r="AD155" s="4">
+        <f t="shared" si="94"/>
+        <v>0.12953627142857144</v>
+      </c>
+      <c r="AE155" s="4">
+        <f t="shared" si="94"/>
+        <v>0.13320970142857144</v>
+      </c>
+      <c r="AF155" s="4">
+        <f>AVERAGE(AF131:AF137)</f>
+        <v>0.13534812857142858</v>
+      </c>
+      <c r="AG155" s="4">
+        <f t="shared" ref="AG155:AI155" si="95">AVERAGE(AG131:AG137)</f>
+        <v>0.12897301285714288</v>
+      </c>
+      <c r="AH155" s="4">
+        <f t="shared" si="95"/>
+        <v>0.14642594285714286</v>
+      </c>
+      <c r="AI155" s="4">
+        <f t="shared" si="95"/>
+        <v>0.14967054285714285</v>
+      </c>
+    </row>
+    <row r="156" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="5">
+        <f>AVERAGE(C138:C145)</f>
+        <v>7.583455750000001E-2</v>
+      </c>
+      <c r="D156" s="5">
+        <f t="shared" ref="D156:K156" si="96">AVERAGE(D138:D145)</f>
+        <v>7.7635956249999999E-2</v>
+      </c>
+      <c r="E156" s="5">
+        <f t="shared" si="96"/>
+        <v>8.4710079999999993E-2</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="96"/>
+        <v>8.9534237500000002E-2</v>
+      </c>
+      <c r="G156" s="5">
+        <f t="shared" si="96"/>
+        <v>5.4409738750000006E-2</v>
+      </c>
+      <c r="H156" s="5">
+        <f>AVERAGE(H138:H145)</f>
+        <v>6.696646375000001E-2</v>
+      </c>
+      <c r="I156" s="5">
+        <f t="shared" ref="I156:K156" si="97">AVERAGE(I138:I145)</f>
+        <v>7.0405867499999997E-2</v>
+      </c>
+      <c r="J156" s="5">
+        <f t="shared" si="97"/>
+        <v>7.7720412500000002E-2</v>
+      </c>
+      <c r="K156" s="5">
+        <f t="shared" si="97"/>
+        <v>9.5093646250000011E-2</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N156" s="5">
+        <f>AVERAGE(N138:N145)</f>
+        <v>7.3212421249999993E-2</v>
+      </c>
+      <c r="O156" s="5">
+        <f t="shared" ref="O156:V156" si="98">AVERAGE(O138:O145)</f>
+        <v>7.4834728749999996E-2</v>
+      </c>
+      <c r="P156" s="5">
+        <f t="shared" si="98"/>
+        <v>8.1044203749999988E-2</v>
+      </c>
+      <c r="Q156" s="5">
+        <f t="shared" si="98"/>
+        <v>8.7288265000000004E-2</v>
+      </c>
+      <c r="R156" s="5">
+        <f t="shared" si="98"/>
+        <v>4.9847852499999998E-2</v>
+      </c>
+      <c r="S156" s="5">
+        <f>AVERAGE(S138:S145)</f>
+        <v>6.7668953749999997E-2</v>
+      </c>
+      <c r="T156" s="5">
+        <f t="shared" ref="T156:V156" si="99">AVERAGE(T138:T145)</f>
+        <v>6.568410375E-2</v>
+      </c>
+      <c r="U156" s="5">
+        <f t="shared" si="99"/>
+        <v>7.4243001249999996E-2</v>
+      </c>
+      <c r="V156" s="5">
+        <f t="shared" si="99"/>
+        <v>8.9162447500000006E-2</v>
+      </c>
+      <c r="Z156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA156" s="5">
+        <f>AVERAGE(AA138:AA145)</f>
+        <v>0.16383335125000004</v>
+      </c>
+      <c r="AB156" s="5">
+        <f t="shared" ref="AB156:AI156" si="100">AVERAGE(AB138:AB145)</f>
+        <v>0.16383335125000004</v>
+      </c>
+      <c r="AC156" s="5">
+        <f t="shared" si="100"/>
+        <v>-4.5464468124999996E-3</v>
+      </c>
+      <c r="AD156" s="5">
+        <f t="shared" si="100"/>
+        <v>0.1647697625</v>
+      </c>
+      <c r="AE156" s="5">
+        <f t="shared" si="100"/>
+        <v>0.17046421</v>
+      </c>
+      <c r="AF156" s="5">
+        <f>AVERAGE(AF138:AF145)</f>
+        <v>0.13238789624999997</v>
+      </c>
+      <c r="AG156" s="5">
+        <f t="shared" ref="AG156:AI156" si="101">AVERAGE(AG138:AG145)</f>
+        <v>0.17469481000000001</v>
+      </c>
+      <c r="AH156" s="5">
+        <f t="shared" si="101"/>
+        <v>0.17097372499999999</v>
+      </c>
+      <c r="AI156" s="5">
+        <f t="shared" si="101"/>
+        <v>0.16957487500000001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="5">
+        <f>AVERAGE(C146:C153)</f>
+        <v>0.1174191025</v>
+      </c>
+      <c r="D157" s="5">
+        <f t="shared" ref="D157:K157" si="102">AVERAGE(D146:D153)</f>
+        <v>0.11842424625000002</v>
+      </c>
+      <c r="E157" s="5">
+        <f t="shared" si="102"/>
+        <v>6.4219824999999994E-2</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="102"/>
+        <v>7.7887173749999997E-2</v>
+      </c>
+      <c r="G157" s="5">
+        <f t="shared" si="102"/>
+        <v>8.3847433749999992E-2</v>
+      </c>
+      <c r="H157" s="5">
+        <f t="shared" si="102"/>
+        <v>5.4581833749999996E-2</v>
+      </c>
+      <c r="I157" s="5">
+        <f t="shared" si="102"/>
+        <v>0.10025318625</v>
+      </c>
+      <c r="J157" s="5">
+        <f t="shared" si="102"/>
+        <v>8.2273052499999999E-2</v>
+      </c>
+      <c r="K157" s="5">
+        <f>AVERAGE(K146:K153)</f>
+        <v>8.9688598750000001E-2</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N157" s="5">
+        <f>AVERAGE(N146:N153)</f>
+        <v>0.11308738249999999</v>
+      </c>
+      <c r="O157" s="5">
+        <f t="shared" ref="O157:V157" si="103">AVERAGE(O146:O153)</f>
+        <v>0.11386452125</v>
+      </c>
+      <c r="P157" s="5">
+        <f t="shared" si="103"/>
+        <v>5.9723562500000001E-2</v>
+      </c>
+      <c r="Q157" s="5">
+        <f t="shared" si="103"/>
+        <v>7.7987760000000003E-2</v>
+      </c>
+      <c r="R157" s="5">
+        <f t="shared" si="103"/>
+        <v>7.56977925E-2</v>
+      </c>
+      <c r="S157" s="5">
+        <f t="shared" si="103"/>
+        <v>5.1649661249999992E-2</v>
+      </c>
+      <c r="T157" s="5">
+        <f t="shared" si="103"/>
+        <v>9.2444747500000007E-2</v>
+      </c>
+      <c r="U157" s="5">
+        <f t="shared" si="103"/>
+        <v>7.8534426249999997E-2</v>
+      </c>
+      <c r="V157" s="5">
+        <f>AVERAGE(V146:V153)</f>
+        <v>8.5752983749999998E-2</v>
+      </c>
+      <c r="Z157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA157" s="5">
+        <f>AVERAGE(AA146:AA153)</f>
+        <v>0.12914538875000001</v>
+      </c>
+      <c r="AB157" s="5">
+        <f t="shared" ref="AB157:AI157" si="104">AVERAGE(AB146:AB153)</f>
+        <v>0.12914538875000001</v>
+      </c>
+      <c r="AC157" s="5">
+        <f t="shared" si="104"/>
+        <v>-3.7627735024999998E-2</v>
+      </c>
+      <c r="AD157" s="5">
+        <f t="shared" si="104"/>
+        <v>0.13029037499999999</v>
+      </c>
+      <c r="AE157" s="5">
+        <f t="shared" si="104"/>
+        <v>0.13403121000000001</v>
+      </c>
+      <c r="AF157" s="5">
+        <f t="shared" si="104"/>
+        <v>9.977696124999999E-2</v>
+      </c>
+      <c r="AG157" s="5">
+        <f t="shared" si="104"/>
+        <v>0.14467666000000001</v>
+      </c>
+      <c r="AH157" s="5">
+        <f t="shared" si="104"/>
+        <v>0.15081719999999998</v>
+      </c>
+      <c r="AI157" s="5">
+        <f>AVERAGE(AI146:AI153)</f>
+        <v>0.14847711249999998</v>
+      </c>
+    </row>
+    <row r="159" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B159" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="9">
+        <f t="shared" ref="C159:K159" si="105">RANK(C155,($C155:$K155))</f>
+        <v>6</v>
+      </c>
+      <c r="D159" s="9">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
+      <c r="E159" s="9">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
+      <c r="F159" s="9">
+        <f t="shared" si="105"/>
+        <v>7</v>
+      </c>
+      <c r="G159" s="9">
+        <f t="shared" si="105"/>
+        <v>9</v>
+      </c>
+      <c r="H159" s="9">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="I159" s="9">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="J159" s="9">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="K159" s="9">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="M159" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N159" s="9">
+        <f>RANK(N155,($N155:$V155))</f>
+        <v>6</v>
+      </c>
+      <c r="O159" s="9">
+        <f t="shared" ref="O159:V159" si="106">RANK(O155,($N155:$V155))</f>
+        <v>5</v>
+      </c>
+      <c r="P159" s="9">
+        <f t="shared" si="106"/>
+        <v>7</v>
+      </c>
+      <c r="Q159" s="9">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="R159" s="9">
+        <f t="shared" si="106"/>
+        <v>9</v>
+      </c>
+      <c r="S159" s="9">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="T159" s="9">
+        <f t="shared" si="106"/>
+        <v>8</v>
+      </c>
+      <c r="U159" s="9">
+        <f t="shared" si="106"/>
+        <v>3</v>
+      </c>
+      <c r="V159" s="9">
+        <f t="shared" si="106"/>
+        <v>2</v>
+      </c>
+      <c r="Z159" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA159" s="9">
+        <f>RANK(AA155,($AA155:$AI155))</f>
+        <v>7</v>
+      </c>
+      <c r="AB159" s="9">
+        <f t="shared" ref="AB159:AI159" si="107">RANK(AB155,($AA155:$AI155))</f>
+        <v>8</v>
+      </c>
+      <c r="AC159" s="9">
+        <f t="shared" si="107"/>
+        <v>9</v>
+      </c>
+      <c r="AD159" s="9">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="AE159" s="9">
+        <f t="shared" si="107"/>
+        <v>4</v>
+      </c>
+      <c r="AF159" s="9">
+        <f t="shared" si="107"/>
+        <v>3</v>
+      </c>
+      <c r="AG159" s="9">
+        <f t="shared" si="107"/>
+        <v>6</v>
+      </c>
+      <c r="AH159" s="9">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="AI159" s="9">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B160" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="9">
+        <f t="shared" ref="C160:K160" si="108">RANK(C156,($C156:$K156))</f>
+        <v>6</v>
+      </c>
+      <c r="D160" s="9">
+        <f t="shared" si="108"/>
+        <v>5</v>
+      </c>
+      <c r="E160" s="9">
+        <f t="shared" si="108"/>
+        <v>3</v>
+      </c>
+      <c r="F160" s="9">
+        <f t="shared" si="108"/>
+        <v>2</v>
+      </c>
+      <c r="G160" s="9">
+        <f t="shared" si="108"/>
+        <v>9</v>
+      </c>
+      <c r="H160" s="9">
+        <f t="shared" si="108"/>
+        <v>8</v>
+      </c>
+      <c r="I160" s="9">
+        <f t="shared" si="108"/>
+        <v>7</v>
+      </c>
+      <c r="J160" s="9">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+      <c r="K160" s="9">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="M160" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N160" s="9">
+        <f>RANK(N156,($N156:$V156))</f>
+        <v>6</v>
+      </c>
+      <c r="O160" s="9">
+        <f t="shared" ref="O160:V160" si="109">RANK(O156,($N156:$V156))</f>
+        <v>4</v>
+      </c>
+      <c r="P160" s="9">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
+      <c r="Q160" s="9">
+        <f t="shared" si="109"/>
+        <v>2</v>
+      </c>
+      <c r="R160" s="9">
+        <f t="shared" si="109"/>
+        <v>9</v>
+      </c>
+      <c r="S160" s="9">
+        <f t="shared" si="109"/>
+        <v>7</v>
+      </c>
+      <c r="T160" s="9">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
+      <c r="U160" s="9">
+        <f t="shared" si="109"/>
+        <v>5</v>
+      </c>
+      <c r="V160" s="9">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="Z160" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA160" s="9">
+        <f>RANK(AA156,($AA156:$AI156))</f>
+        <v>6</v>
+      </c>
+      <c r="AB160" s="9">
+        <f t="shared" ref="AB160:AI160" si="110">RANK(AB156,($AA156:$AI156))</f>
+        <v>6</v>
+      </c>
+      <c r="AC160" s="9">
+        <f t="shared" si="110"/>
+        <v>9</v>
+      </c>
+      <c r="AD160" s="9">
+        <f t="shared" si="110"/>
+        <v>5</v>
+      </c>
+      <c r="AE160" s="9">
+        <f t="shared" si="110"/>
+        <v>3</v>
+      </c>
+      <c r="AF160" s="9">
+        <f t="shared" si="110"/>
+        <v>8</v>
+      </c>
+      <c r="AG160" s="9">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="AH160" s="9">
+        <f t="shared" si="110"/>
+        <v>2</v>
+      </c>
+      <c r="AI160" s="9">
+        <f t="shared" si="110"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B161" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="9">
+        <f t="shared" ref="C161:K161" si="111">RANK(C157,($C157:$K157))</f>
+        <v>2</v>
+      </c>
+      <c r="D161" s="9">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="9">
+        <f t="shared" si="111"/>
+        <v>8</v>
+      </c>
+      <c r="F161" s="9">
+        <f t="shared" si="111"/>
+        <v>7</v>
+      </c>
+      <c r="G161" s="9">
+        <f t="shared" si="111"/>
+        <v>5</v>
+      </c>
+      <c r="H161" s="9">
+        <f t="shared" si="111"/>
+        <v>9</v>
+      </c>
+      <c r="I161" s="9">
+        <f t="shared" si="111"/>
+        <v>3</v>
+      </c>
+      <c r="J161" s="9">
+        <f t="shared" si="111"/>
+        <v>6</v>
+      </c>
+      <c r="K161" s="9">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N161" s="9">
+        <f>RANK(N157,($N157:$V157))</f>
+        <v>2</v>
+      </c>
+      <c r="O161" s="9">
+        <f t="shared" ref="O161:V161" si="112">RANK(O157,($N157:$V157))</f>
+        <v>1</v>
+      </c>
+      <c r="P161" s="9">
+        <f t="shared" si="112"/>
+        <v>8</v>
+      </c>
+      <c r="Q161" s="9">
+        <f t="shared" si="112"/>
+        <v>6</v>
+      </c>
+      <c r="R161" s="9">
+        <f t="shared" si="112"/>
+        <v>7</v>
+      </c>
+      <c r="S161" s="9">
+        <f t="shared" si="112"/>
+        <v>9</v>
+      </c>
+      <c r="T161" s="9">
+        <f t="shared" si="112"/>
+        <v>3</v>
+      </c>
+      <c r="U161" s="9">
+        <f t="shared" si="112"/>
+        <v>5</v>
+      </c>
+      <c r="V161" s="9">
+        <f t="shared" si="112"/>
+        <v>4</v>
+      </c>
+      <c r="Z161" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA161" s="9">
+        <f>RANK(AA157,($AA157:$AI157))</f>
+        <v>6</v>
+      </c>
+      <c r="AB161" s="9">
+        <f t="shared" ref="AB161:AI161" si="113">RANK(AB157,($AA157:$AI157))</f>
+        <v>6</v>
+      </c>
+      <c r="AC161" s="9">
+        <f t="shared" si="113"/>
+        <v>9</v>
+      </c>
+      <c r="AD161" s="9">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
+      <c r="AE161" s="9">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="AF161" s="9">
+        <f t="shared" si="113"/>
+        <v>8</v>
+      </c>
+      <c r="AG161" s="9">
+        <f t="shared" si="113"/>
+        <v>3</v>
+      </c>
+      <c r="AH161" s="9">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AI161" s="9">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M90:P100">
-    <sortCondition ref="P90:P100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L90:O100">
+    <sortCondition ref="O90:O100"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="460">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="459">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="450">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J22">
+    <cfRule type="colorScale" priority="439">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T22">
+    <cfRule type="colorScale" priority="438">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T22 C4:J22">
+    <cfRule type="colorScale" priority="447">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="432">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="430">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
+    <cfRule type="colorScale" priority="427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:T25">
     <cfRule type="colorScale" priority="428">
       <colorScale>
         <cfvo type="min"/>
@@ -15954,31 +19063,151 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="427">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J22">
-    <cfRule type="colorScale" priority="418">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J22">
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="426">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="424">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="423">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="422">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="420">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J25">
+    <cfRule type="colorScale" priority="421">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="412">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80">
+    <cfRule type="colorScale" priority="413">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="409">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="408">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
     <cfRule type="colorScale" priority="407">
       <colorScale>
         <cfvo type="min"/>
@@ -15990,7 +19219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T22">
+  <conditionalFormatting sqref="C82:J83">
     <cfRule type="colorScale" priority="406">
       <colorScale>
         <cfvo type="min"/>
@@ -16002,19 +19231,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T22 C4:J22">
-    <cfRule type="colorScale" priority="415">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="404">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:J83">
+    <cfRule type="colorScale" priority="405">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:J80 C82:J83">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J25">
     <cfRule type="colorScale" priority="401">
       <colorScale>
         <cfvo type="min"/>
@@ -16026,7 +19279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="M4:T25">
     <cfRule type="colorScale" priority="400">
       <colorScale>
         <cfvo type="min"/>
@@ -16038,19 +19291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="399">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C62:J83">
     <cfRule type="colorScale" priority="398">
       <colorScale>
         <cfvo type="min"/>
@@ -16062,7 +19303,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C33:J51">
+    <cfRule type="colorScale" priority="396">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J51">
     <cfRule type="colorScale" priority="397">
       <colorScale>
         <cfvo type="min"/>
@@ -16074,7 +19327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
+  <conditionalFormatting sqref="C33:J51">
     <cfRule type="colorScale" priority="395">
       <colorScale>
         <cfvo type="min"/>
@@ -16086,19 +19339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:T25">
-    <cfRule type="colorScale" priority="396">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C33:J51">
     <cfRule type="colorScale" priority="394">
       <colorScale>
         <cfvo type="min"/>
@@ -16110,7 +19351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="393">
       <colorScale>
         <cfvo type="min"/>
@@ -16122,7 +19363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="392">
       <colorScale>
         <cfvo type="min"/>
@@ -16134,7 +19375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="391">
       <colorScale>
         <cfvo type="min"/>
@@ -16146,7 +19387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="390">
       <colorScale>
         <cfvo type="min"/>
@@ -16158,7 +19399,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
     <cfRule type="colorScale" priority="388">
       <colorScale>
         <cfvo type="min"/>
@@ -16170,344 +19435,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J25">
-    <cfRule type="colorScale" priority="389">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
-    <cfRule type="colorScale" priority="380">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80">
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:J54">
+    <cfRule type="colorScale" priority="385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J54">
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:J86">
     <cfRule type="colorScale" priority="381">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="378">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="377">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="376">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="375">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="374">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="372">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:J83">
-    <cfRule type="colorScale" priority="373">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J80 C82:J83">
-    <cfRule type="colorScale" priority="371">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J25">
-    <cfRule type="colorScale" priority="369">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T25">
-    <cfRule type="colorScale" priority="368">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:J83">
-    <cfRule type="colorScale" priority="366">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="364">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="365">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="363">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J51">
-    <cfRule type="colorScale" priority="362">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="361">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="360">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="359">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="358">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="357">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="355">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="356">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="354">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:J54">
-    <cfRule type="colorScale" priority="353">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J54">
-    <cfRule type="colorScale" priority="350">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:J86">
-    <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16519,7 +19484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:J57">
-    <cfRule type="colorScale" priority="348">
+    <cfRule type="colorScale" priority="380">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16531,7 +19496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:J28">
-    <cfRule type="colorScale" priority="346">
+    <cfRule type="colorScale" priority="378">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16543,7 +19508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:T28">
-    <cfRule type="colorScale" priority="345">
+    <cfRule type="colorScale" priority="377">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16555,7 +19520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="340">
+    <cfRule type="colorScale" priority="372">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16567,7 +19532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76:U77">
-    <cfRule type="colorScale" priority="336">
+    <cfRule type="colorScale" priority="368">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16579,7 +19544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79:U80">
-    <cfRule type="colorScale" priority="335">
+    <cfRule type="colorScale" priority="367">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16591,7 +19556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91:N101">
-    <cfRule type="colorScale" priority="293">
+    <cfRule type="colorScale" priority="325">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16603,7 +19568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O91:O101">
-    <cfRule type="colorScale" priority="292">
+    <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16615,7 +19580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P101">
-    <cfRule type="colorScale" priority="291">
+    <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16627,7 +19592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:K113">
-    <cfRule type="colorScale" priority="460">
+    <cfRule type="colorScale" priority="492">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16639,7 +19604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:K116">
-    <cfRule type="colorScale" priority="462">
+    <cfRule type="colorScale" priority="494">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16651,7 +19616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114:K116">
-    <cfRule type="colorScale" priority="464">
+    <cfRule type="colorScale" priority="496">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16663,7 +19628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:K121">
-    <cfRule type="colorScale" priority="288">
+    <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16675,7 +19640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:K116">
-    <cfRule type="colorScale" priority="468">
+    <cfRule type="colorScale" priority="500">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16687,7 +19652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:K117">
-    <cfRule type="colorScale" priority="470">
+    <cfRule type="colorScale" priority="502">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16699,7 +19664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:K117">
-    <cfRule type="colorScale" priority="289">
+    <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16711,7 +19676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:V54">
-    <cfRule type="colorScale" priority="471">
+    <cfRule type="colorScale" priority="503">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16723,7 +19688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:V54">
-    <cfRule type="colorScale" priority="479">
+    <cfRule type="colorScale" priority="511">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16735,7 +19700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:T54 U53:V54">
-    <cfRule type="colorScale" priority="487">
+    <cfRule type="colorScale" priority="519">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16747,7 +19712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:V57">
-    <cfRule type="colorScale" priority="255">
+    <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16759,7 +19724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="269">
+    <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16771,7 +19736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="270">
+    <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16783,7 +19748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="271">
+    <cfRule type="colorScale" priority="303">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16795,7 +19760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V51">
-    <cfRule type="colorScale" priority="268">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16807,7 +19772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:T54 U53:V54 M33:V51">
-    <cfRule type="colorScale" priority="253">
+    <cfRule type="colorScale" priority="285">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16819,7 +19784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="264">
+    <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16831,7 +19796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="265">
+    <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16843,7 +19808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="266">
+    <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16855,7 +19820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="263">
+    <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16867,7 +19832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF51">
-    <cfRule type="colorScale" priority="262">
+    <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16879,7 +19844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y53:AF54">
-    <cfRule type="colorScale" priority="258">
+    <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16891,7 +19856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y53:AF54">
-    <cfRule type="colorScale" priority="259">
+    <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16903,7 +19868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y52:AF54">
-    <cfRule type="colorScale" priority="260">
+    <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16915,7 +19880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y56:AF57">
-    <cfRule type="colorScale" priority="256">
+    <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16927,7 +19892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y52:AF54">
-    <cfRule type="colorScale" priority="257">
+    <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16939,7 +19904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AF54">
-    <cfRule type="colorScale" priority="254">
+    <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16951,7 +19916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:V54">
-    <cfRule type="colorScale" priority="251">
+    <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16963,7 +19928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN51">
-    <cfRule type="colorScale" priority="249">
+    <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16975,7 +19940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN51">
-    <cfRule type="colorScale" priority="250">
+    <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16987,7 +19952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN51">
-    <cfRule type="colorScale" priority="248">
+    <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16999,7 +19964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="247">
+    <cfRule type="colorScale" priority="279">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17011,7 +19976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="246">
+    <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17023,7 +19988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="245">
+    <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17035,7 +20000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="244">
+    <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17047,7 +20012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="243">
+    <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17059,7 +20024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="241">
+    <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17071,7 +20036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="242">
+    <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17083,7 +20048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ53:AN54">
-    <cfRule type="colorScale" priority="240">
+    <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17095,7 +20060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AN54">
-    <cfRule type="colorScale" priority="239">
+    <cfRule type="colorScale" priority="271">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17107,7 +20072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ56:AN57">
-    <cfRule type="colorScale" priority="238">
+    <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17119,7 +20084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC22">
-    <cfRule type="colorScale" priority="236">
+    <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17131,7 +20096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC22">
-    <cfRule type="colorScale" priority="237">
+    <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17143,7 +20108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC22">
-    <cfRule type="colorScale" priority="235">
+    <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17155,7 +20120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="234">
+    <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17167,7 +20132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="233">
+    <cfRule type="colorScale" priority="265">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17179,7 +20144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="232">
+    <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17191,7 +20156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="231">
+    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17203,7 +20168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="230">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17215,7 +20180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="228">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17227,7 +20192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="229">
+    <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17239,7 +20204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24:AC25">
-    <cfRule type="colorScale" priority="227">
+    <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17251,7 +20216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:AC25">
-    <cfRule type="colorScale" priority="226">
+    <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17263,7 +20228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27:AC28">
-    <cfRule type="colorScale" priority="225">
+    <cfRule type="colorScale" priority="257">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17275,7 +20240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="223">
+    <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17287,7 +20252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="224">
+    <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17299,7 +20264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="222">
+    <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17311,7 +20276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AL22">
-    <cfRule type="colorScale" priority="221">
+    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17323,7 +20288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="220">
+    <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17335,7 +20300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="219">
+    <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17347,7 +20312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="218">
+    <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17359,7 +20324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="217">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17371,7 +20336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="216">
+    <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17383,7 +20348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="214">
+    <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17395,7 +20360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="215">
+    <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17407,7 +20372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AL25">
-    <cfRule type="colorScale" priority="213">
+    <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17419,7 +20384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23:AL25">
-    <cfRule type="colorScale" priority="212">
+    <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17431,7 +20396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH27:AL28">
-    <cfRule type="colorScale" priority="211">
+    <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17443,7 +20408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="209">
+    <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17455,7 +20420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="210">
+    <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17467,7 +20432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="208">
+    <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17479,7 +20444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS22">
-    <cfRule type="colorScale" priority="207">
+    <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17491,7 +20456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="206">
+    <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17503,7 +20468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="205">
+    <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17515,7 +20480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="204">
+    <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17527,7 +20492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="203">
+    <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17539,7 +20504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="202">
+    <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17551,7 +20516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="200">
+    <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17563,7 +20528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="201">
+    <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17575,7 +20540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24:AS25">
-    <cfRule type="colorScale" priority="199">
+    <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17587,7 +20552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23:AS25">
-    <cfRule type="colorScale" priority="198">
+    <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17599,7 +20564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO27:AS28">
-    <cfRule type="colorScale" priority="197">
+    <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17611,7 +20576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AS25">
-    <cfRule type="colorScale" priority="196">
+    <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17623,7 +20588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X113">
-    <cfRule type="colorScale" priority="194">
+    <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17635,7 +20600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X113">
-    <cfRule type="colorScale" priority="195">
+    <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17647,7 +20612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X113">
-    <cfRule type="colorScale" priority="193">
+    <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17659,7 +20624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X116">
-    <cfRule type="colorScale" priority="189">
+    <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17671,7 +20636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X116">
-    <cfRule type="colorScale" priority="190">
+    <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17683,7 +20648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T119:X121">
-    <cfRule type="colorScale" priority="187">
+    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17695,7 +20660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X116">
-    <cfRule type="colorScale" priority="191">
+    <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17707,7 +20672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T117:X117">
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17719,7 +20684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115:X117">
-    <cfRule type="colorScale" priority="188">
+    <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17731,7 +20696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T91:X117">
-    <cfRule type="colorScale" priority="186">
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17743,7 +20708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="184">
+    <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17755,7 +20720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="185">
+    <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17767,7 +20732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="183">
+    <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17779,7 +20744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="182">
+    <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17791,7 +20756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG22">
-    <cfRule type="colorScale" priority="181">
+    <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17803,7 +20768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="180">
+    <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17815,7 +20780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="179">
+    <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17827,7 +20792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="178">
+    <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17839,7 +20804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17851,7 +20816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="176">
+    <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17863,7 +20828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="174">
+    <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17875,7 +20840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="175">
+    <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17887,7 +20852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="173">
+    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17899,7 +20864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="172">
+    <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17911,7 +20876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW27:BH28">
-    <cfRule type="colorScale" priority="171">
+    <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17923,7 +20888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BG25">
-    <cfRule type="colorScale" priority="170">
+    <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17935,7 +20900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:BG25">
-    <cfRule type="colorScale" priority="169">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17947,7 +20912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="167">
+    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17959,7 +20924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17971,7 +20936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="166">
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17983,7 +20948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17995,7 +20960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="164">
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18007,7 +20972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU22">
-    <cfRule type="colorScale" priority="163">
+    <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18019,7 +20984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18031,7 +20996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18043,7 +21008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18055,7 +21020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18067,7 +21032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="158">
+    <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18079,7 +21044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="156">
+    <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18091,7 +21056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="157">
+    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18103,7 +21068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="155">
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18115,7 +21080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18127,7 +21092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK27:BU28">
-    <cfRule type="colorScale" priority="153">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18139,7 +21104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18151,7 +21116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BU25">
-    <cfRule type="colorScale" priority="151">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18163,7 +21128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BU25">
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18175,7 +21140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BZ8">
-    <cfRule type="colorScale" priority="149">
+    <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18187,7 +21152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX4:BZ5">
-    <cfRule type="colorScale" priority="147">
+    <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18199,7 +21164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18211,7 +21176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18223,7 +21188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18235,7 +21200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="143">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18247,7 +21212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18259,7 +21224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33:BG51">
-    <cfRule type="colorScale" priority="141">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18271,7 +21236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18283,7 +21248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18295,7 +21260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="138">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18307,7 +21272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="137">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18319,7 +21284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18331,7 +21296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="134">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18343,7 +21308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18355,7 +21320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="133">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18367,7 +21332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18379,7 +21344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW56:BG57">
-    <cfRule type="colorScale" priority="131">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18391,7 +21356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:BG54">
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18403,7 +21368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW52:BG54">
-    <cfRule type="colorScale" priority="129">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18415,7 +21380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18427,7 +21392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18439,7 +21404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18451,7 +21416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18463,7 +21428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18475,7 +21440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU51">
-    <cfRule type="colorScale" priority="123">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18487,7 +21452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18499,7 +21464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="121">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18511,7 +21476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18523,7 +21488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="119">
+    <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18535,7 +21500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18547,7 +21512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18559,7 +21524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18571,7 +21536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18583,7 +21548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18595,7 +21560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK56:BU57">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18607,7 +21572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18619,7 +21584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18631,7 +21596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BU54">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18643,7 +21608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX36:BZ37">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18655,7 +21620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX33:BZ34">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18667,7 +21632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BU54">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18679,7 +21644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18691,7 +21656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18703,7 +21668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18715,7 +21680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18727,7 +21692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18739,7 +21704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18751,7 +21716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18763,7 +21728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18775,7 +21740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18787,7 +21752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD56:CK57">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18799,7 +21764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18811,7 +21776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18823,7 +21788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD53:CK54">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18835,7 +21800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD52:CK54">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18847,7 +21812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18859,6 +21824,294 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK51">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD33:CK54">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH22">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH24:BH25">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH4:BH25">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4:BH25">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA91:AE113">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -18870,296 +22123,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK51">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD33:CK54">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH22">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
+  <conditionalFormatting sqref="AA119:AE121">
     <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH24:BH25">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH25">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW4:BH25">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA91:AE113">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA119:AE121">
-    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19171,7 +22136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA114:AE114">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19183,7 +22148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA91:AE114">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19195,7 +22160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AE116">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19207,7 +22172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AE116">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19219,7 +22184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AE116">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19231,7 +22196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA117:AE117">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19243,7 +22208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AE117">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19255,7 +22220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA91:AE117">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19267,7 +22232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH91:AL113">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19279,7 +22244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH91:AL113">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19291,7 +22256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH91:AL113">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19303,7 +22268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH114:AL115">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19315,7 +22280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH114:AL115">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19327,7 +22292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH114:AL115">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19339,7 +22304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH91:AL115">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19351,7 +22316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH117:AL118">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19363,7 +22328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH117:AL118">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19375,7 +22340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH117:AL118">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19387,7 +22352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH119:AL119">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19399,7 +22364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH117:AL119">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19411,7 +22376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH117:AL119">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19423,7 +22388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH120:AL120">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19435,7 +22400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH120:AL120">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19447,7 +22412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH120:AL120">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19459,7 +22424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH91:AL120">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19471,7 +22436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH122:AL125">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19483,7 +22448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO91:AS113">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19495,7 +22460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO91:AS113">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19507,7 +22472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO91:AS113">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19519,7 +22484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO114:AS115">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19531,7 +22496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO114:AS115">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19543,7 +22508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO114:AS115">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19555,7 +22520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO91:AS115">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19567,7 +22532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO91:AS115">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19579,7 +22544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO117:AS118">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19591,7 +22556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO117:AS118">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19603,7 +22568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO117:AS118">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19615,7 +22580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO119:AS119">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19627,7 +22592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO117:AS119">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19639,7 +22604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO117:AS119">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19651,7 +22616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO120:AS120">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19663,7 +22628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO120:AS120">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19675,7 +22640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO120:AS120">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19687,7 +22652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO117:AS120">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19699,7 +22664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO122:AS126">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19711,6 +22676,270 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO91:AS120">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:K153">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N131:V153">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155:K156">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154:K156">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159:K161">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154:K156">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:K157">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154:K157">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N155:V156">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N155:V156">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N159:V161">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N155:V156">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N157:V157">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N155:V157">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA131:AI153">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA155:AI156">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA155:AI156">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA159:AI161">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA155:AI156">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA157:AI157">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA155:AI157">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA131:AI157">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -19738,14 +22967,14 @@
       <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>71</v>
       </c>
@@ -19759,12 +22988,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -19776,7 +23005,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -19791,7 +23020,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -19806,7 +23035,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -19821,7 +23050,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -19836,7 +23065,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -19851,7 +23080,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19866,7 +23095,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -19881,25 +23110,25 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="6">
         <f>AVERAGE(D3:D10)</f>
         <v>0.12141820499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -19914,7 +23143,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -19929,7 +23158,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -19944,7 +23173,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -19959,7 +23188,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -19974,7 +23203,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -19989,7 +23218,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -20004,7 +23233,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -20019,21 +23248,21 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6">
         <f>AVERAGE(D14:D24)</f>
         <v>0.13996555562500002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -20048,7 +23277,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -20063,7 +23292,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -20078,7 +23307,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9</v>
       </c>
@@ -20093,7 +23322,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -20108,7 +23337,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -20123,7 +23352,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -20138,7 +23367,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -20153,7 +23382,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -20168,7 +23397,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -20183,14 +23412,14 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6">
         <f>AVERAGE(D27:D36)</f>
         <v>0.142572749</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -20198,7 +23427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -20218,7 +23447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -20238,7 +23467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -20258,7 +23487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -20278,7 +23507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -20298,7 +23527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -20318,7 +23547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -20338,7 +23567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>1</v>
       </c>
@@ -20349,7 +23578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -20360,12 +23589,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -20373,7 +23602,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -20384,7 +23613,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
@@ -20392,7 +23621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -20403,7 +23632,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -20411,7 +23640,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -20428,7 +23657,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -20436,7 +23665,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -20447,12 +23676,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -20460,7 +23689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -20468,7 +23697,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -20476,7 +23705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -20484,7 +23713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -20492,7 +23721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -20500,7 +23729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
@@ -20511,7 +23740,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -20568,18 +23797,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5843A7B9-8C6A-49C0-80DF-2AAAD8F8BB56}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L1:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -20590,7 +23819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -20601,7 +23830,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -20612,7 +23841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -20623,7 +23852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -20634,7 +23863,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -20645,7 +23874,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -20656,7 +23885,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -20667,7 +23896,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -20678,7 +23907,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -20689,7 +23918,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -20700,7 +23929,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -20711,7 +23940,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -20736,9 +23965,9 @@
       <selection activeCell="K1" sqref="K1:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -20800,7 +24029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20862,7 +24091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20924,7 +24153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20986,7 +24215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -21048,7 +24277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21110,7 +24339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -21172,7 +24401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SUM(A1:A7)</f>
         <v>5</v>
@@ -21270,7 +24499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>D9/C9</f>
         <v>0.84515425472851657</v>
@@ -21296,7 +24525,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D11">
         <f>1-D10</f>
         <v>0.15484574527148343</v>
@@ -21322,7 +24551,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -21384,7 +24613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -21446,7 +24675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -21508,7 +24737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -21570,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -21632,7 +24861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -21694,7 +24923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -21756,7 +24985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>SUM(A25:A31)</f>
         <v>5</v>
@@ -21854,7 +25083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D23">
         <f>D22/C22</f>
         <v>0.84515425472851646</v>
@@ -21880,7 +25109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D24">
         <f>1-D23</f>
         <v>0.15484574527148354</v>
@@ -21906,7 +25135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A14^2</f>
         <v>1</v>
@@ -21932,7 +25161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:B31" si="12">A15^2</f>
         <v>0</v>
@@ -21970,7 +25199,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -21996,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -22022,7 +25251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -22048,7 +25277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -22074,7 +25303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -22113,12 +25342,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -22126,7 +25355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>102</v>
       </c>
@@ -22134,7 +25363,7 @@
         <v>0.67522919999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>103</v>
       </c>
@@ -22142,7 +25371,7 @@
         <v>0.72097429999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>104</v>
       </c>
@@ -22150,7 +25379,7 @@
         <v>0.73604950000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>105</v>
       </c>
@@ -22158,7 +25387,7 @@
         <v>0.74281589999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>100</v>
       </c>
@@ -22166,7 +25395,7 @@
         <v>0.79301920000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>106</v>
       </c>
@@ -22174,7 +25403,7 @@
         <v>0.7960429</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>107</v>
       </c>
@@ -22182,7 +25411,7 @@
         <v>0.80097890000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>108</v>
       </c>
@@ -22190,7 +25419,7 @@
         <v>0.80124850000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>109</v>
       </c>
@@ -22198,7 +25427,7 @@
         <v>0.80483879999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>110</v>
       </c>
@@ -22206,7 +25435,7 @@
         <v>0.85670449999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>111</v>
       </c>
